--- a/examples/Australia OGD/rations_issued/profile.xlsx
+++ b/examples/Australia OGD/rations_issued/profile.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +435,30 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>default_count</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>default_value</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>most_frequent_value</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -508,18 +517,26 @@
       <c r="P2" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>wAROKE</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>KELLY</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
         <v>46286</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>2565</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>['ABBO', 'ABBOTT', 'ABERCROMBIE', 'ABERNETHY', 'ABRAHAM', 'ACORN', 'ADAMS', 'ADAMSON', 'ADDERLY', 'ADDISON', 'ADIE', 'ADONGA', 'AERMO', 'AFFLECK', 'AGNEW', 'AHERN', 'AIREY', 'AITKEN', 'ALBUTT', 'ALDER', 'ALE', 'ALEXANDER', 'ALFORD', 'ALLARDICE', 'ALLEN', 'ALLSOP', 'ALLWOOD', 'ALTY', 'ALVEY', 'AMERY', 'ANDERSEN', 'ANDERSON', 'ANDREASEN', 'ANDREW', 'ANDREWS', 'ANGELL', 'ANGLE', 'ANTHONY', 'APPIER', 'APPLEMAN', 'APPLEYARD', 'APPLIN', 'ARCHARD', 'ARCHER', 'ARGLES', 'ARMATE', 'ARMITAGE', 'ARMSTRONG', 'ARNDT', 'ARNOLD', 'ARTHUR', 'ASHMAN', 'ASHTON', 'ASKEY', 'ASMUS', 'ASPINALL', 'ASSHEAD', 'ATKINSON', 'ATTERNALL', 'AULFREY', 'AURCLIAS', 'AUSTIN', 'AYLAND', 'AZZOPARDI', 'BADCOCK', 'BADCOOK', 'BADDOE', 'BAILEY', 'BAILLIE', 'BAKER', 'BALDINGER', 'BALE', 'BALL', 'BALLAN', 'BALLARD', 'BALLERINE', 'BALLIER', 'BALSTONE', 'BAMFORD', 'BANNEN', 'BANNISTER', 'BARBER', 'BARCLAY', 'BARDEN', 'BARDON', 'BARDSLEY', 'BARKER', 'BARKLEY', 'BARNES', 'BARNETT', 'BARNS', 'BARON', 'BARREL', 'BARROW', 'BARRY', 'BARTER', 'BARTHELSEN', 'BARTON', 'BATEMAN', 'BATES', 'BATH', 'BATSTONE', 'BATTLE', 'BATY', 'BAUER', 'BAUMANN', 'BAVID', 'BAWDIN', 'BAXTER', 'BAYLISS', 'BEAL', 'BEALES', 'BEAN', 'BEANLAND', 'BEARDIE', 'BEARDMON', 'BEATLE', 'BEATTEY', 'BEAZLEY', 'BECKINSALE', 'BECKOFF', 'BEECHAM', 'BEETHAM', 'BEGNALL', 'BEIDERMANN', 'BEIKOFF', 'BEIMECK', 'BELEY', 'BELL', 'BELLAMY', 'BELLIS', 'BENFOLD', 'BENINI', 'BENNETT', 'BENTLY', 'BERESFORD', 'BERGT', 'BERLYN', 'BERMINGHAM', 'BERNETT', 'BERNEY', 'BERRY', 'BERRYMAN', 'BEST', 'BEVAN', 'BIBBINGTON', 'BIEMECK', 'BIGWOOD', 'BILLA', 'BILLINGLSLEY', 'BINWOOD', 'BIRCHLEY', 'BIRD', 'BIRDSLEY', 'BISGROVE', 'BISHOP', 'BISSETT', 'BIZAT', 'BLACK', 'BLACKER', 'BLADWELL', 'BLAKE', 'BLANCHARD', 'BLAND', 'BLEARY', 'BLENKIROW', 'BLOYES', 'BLUNDELL', 'BLYTHE', 'BODE', 'BODIN', 'BOGAN', 'BOHAN', 'BOLGER', 'BOLT', 'BOLTON', 'BOLWELL', 'BONAR', 'BONDLER', 'BONEHAM', 'BONHAM', 'BONNAR', 'BONSER', 'BOOKER', 'BOOTH', 'BOOTH late KEENAN', 'BORLANDER', 'BORNE', 'BOSANKE', 'BOSANTO', 'BOSS', 'BOSWELL', 'BOTTERALL', 'BOTTOMBERG', 'BOUKE', 'BOULGER', 'BOURKE', 'BOURNE', 'BOWDEN', 'BOWEN', 'BOWLAND', 'BOX', 'BOYCE', 'BOYD', 'BOYFORD', 'BOYLAND', 'BOYLE', 'BOYNES', 'BRACKEN', 'BRADBURN', 'BRADBURY', 'BRADEY', 'BRADLEY', 'BRADSHAW', 'BRADY', 'BRAIN', 'BRAKE', 'BRAMBRIDGE', 'BRAND', 'BRANDT', 'BRAY', 'BRAYFIELD', 'BRAZEL', 'BRAZIER', 'BRAZIL', 'BREEN', 'BREENE', 'BREMAHAN', 'BREMAN', 'BRENNAN', 'BRESCHKE', 'BREWSTER', 'BRIAN', 'BRIDE', 'BRIDGEWATER', 'BRIEN', 'BRIENS', 'BRIGGS', 'BRIMLEY', 'BRINDLEY', 'BRISCHKE', 'BRISTOW', 'BRITTON', 'BROAD', 'BROADBRIDGE', 'BROADWITH', 'BROCKLEN', 'BRODIE', 'BRODY', 'BROMBACK', 'BROOK', 'BROOM', 'BROOMFIELD', 'BROSNAN', 'BROUGHAM', 'BROWN', 'BROWNE', 'BROWNING', 'BROWNLEES', 'BRUCE', 'BRUEN', 'BRUMBY', 'BRUMER', 'BRUNTON', 'BRYAN', 'BRYANT', 'BRYNOR', 'BUCHER', 'BUCKINGHAM', 'BUCKLEY', 'BUDD', 'BUDGETT', 'BUECI', 'BULLOCK', 'BUNT', 'BURCOMBE', 'BURDEN', 'BURGESS', 'BURGIN', 'BURKE', 'BURKHARDT', 'BURKOFF', 'BURLEY', 'BURLIN', 'BURN', 'BURNE', 'BURNES', 'BURNICOAT', 'BURNS', 'BURNSIDE', 'BURPHY', 'BURRAGE', 'BURRIDGE', 'BURTON', 'BUSH', 'BUSHBRIDGE', 'BUTCHER', 'BUTLER', 'BUTROYD', 'BUTTERWORTH', 'BUTTLER', 'BUZZOLI', 'BYERS', 'BYLAND', 'BYMIER', 'BYRNE', 'BYRNES', 'BYRON', 'CADMAN', 'CADOGAN', 'CADOW', 'CAHALANE', 'CAHILL', 'CAIL', 'CAIN', 'CAIRNS', 'CALDWELL', 'CALLAGHAM', 'CALLAHAN', 'CALLAN', 'CALVERT', 'CAMERON', 'CAMPBELL', 'CANE', 'CANNING', 'CANNON', 'CANT', 'CANTER', 'CANTHRAY', 'CAPPELLINI', 'CARBOY', 'CARDOCK', 'CAREW', 'CAREY', 'CARL', 'CARLEEN', 'CARLGOIST', 'CARLON', 'CARMAN', 'CARMODY', 'CARNEY', 'CARR', 'CARRAW', 'CARREW', 'CARROL', 'CARROLL', 'CARRON', 'CARRUTHERS', 'CARRY', 'CARSON', 'CARSTENSEN', 'CARSWELL', 'CARTER', 'CARVER', 'CASEY', 'CASHEN', 'CASHMAN', 'CASSALL', 'CASSIDY', 'CASTLE', 'CAVANAGH', 'CAVINS', 'CHADWICK', 'CHAFFER', 'CHALLONER', 'CHALMERS', 'CHAMBERS', 'CHAMPION', 'CHAPLIN', 'CHARMIN', 'CHASE', 'CHASTWARD', 'CHATAIN', 'CHATTERTON', 'CHEWEY', 'CHILDS', 'CHILLEN', 'CHLOPCZIG', 'CHRISTENSEN', 'CHRISTIE', 'CHRISTION', 'CHRISTOPHER', 'CHURCH', 'CHURCHILL', 'CIONELLI', 'CLACKERTY', 'CLAFFEY', 'CLAIRE', 'CLANCEY', 'CLANCY', 'CLAPTON', 'CLARK', 'CLARKE', 'CLARKSON', 'CLASKEN', 'CLAYTON', 'CLEARY', 'CLEMENT', 'CLEMENTS', 'CLIFFORD', 'CLOE', 'CLOWER', 'COAD', 'COADY', 'COAN', 'COB', 'COCHRANE', 'COCKERN', 'COCKRAN', 'COE', 'COFFEY', 'COGLAN', 'COGLIN', 'COHILL', 'COLE', 'COLEMAN', 'COLES', 'COLLEMON', 'COLLETT', 'COLLIE', 'COLLIER', 'COLLINS', 'COLLINSON', 'COLLIWAN', 'COLLY', 'COLMAN', 'COLTER', 'COLWELL', 'COLWOOD', 'COMMONS', 'CONCANNON', 'CONDEN', 'CONDON', 'CONE', 'CONIE', 'CONLAN', 'CONLON', 'CONN', 'CONNELL', 'CONNELLY', 'CONNOLLY', 'CONNOR', 'CONNORS', 'CONOLLY', 'CONROY', 'CONSEDINE', 'CONTSTANTINE', 'CONVAN', 'CONWAY', 'COOK', 'COOKE', 'COOMBE', 'COOMLEY', 'COONEY', 'COOPER', 'COOTE', 'COPELAND', 'COPNELL', 'COPPEN', 'CORBERT', 'CORBET', 'CORBETT', 'CORBY', 'CORCORAN', 'CORDELL', 'CORKHILL', 'CORMACK', 'CORNHILL', 'CORR', 'CORRIGAN', 'CORRIN', 'CORRY', 'COSTELLO', 'COSTOBADIC', 'COTTELL', 'COTTER', 'COTTON', 'COUGHLAN', 'COULTHARDT', 'COURT', 'COURTENAY', 'COURTNEY', 'COUSIN', 'COUZENS', 'COVENSALL', 'COWAN', 'COX', 'COYLE', 'COYNE', 'CRABTREE', 'CRAGO', 'CRAIG', 'CRAIGHEAD', 'CRAKE', 'CRANE', 'CRANWITCH', 'CRAWFORD', 'CRAWLEY', 'CREAMER', 'CREED', 'CREGAN', 'CREWE', 'CRIGAN', 'CROCKFORD', 'CROFT', 'CROMBIE', 'CROMBY', 'CROMWELL', 'CRONAN', 'CRONIN', 'CROOM', 'CROSBIE', 'CROSBY', 'CROSS', 'CROTHY', 'CROUCHER', 'CROWE', 'CROWLEY', 'CRUIKSHANK', 'CRUISE', 'CRUMMIN', 'CRUMP', 'CRUTCHFIELD', 'CRYAN', 'CULHANE', 'CULL', 'CULLEN', 'CULLINAN', 'CUMBERS', 'CUMMINGS', 'CUMMINS', 'CUNEEN', 'CUNLIFFE', 'CUNNINGHAM', 'CUPPLES', 'CURLEY', 'CURNON', 'CURRON', 'CURTIN', 'CURTIS', 'CURTON', 'CUSSACK', 'DABELSTIEN', 'DAINTON', 'DALAND', 'DALE', 'DALEY', 'DALLING', 'DALTON', 'DALY', 'DAMTON', 'DANES', 'DANIEL', 'DANIELS', 'DANZIGER', 'DARBY', 'DARE', 'DARK', 'DARMODY', 'DARNBOOM', 'DARRANT', 'DARWENT', 'DAVEY', 'DAVID', 'DAVIDSON', 'DAVIES', 'DAVIS', 'DAW', 'DAWAS', 'DAWLING', 'DEACON', 'DEAN', 'DEANE', 'DEARN', 'DEARY', 'DEASE', 'DEBNAN', 'DECKER', 'DEELEY', 'DEEN', 'DELAHUNTY', 'DELANEY', 'DEMPSEY', 'DEMPSTER', 'DENBY', 'DENCHANS', 'DENHAM', 'DENLAY', 'DENLEY', 'DENNANT', 'DENNIS', 'DENNISON', 'DENVIL', 'DERHET', 'DERMOTH', 'DESNEY', 'DEUTECHMANN', 'DEVERETT', 'DEVILLE', 'DEVLIN', 'DEXS', 'DIBBS', 'DICK', 'DICKENSON', 'DICKINSON', 'DICKS', 'DICKSON', 'DIGE', 'DIGNAN', 'DILLON', 'DIMOND', 'DINGNAN', 'DINGWALL', 'DIPLOCK', 'DIPROSE', 'DIVAN', 'DIVER', 'DOBRITZ', 'DOBSON', 'DODGE', 'DOIG', 'DOLAN', 'DOLPHIN', 'DOMIN', 'DONITHORNE', 'DONLAN', 'DONNELLY', 'DONNILLAN', 'DONOGHUE', 'DONOHOE', 'DONOHUE', 'DONOVAN', 'DONSWORTH', 'DOOLAN', 'DOOLIN', 'DOOMING', 'DORSE', 'DOUGLAS', 'DOWD', 'DOWDLE', 'DOWER', 'DOWLING', 'DOWN', 'DOWNDELYN', 'DOYLE', 'DRAPER', 'DREW', 'DRISCOLL', 'DRUMMOND', 'DRURY', 'DRYDEN', 'DRYSDALE', 'DUANA', 'DUASSA', 'DUCCI', 'DUDLEY', 'DUESBURY', 'DUFFY', 'DUGARD', 'DUGGAN', 'DUMLEARY', 'DUMMETT', 'DUMPHY', 'DUNBAR', 'DUNCAN', 'DUNDAS', 'DUNGWORTH', 'DUNLEAVY', 'DUNN', 'DUNNE', 'DUNNING', 'DUNPHY', 'DUNSTAN', 'DUNSTER', 'DUNSTON', 'DWYER', 'DYN', 'EADE', 'EAGAN', 'EAMES', 'EARLE', 'EARLEY', 'EARLY', 'EAST', 'EATWELL', 'ECKER', 'ECKSTEIN', 'EDGHILL', 'EDMONDSON', 'EDMUNDSON', 'EDWARDS', 'EGAN', 'EHRLICH', 'EICHBAUM', 'ELDRED', 'ELIAS', 'ELKINGTON', 'ELLERY', 'ELLIOT', 'ELLIOTT', 'ELLIS', 'ELSTONE', 'ELY', 'EMMONS', 'ENGLAND', 'ENGLISH', 'ENNIS', 'ENRIGHT', 'EPPS', 'ERALD', 'EREANDSON', 'ERICKSEN', 'ERISMANN', 'EVANS', 'EWALD', 'EYRE', 'FAGAN', 'FAGERETROM', 'FAHILY', 'FAIANI', 'FAIRLEY', 'FALCONER', 'FANELL', 'FANNING', 'FARAN', 'FARDON', 'FARGUSON', 'FARMER', 'FARR', 'FARRELL', 'FARRELLY', 'FARRILY', 'FEALY', 'FEATHER', 'FECHNAY', 'FEE', 'FEEHILLY', 'FEELEY', 'FEENEY', 'FEMHOC', 'FEMHOI', 'FENER', 'FENISON', 'FENNARTY', 'FERGNOON', 'FERGUSON', 'FERRIS', 'FESSEY', 'FIDDICK', 'FIELD', 'FIELDING', 'FIFE', 'FIGGINS', 'FILTER', 'FIM', 'FINCH', 'FINEGAN', 'FINEY', 'FINGER', 'FINK', 'FINLAY', 'FINLAYSON', 'FINN', 'FINNERMAN', 'FINNY', 'FINUCANE', 'FIRKIN', 'FISCHER', 'FISHER', 'FITZELL', 'FITZGERALD', 'FITZGIBBON', 'FITZHENRY', 'FITZMAURICE', 'FITZPATRICK', 'FITZSIMON', 'FLAHERTY', 'FLANAGAN', 'FLANNAGAN', 'FLANNERY', 'FLEMMING', 'FLETCHER', 'FLETT', 'FLINT', 'FLOOD', 'FLUCK', 'FLYNN', 'FODEN', 'FOLAN', 'FOLEY', 'FOLLAND', 'FORAN', 'FORBES', 'FORD', 'FORDE', 'FORDON', 'FOREMAN', 'FORREST', 'FOSSEY', 'FOSTER', 'FOULKAS', 'FOURNER', 'FOWLER', 'FOX', 'FOXTON', 'FOY', 'FRAME', 'FRAMPTON', 'FRANCHESE', 'FRANCIS', 'FRANDERS', 'FRANKER', 'FRANKLIN', 'FRANKS', 'FRANSEN', 'FRANZ', 'FRASER', 'FREDERICKSEN', 'FREDSHEVG', 'FREEMAN', 'FRENCH', 'FRIAR', 'FRIES', 'FRISKE', 'FROST', 'FROSTICK', 'FULLER', 'FULTON', 'FUNGE', 'FURY', 'GAFFNEY', 'GALACHER', 'GALELIEN', 'GALL', 'GALLAGHER', 'GALLOCHER', 'GALLOWAY', 'GALOIN', 'GALY', 'GAMBLE', 'GARDINER', 'GARDNER', 'GARLICK', 'GARRETT', 'GARROTT', 'GARVEY', 'GASCOYNE', 'GASOM', 'GATCHES', 'GATLEY', 'GAUDIN', 'GAVAGAN', 'GAVEKI', 'GAVEY', 'GAYNOR', 'GEDDES', 'GEE', 'GELLING', 'GEORGE', 'GERRARD', 'GERTZ', 'GIBBLING', 'GIBBON', 'GIBBONS', 'GIBBS', 'GIBSON', 'GICK', 'GIDDY', 'GILBERT', 'GILDED', 'GILES', 'GILFELLOW', 'GILFILLAN', 'GILFOYLE', 'GILL', 'GILLICK', 'GILLING', 'GILLMAN', 'GILLOM', 'GILLOOLY', 'GILMARTIN', 'GILMORE', 'GIRVAN', 'GITTONS', 'GLANCEY', 'GLANVILLE', 'GLASCOW', 'GLASGOW', 'GLASS', 'GLEESON', 'GLEGG', 'GLENDENING', 'GLENNON', 'GLORRE', 'GLOVER', 'GLUGAS', 'GLYNN', 'GLYNNEY', 'GODFREY', 'GODFRY', 'GODWIN', 'GOLDECHERT', 'GOLDY', 'GOLL', 'GOOD', 'GOODMAN', 'GOODWIN', 'GOOMLEY', 'GORDON', 'GORMAN', 'GORMANN', 'GOTHAM', 'GOUGH', 'GOULD', 'GOULDIN', 'GOULTEN', 'GOWAN', 'GOWLAND', 'GOYARTY', 'GRACE', 'GRADY', 'GRAHAM', 'GRAN', 'GRANT', 'GRAUCOCK', 'GRAVESON', 'GRAY', 'GRAYHAM', 'GREADY', 'GREANY', 'GREEN', 'GREENHEAD', 'GREENING', 'GREENWOOD', 'GREER', 'GREETT', 'GREGGS', 'GREGHEGSON', 'GREGORY', 'GREIG', 'GRENN', 'GRENNAN', 'GRIENE', 'GRIFFIN', 'GRIFFITH', 'GRIFFITHS', 'GRIFFY', 'GRILL', 'GRIMAN', 'GRIMES', 'GROGAN', 'GROOM', 'GROOMBRIDGE', 'GROSS', 'GROVE', 'GRUER', 'GRUN', 'GRUSDOHY', 'GUBBANPAUL', 'GUILDFOYLE', 'GUILFORD', 'GULLEFORD', 'GULLY', 'GUMBLE', 'GUMLEY', 'GUNDERSDATTER', 'GUNDERSEN', 'GUNN', 'GUNTHARDT', 'GUT', 'GUTHRIE', 'GUTTERIDGE', 'HABLIFF', 'HABSTLE', 'HADLINGTON', 'HAGAN', 'HAGSHOM', 'HAIN', 'HAINES', 'HAIRE', 'HAKES', 'HALEGOOD', 'HALFNIGHT', 'HALL', 'HALLEY', 'HALLITT', 'HALLMAN', 'HAMILTON', 'HAMMERSTIEN', 'HAMPTON', 'HANCOCK', 'HAND', 'HANDSEN', 'HANDY', 'HANLEY', 'HANLON', 'HANNA', 'HANNAFORD', 'HANNAH', 'HANNAN', 'HANNELY', 'HANNIGAN', 'HANRAHAN', 'HANSEN', 'HARCAS', 'HARDING', 'HARE', 'HARLEY', 'HARM', 'HARNEY', 'HAROLD', 'HARRIGAN', 'HARRINGTON', 'HARRIS', 'HARRISON', 'HARRISSON', 'HARROP', 'HART', 'HARTAGE', 'HARTE', 'HARTNETT', 'HARVEY', 'HASTINGS', 'HATTEN', 'HATTON', 'HAWKE', 'HAWKER', 'HAWKINS', 'HAWKSWORTH', 'HAY', 'HAYES', 'HAYNES', 'HAYWARD', 'HAZILL', 'HEAD', 'HEAHEN', 'HEALEY', 'HEALY', 'HEATES', 'HEATH', 'HEES', 'HEFFELS', 'HEFFERMAN', 'HEFFERNAN', 'HEFFI', 'HEHER', 'HEHIN', 'HEISE', 'HENDERSEN', 'HENDERSON', 'HENDRY', 'HENNELLY', 'HENNESSY', 'HENNEWOOD', 'HENNINGSEN', 'HENRICKS', 'HENRICKSON', 'HENRY', 'HENWOOD', 'HERBERTON', 'HERMANSEN', 'HERON', 'HERTZ', 'HESSIAN', 'HEUER', 'HEWETT', 'HEWITT', 'HEWLETT', 'HEWOHER', 'HIBBS', 'HIBBUT', 'HICKEY', 'HICKIN', 'HICKMAN', 'HIENRICK', 'HIGGINS', 'HIGGINSTONE', 'HIGHAM', 'HILL', 'HILLS', 'HILLWEBBER', 'HILTON', 'HINSHEY', 'HIRST', 'HITCHMAN', 'HOBBINS', 'HOBBS', 'HOCKRIDGE', 'HODDART', 'HODGE', 'HODGES', 'HODGKIN', 'HODGSON', 'HOELKSEN', 'HOFFLIR', 'HOFFMANN', 'HOGAN', 'HOGG', 'HOLBERG', 'HOLDEN', 'HOLE', 'HOLFORD', 'HOLLAND', 'HOLLISON', 'HOLLOHAN', 'HOLLOWAY', 'HOLME', 'HOLMES', 'HOLT', 'HOLZ', 'HOLZMANN', 'HOMANN', 'HOMPSON', 'HONER', 'HOOD', 'HOODLEY', 'HOOG', 'HOOK', 'HOOLAHAN', 'HOOPER', 'HOPKINS', 'HOPPI', 'HOPPINGS', 'HOPWOOD', 'HORAN', 'HORN', 'HORNBLOWER', 'HORNER', 'HORRELL', 'HORTON', 'HOSKING', 'HOSKINGS', 'HOSKINS', 'HOULEY', 'HOULIHAN', 'HOURSTON', 'HOUSE', 'HOUSTON', 'HOWARD', 'HOWARTH', 'HOWDEN', 'HOWELL', 'HOWELLS', 'HOWIE', 'HOWSON', 'HUBER', 'HUBNER', 'HUGHES', 'HULSE', 'HUNDTOFTE', 'HUNNINGHAM', 'HUNT', 'HUNTER', 'HURLE', 'HURLEY', 'HURLIN', 'HURNEY', 'HURT', 'HUSSEY', 'HUSTON', 'HUTCHINS', 'HUTCHINSON', 'HUTTON', 'HYDE', 'HYSLOP', 'IBBETSON', 'INCHES', 'IRELAND', 'IRVINE', 'IRWIN', 'ISAAC', 'ISBISTER ?', 'JACKMAN', 'JACKSON', 'JACKWITZ', 'JACOBSEN', 'JACOBSON', 'JAMES', 'JAMIESON', 'JARDINE', 'JARRNETT', 'JARVIS', 'JAUTFEN', 'JAY', 'JEBBATT', 'JEFFRY', 'JENKINS', 'JENNINGS', 'JENNS', 'JENSEN', 'JEPPSSON', 'JERCHOW', 'JEREMAN', 'JESSEN', 'JESSON', 'JOBISTER', 'JOHANNSEN', 'JOHANSEN', 'JOHN', 'JOHNS', 'JOHNSON', 'JOHNSTON', 'JOHNSTONE', 'JONES', 'JONSSON', 'JORDAN', 'JORGENSEN', 'JOSEPH', 'JOY', 'JOYCE', 'JSLER', 'JURGENS', 'JURGENSON', 'KAISS', 'KAMPRED', 'KASPER', 'KAVANAGH', 'KAY', 'KAYSER', 'KEAN', 'KEANE', 'KEANSLEY', 'KEARIE', 'KEARNE', 'KEARNEY', 'KEATES', 'KEATING', 'KEAY', 'KEEBLE', 'KEEGAN', 'KEENAN', 'KEENE', 'KEETON', 'KEHLS', 'KEHMS', 'KELCHER', 'KELEHER', 'KELLEHER', 'KELLEY', 'KELLIHER', 'KELLY', 'KELSON', 'KEMP', 'KEN', 'KENDALL', 'KENDRICK', 'KENEDY', 'KENNEDY', 'KENNINGTON', 'KENNY', 'KENT', 'KENWICK', 'KEOGH', 'KEOHAM', 'KERMODE', 'KERNI', 'KERNOHAN', 'KERR', 'KERSHAW', 'KERSTON', 'KEVNICK', 'KEY', 'KEYS', 'KIDD', 'KIELY', 'KILLEEN', 'KILLELIA', 'KILLMURRAY', 'KILPATRICK', 'KILROY', 'KING', 'KINGSTON', 'KINNAN', 'KINNANE', 'KINSELLA', 'KIRBY', 'KIRK', 'KIRKLAND', 'KISBEE', 'KISSANE', 'KITCHEN', 'KITCHINGS', 'KITTLEWALL', 'KITTLEWELL', 'KLAGES', 'KLAPPER', 'KLAPPOCK', 'KLAUSEN', 'KLIBBE', 'KLOPP', 'KLOSE', 'KNEE', 'KNIGHT', 'KNOWLES', 'KNUDSEN', 'KOHL', 'KRAMER', 'KREGSUBRINK', 'KROGER', 'KROGH', 'KRONHOLM', 'KRUGER', 'KRULE', 'KRUMBACK', 'KRUMMEN', 'KRUNBACK', 'KRUPMAN', 'KUHN', 'KULM', 'KUNKLE', 'KURZEIVEIL', 'KYLE', 'LACKY', 'LACY', 'LADEWIG', 'LAING', 'LAKE', 'LAMBERT', 'LAMOND', 'LAMONT', 'LANCASTER', 'LANCEY', 'LANDERS', 'LANDSCHAPP', 'LANE', 'LANGDON', 'LANGFORD', 'LANGLEY', 'LANHAHAN', 'LANYON', 'LAPPIN', 'LARCOMBE', 'LARKIN', 'LARMER', 'LARRIGAN', 'LARRUM', 'LARSEN', 'LAURIZEN', 'LAVELLE', 'LAWEYY', 'LAWLOR', 'LAWRENCE', 'LAWSON', 'LAWTON', 'LAY', 'LE FEUVRE', 'LEACH', 'LEAGUE', 'LEAHEY', 'LEAHY', 'LEAKE', 'LEAN', 'LECKEY', 'LEE', 'LEEDS', 'LEGGITT', 'LEHANE', 'LEIGHTON', 'LEINHARDT', 'LEISHMON', 'LEITH', 'LEMAINE', 'LEMARTY', 'LEMIN', 'LENNEY', 'LENNON', 'LENSI', 'LEONARD', 'LESCHKE', 'LESSAW', 'LETFORD', 'LEVINE', 'LEWAS', 'LEWIN', 'LEWIS', 'LEYDON', 'LEYSHAW', 'LIDDELL', 'LIEBAN', 'LIGHTFOOT', 'LILLEY', 'LINDSKE', 'LINEHAM', 'LINEHAN', 'LINGARD', 'LINHANE', 'LINNANE', 'LINTORN', 'LISTER', 'LISTON', 'LITTLE', 'LITTLEFAIR', 'LITTLEWOOD', 'LIVINGSTONE', 'LLEWELLYN', 'LLOYD', 'LLOYDE', 'LOCKYER', 'LOGAN', 'LOMAS', 'LONDER', 'LONERGAN', 'LONG', 'LONGDON', 'LORRIGAN', 'LOUGHNAN', 'LOUGHRAN', 'LOUGHRANE', 'LOUGHRY', 'LOUGHTEN', 'LOUTH', 'LOVE', 'LOVELL', 'LOVETT', 'LOWRY', 'LOWTHA', 'LOWTHER', 'LUCAS', 'LUDERS', 'LUGG', 'LUMBERT', 'LUNN', 'LUPTON', 'LUTHERALL', 'LYDEN', 'LYDON', 'LYLE', 'LYNCH', 'LYND', 'LYOD', 'LYON', 'LYONS', 'LYSIN', 'LYTHALL', 'MACCARTHY', 'MACFARLANE', 'MACKELMANN', 'MACKENZIE', 'MACKEY', 'MACKIE', 'MACKLIN', 'MACKRELL', 'MADDIN', 'MADDOCKS', 'MADSEN', 'MAGNIE', 'MAGRATH', 'MAGUIRE', 'MAHER', 'MAHN', 'MAHON', 'MAHONEY', 'MAISHMAN', 'MAKE', 'MALAHY', 'MALCOLM', 'MALI', 'MALINGS', 'MALLIN', 'MALLISON', 'MALONE', 'MALONEY', 'MALPAS', 'MALVA', 'MAM', 'MANAHAN', 'MANN', 'MANNALL', 'MANNERS', 'MANNING', 'MANNION', 'MARA', 'MARGERISSON', 'MARHSCHINSKY', 'MARK', 'MARKEY', 'MARKS', 'MARLOW', 'MARRINAN', 'MARSHALL', 'MARTAGE', 'MARTIN', 'MASON', 'MASTAGE', 'MASTERS', 'MASTERTON', 'MATHA', 'MATHER', 'MATHEWS', 'MATHSCHINSKY', 'MATHUSON', 'MATON', 'MATSON', 'MATTHEW', 'MATTHEWS', 'MATTON', 'MAUNDELL', 'MAUNDRELL', 'MAUNDULL', 'MAUNSELL', 'MAUSKETT', 'MAWEENEY', 'MAXWELL', 'MAY', 'MAYER', 'MAYFIELD', 'MEADE', 'MEADS', 'MEAGHER', 'MEANEY', 'MEARA', 'MEDDUK', 'MEDLEY', 'MEE', 'MEENAGHAN', 'MEHSE', 'MEIER', 'MEILKE', 'MELIA', 'MELKSHAM', 'MELODY', 'MELROSE', 'MELSDELTER', 'MEM', 'MEMENY', 'MEREDITH', 'MERSER', 'MESSING', 'METCALF', 'METZLOFF', 'MEWACK', 'MEYER', 'MEYTS', 'MICKKELSON', 'MIDDLETON', 'MIKKELSEN', 'MILEHELL', 'MILES', 'MILEU', 'MILL', 'MILLAR', 'MILLARD', 'MILLER', 'MILLS', 'MILNE', 'MINCASTER', 'MINEHAM', 'MINES', 'MINIHAN', 'MINOGUE', 'MITCHELL', 'MITCHINSON', 'MIX', 'MOCKFORD', 'MOFFATT', 'MOGENSEN', 'MOHONEY', 'MOLLISON', 'MOLLOY', 'MOLLYNEUX', 'MOLONEY', 'MOLOUGHNEY', 'MOLTON', 'MONI', 'MONKEN', 'MONROW', 'MONTGOMERY', 'MOONEY', 'MOORE', 'MORAN', 'MORCONSEN', 'MORGAN', 'MORIARITY', 'MORIARTY', 'MORINS', 'MORISH', 'MORLEY', 'MORNEY', 'MORNSEN', 'MOROSKE', 'MORREL', 'MORRELL', 'MORRINAN', 'MORRIS', 'MORRISEY', 'MORRISH', 'MORRISON', 'MORRISSEY', 'MORSUS', 'MORTHEATE', 'MOSELEY', 'MOSLEY', 'MOSS', 'MOULE', 'MOUNTFORD', 'MOUSE', 'MOXEY', 'MOYINHAN', 'MOYSE', 'MUCAHY', 'MUDDLEBROOK', 'MUIR', 'MUIRHEAD', 'MULCAHY', 'MULDOON', 'MULER', 'MULLER', 'MULLINS', 'MULROONEY', 'MUMFORD', 'MUNAN', 'MUNRO', 'MUNROW', 'MURCHIE', 'MURCHINN', 'MURDOCK', 'MURISON', 'MURO', 'MURPHY', 'MURRAY', 'MURRY', 'MURTAGE', 'MYER', 'MYERS', 'MYLES', 'MacGURRIGLE', 'McALLISTER', 'McALSER', 'McARA', 'McAULIFFE', 'McAVOY', 'McBAIN', 'McBRIDE', 'McCABE', 'McCAFFREY', 'McCALL', 'McCALLUM', 'McCAMBRIDGE', 'McCANE', 'McCANN', 'McCARRON', 'McCARTHY', 'McCAULEY', 'McCAWLAY', 'McCLASKEY', 'McCLEAD', 'McCLOY', 'McCLURE', 'McCOAL', 'McCOLL', 'McCOMBE', 'McCORMACK', 'McCORMICK', 'McCOY', 'McCRORY', 'McCUBBEN', 'McCUE', 'McCURRAN', 'McDONAGH', 'McDONALD', 'McDONNELL', 'McDORRAGH', 'McDOUGALL', 'McDUWELL', 'McELGAN', 'McELGON', 'McENVY', 'McEWIN', 'McFARLANE', 'McFLINN', 'McGANN', 'McGARRIGLE', 'McGARTH', 'McGEE', 'McGEORNEY', 'McGHEE', 'McGINLEY', 'McGLICUDDY', 'McGLINN', 'McGLOINE', 'McGOLRICK', 'McGORIN', 'McGORRAN', 'McGOVERN', 'McGOWAN', 'McGRATH', 'McGREGOR', 'McGUIGAN', 'McGUINESS', 'McGUIRE', 'McGUIRK', 'McHAB', 'McHUGH', 'McILWEEN', 'McINDAL', 'McINDOE', 'McINERING', 'McINERNAY', 'McINERNEY', 'McINERY', 'McINTOSH', 'McINTYRE', 'McKAY', 'McKEAN', 'McKECKNIE', 'McKEDDIE', 'McKEE', 'McKELCHIE', 'McKENZIE', 'McKEOGH', 'McKINNON', 'McKURNAN', 'McLAUGHLIN', 'McLEAN', 'McLELLAND', 'McLENNAN', 'McLEOD', 'McLOUGHLIN', 'McMAHON', 'McMANUS', 'McMILLAN', 'McMILLIGAN', 'McMINAMIN', 'McMONAGH', 'McNAH', 'McNALLY', 'McNAMARA', 'McNAUGHT', 'McNEILL', 'McNEILLE', 'McNIELL', 'McNULTY', 'McPHAIL', 'McPHEE', 'McQUALLY', 'McQUORY', 'McSHEA', 'McSORBY', 'McVETTER', 'McWALTER', 'NADONGA', 'NAGEL', 'NAGLE', 'NALOW', 'NANKERVIS', 'NANKEVILLE', 'NAUGHTON', 'NAYLOR', 'NEAL', 'NEALON', 'NEAT', 'NEBI', 'NEEDHAM', 'NEHLS', 'NEIDERNAM', 'NEILSON', 'NELSON', 'NETMER', 'NEUMAN', 'NEVILLE', 'NEVIN', 'NEVINE', 'NEWBURN', 'NEWILL', 'NEWITT', 'NEWMAN', 'NEWTON', 'NICHOLAS', 'NICHOLLS', 'NICHOLSON', 'NICOL', 'NIECHIMEKI', 'NIEL', 'NIELSDOTTER', 'NIELSEN', 'NIELSON', 'NISBETT', 'NISCTIWSKI', 'NIXON', 'NOAKA', 'NOBLE', 'NOLAN', 'NORCLIFFE', 'NORMAN', 'NORRIS', 'NORTON', 'NOSOTTI', 'NOTH', 'NOTT', 'NUGENT', 'NUTE', 'NUTTING', 'O BREEN', 'O BRIEN', 'O BRYAN', 'O CALLAGHAN', 'O CONNELL', 'O CONNER', 'O CONNOR', 'O DEA', 'O DONNEL', 'O DONNELL', 'O DWYER', 'O GORMAN', 'O GRADY', 'O HAGAN', 'O KEEFE', 'O LEARY', 'O LOUGHLEN', 'O LOUGHLIN', 'O MALLEY', 'O MULLAM', 'O NEIL', 'O NIEL', 'O REILLY', 'O ROURKE', 'O SHAUGHNESSY', 'O TOOLE', 'OAKES', 'OAKLEY', 'OATEN', 'OCCHS', 'OELSEN', 'OELSNER', 'OGDEN', 'OHLSEN', 'OLCSDOTTER', 'OLDFIELD', 'OLIVER', 'OLSEN', 'ORCHARD', 'ORMOND', 'OSBORN', 'OSBORNE', 'OTT', 'OUGHTON', 'OULD', 'OWEN', 'OXMAN', 'PAASKE', 'PACCELLI', 'PACKHAM', 'PALADINNI', 'PALLESTIN', 'PALMER', 'PAMPILLANI', 'PARBURRY', 'PARBURY', 'PARDECK', 'PARDON', 'PARK', 'PARKER', 'PARKIN', 'PARKINS', 'PARKS', 'PARRY', 'PARSON', 'PARSONS', 'PARTON', 'PASCOE', 'PATERSON', 'PATRELL', 'PATRICK', 'PATTERSON', 'PATTINSON', 'PATTON', 'PAUL', 'PAULSEN', 'PAVES', 'PAYNE', 'PEAHERS', 'PEARCE', 'PEARN', 'PEARSON', 'PEATERS', 'PEDERSEN', 'PEED', 'PEGG', 'PEGLER', 'PEHRSON', 'PEMBROKE', 'PENDERGAST', 'PENGELLY', 'PENGELY', 'PENMAN', 'PENNER', 'PENNINGTON', 'PENSON', 'PERCY', 'PERKINS', 'PERREN', 'PERRINS', 'PERROTT', 'PERRY', 'PERSON', 'PERSSE', 'PETER', 'PETERS', 'PETERSEN', 'PETRIE', 'PETTS', 'PFISTER', 'PHILIPS', 'PHILLIP', 'PHILLIPS', 'PICKERING', 'PIDGEON', 'PIKE', 'PILKINGTON', 'PILLAGE', 'PILLING', 'PINCHIN', 'PIPER', 'PISHAK', 'PITT', 'PLANKA', 'PLATT', 'PLEACE', 'PLISTED', 'PLUCKNETT', 'PLUMMER', 'PLUNKETT', 'PODD', 'POINTER', 'POLLARD', 'POLYNESIAN', 'POLZIN', 'POMEROY', 'POOL', 'POOLE', 'PORTER', 'POTHEWAY', 'POTTER', 'POULSEN', 'POULTNEY', 'POWE', 'POWELL', 'POWER', 'POYSEN', 'PRANGLEY', 'PRATT', 'PRENSO', 'PRESTON', 'PRICE', 'PRIDDY', 'PRIEST', 'PRIESTLEY', 'PRIOR', 'PRITCHARD', 'PRITCHETT', 'PROCTOR', 'PROSDOCINI', 'PROUT', 'PRTICHARD', 'PRYCE', 'PRYER', 'PUDDLE', 'PUGH', 'PURTELL', 'PURVIS', 'PYM', 'PYNE', 'QUANE', 'QUICK', 'QUIGLEY', 'QUILTY', 'QUIN', 'QUINAN', 'QUINE', 'QUINLAN', 'QUINLIVAN', 'QUINN', 'QUIRKE', 'QURALAN', 'RADKE', 'RAE', 'RAECKE', 'RAFERTY', 'RAFTER', 'RAGGITT', 'RAGIONEVI', 'RAIL', 'RAMPTON', 'RAMSAY', 'RAMSEY', 'RANDON', 'RANGER', 'RANKIN', 'RANY', 'RASMUSSEN', 'RAVENSCROFT', 'RAVERTY', 'RAWLINGS', 'RAYNES', 'RAYNOR', 'READ', 'REARDON', 'REBHOBZ', 'RECKOW', 'REDDY', 'REDFORD', 'REECE', 'REED', 'REES', 'REFFICKE', 'REGAN', 'REID', 'REILLY', 'REIMERS', 'REINKE', 'RENDALL', 'RERSGAARD', 'RETTSCHLAG', 'REYNOLDS', 'RIALL', 'RICE', 'RICHARD', 'RICHARDS', 'RICHARDSON', 'RICHMOND', 'RICKETTS', 'RIELD', 'RIELLY', 'RILEY', 'RINGROSE', 'RINNY', 'RIORDAN', 'RIPLEY', 'RITCHIE', 'ROBBINS', 'ROBERTS', 'ROBERTSON', 'ROBINSON', 'ROBSON', 'ROCHE', 'RODDAM', 'RODERICK', 'RODGERS', 'ROGERS', 'ROHDE', 'RONAN', 'ROOKSLEY', 'ROONEY', 'ROSCOLD', 'ROSE', 'ROSENLAND', 'ROSENLUND', 'ROSS', 'ROSSBUIN', 'ROSSBUN', 'ROSSER', 'ROTH', 'ROUND', 'ROURKE', 'ROUSELL', 'ROUTE', 'ROVERY', 'ROWBOTHAM', 'ROWD', 'ROWE', 'ROWLAND', 'ROWLES', 'ROWLEY', 'ROYAN', 'ROYE', 'RUDD', 'RUDGE', 'RUSKE', 'RUSMUSSEN', 'RUSSEL', 'RUSSELL', 'RUTTER', 'RYAN', 'RYLAND', 'RYNNE', 'SALMON', 'SALTER', 'SALVADORE', 'SAMPSON', 'SAMUEL', 'SANDERS', 'SANDERSON', 'SANDS', 'SANISBURY', 'SATINLEY', 'SAUGNESSY', 'SAUNDERS', 'SAVAGE', 'SAXBY', 'SAYERS', 'SCAMMEL', 'SCAMMELL', 'SCANLAN', 'SCANLON', 'SCANNELL', 'SCARLET', 'SCARLETT', 'SCASE', 'SCHAFFERIGNS', 'SCHEFFLER', 'SCHEIKOWEKI', 'SCHENK', 'SCHIBOOWSKIE', 'SCHIBROWSKI', 'SCHION', 'SCHIPPLIK', 'SCHLACK', 'SCHMARK', 'SCHMIDT', 'SCHMITZ', 'SCHNIEDWIND', 'SCHOFIELD', 'SCHONEBUK', 'SCHONROCK', 'SCHONSOCK', 'SCHOON', 'SCHOTT', 'SCHRANK', 'SCHROEDER', 'SCHULZ', 'SCHURER', 'SCHUTE', 'SCHWERSO', 'SCORCH', 'SCOTT', 'SCROGGS', 'SCULLY', 'SEALES', 'SEEGAR', 'SEETAR', 'SEIFERT', 'SELLER', 'SELLEY', 'SEMAL', 'SEWARD', 'SEXTON', 'SHACK', 'SHANAHAN', 'SHANNAHAN', 'SHARP', 'SHAW', 'SHEA', 'SHEADY', 'SHEAH', 'SHEARER', 'SHEARS', 'SHEBELLING', 'SHEEHAN', 'SHEEHY', 'SHEEN', 'SHEERAN', 'SHENRAHAN', 'SHEPHARD', 'SHEPPARD', 'SHEPPIN', 'SHERIDAN', 'SHERIDON', 'SHINE', 'SHIPPARD', 'SHOMMCOCK', 'SHORTAL', 'SHORTALL', 'SHORTER', 'SIERRRERT', 'SILVER', 'SILVESTER', 'SILWOOD', 'SIM', 'SIMINSON', 'SIMPSON', 'SIMS', 'SINGLETON', 'SISNEY', 'SISSETT', 'SISSY', 'SKACFE', 'SKAN', 'SKARFE', 'SKERRINGTON', 'SKIDMORE', 'SKYNNE', 'SLANSKY', 'SLATEY', 'SLATTERY', 'SLAUGHTER', 'SLEAN', 'SLEATH', 'SLOCUMB', 'SMACK', 'SMARK', 'SMART', 'SMELLIE', 'SMILLIE', 'SMITH', 'SMITHERS', 'SMURTHWAITE', 'SMYTH', 'SMYTHE', 'SNAPE', 'SNOOK', 'SNOW', 'SOMERVILLE', 'SOMMERFELD', 'SON', 'SORENSEN', 'SORENSON', 'SOSHMAN', 'SOUTHALL', 'SPAIN', 'SPEAN', 'SPEAR', 'SPEDDING', 'SPERLING', 'SPILLER', 'SPINNER', 'SPIRES', 'SPOMAN', 'SPRAGUE', 'SPRATT', 'SPURDLE', 'ST JOHN', 'STACEY', 'STACK', 'STANCLIFFE', 'STANITON', 'STANLEY', 'STANTON', 'STANWAY', 'STAPLER', 'STAPLETON', 'STEELE', 'STEHR', 'STEINER', 'STEPHEN', 'STEPHENS', 'STEPHENSEN', 'STEPHENSON', 'STERNSON', 'STERZING', 'STEVENS', 'STEVENSON', 'STEWARD', 'STEWART', 'STIBBARDS', 'STILES', 'STILGOE', 'STOCKALL', 'STOJHR', 'STOKES', 'STONE', 'STOUT', 'STRACHAN', 'STRAIN', 'STRAMACH', 'STRAND', 'STREAM', 'STREHLAN', 'STRICKLAND', 'STUART', 'STUBBINGTON', 'STUBBS', 'STUCKLEY', 'STUR', 'STUTTER', 'SUINAMON', 'SULLIVAN', 'SUMAKE', 'SUMMERS', 'SUMMONS', 'SUNDELL', 'SURMAN', 'SUTER', 'SUTHERLAND', 'SUTTON', 'SVENDSEN', 'SWAIN', 'SWAN', 'SWEENEY', 'SWEOLLEN', 'SWIFT', 'SYKES', 'SYMONS', 'TACKER', 'TADD', 'TADT', 'TAEBKE', 'TAFFE', 'TAFT', 'TAIT', 'TALBOT', 'TALTY', 'TARAHAN', 'TARRANT', 'TARSENE', 'TASLING', 'TASMER', 'TATTERSALL', 'TAVNUR', 'TAYLOR', 'TEASDALE', 'TEASE', 'TEDFORD', 'TEDISCOMBE', 'TEEVOR', 'TELFORD', 'TELLERS', 'TEMPLER', 'TENCH', 'TEOKELL', 'TERRY', 'THAKE', 'THAM', 'THAMBOA', 'THATHO', 'THELEFSEN', 'THESA', 'THIMARACK', 'THOMAS', 'THOMPSON', 'THOMSEN', 'THORN', 'THORPE', 'THOUKI', 'THUSKELDSEN', 'THWAITES', 'TIBBEY', 'TICHINOR', 'TIERNEY', 'TIMMY', 'TINKER', 'TIPPER', 'TIPPING', 'TOBIN', 'TOLLERTON', 'TOMKINSON', 'TOMLINES', 'TONKINSON', 'TOOL', 'TOOLE', 'TOOVEY', 'TORGESEN', 'TORNBERG', 'TOUGH', 'TOVEY', 'TOWELL', 'TOWHY', 'TOWNSEND', 'TOY', 'TRACEY', 'TRAISE', 'TRASK', 'TRAVERS', 'TREACEY', 'TREACY', 'TREASURE', 'TREGONING', 'TREHERNE', 'TREICHEL', 'TRELOAR', 'TREVANKIS', 'TREVATHAN', 'TREVATHEN', 'TREVOR', 'TRIMBLE', 'TRITT', 'TROHLOFF', 'TROTT', 'TROUGHTON', 'TROWBRIDGE', 'TRUDGEON', 'TUCKER', 'TUICKNELL', 'TUNKEY', 'TUNY', 'TURCHEK', 'TURNER', 'TURUN', 'TUTICCI', 'TWEDDLE', 'TWEED', 'TWEEDALE', 'TWOHY', 'TWOMEY', 'TWOMY', 'TYDINGS', 'TYE', 'TYLER', 'TYMONS', 'TYSON', 'UBANK', 'ULETT', 'UNGOOD', 'UNNAMED', 'UPTON', 'VALLEHY', 'VALLIER', 'VANDERWOLF', 'VANDERY', 'VANE', 'VARLEY', 'VAUGH', 'VAUGHAN', 'VAYSEY', 'VEAL', 'VEDIH', 'VEELONG', 'VEITH', 'VELA', 'VERNON', 'VERONI', 'VEST', 'VEUILLE', 'VEY', 'VICKERY', 'VILE', 'VIMNICONSTIL', 'VINCENS', 'VINNICONSTIL', 'VOLKEL', 'VOZZI', 'VULCH', 'WADDELL', 'WAGNER', 'WAITE', 'WAKELY', 'WALDEN', 'WALDRON', 'WALKER', 'WALL', 'WALLACE', 'WALLER', 'WALLIS', 'WALSH', 'WALTERS', 'WALTHER', 'WALTON', 'WANZEICH', 'WARD', 'WARDROP', 'WARE', 'WARKS', 'WARNE', 'WARNER', 'WARNES', 'WARNOCK', 'WARREN', 'WARSNA', 'WASON', 'WATCHMAN', 'WATERFIELD', 'WATERS', 'WATKIN', 'WATKINS', 'WATSON', 'WATT', 'WATTIE', 'WAULDRON', 'WAYARDT', 'WEARING', 'WEATHERHEAD', 'WEBB', 'WEBSTER', 'WEDLOCK', 'WEEKS', 'WEIFER', 'WEINEGRUN', 'WEIR', 'WEISS', 'WELBOURN', 'WELLINGTON', 'WELLS', 'WELWOOD', 'WERNER', 'WESCHEL', 'WEST', 'WETHERALL', 'WEYNES', 'WHEELDON', 'WHEELER', 'WHELAN', 'WHELAW', 'WHELLEN', 'WHEWAY', 'WHILIMORE', 'WHITAKER', 'WHITBOURNE', 'WHITE', 'WHITEHEAD', 'WHITEHORN', 'WHITELAW', 'WHITING', 'WHITTAKER', 'WHITTINGHAM', 'WHITTLE', 'WHYTE', 'WICKHAM', 'WIDLOCK', 'WIDMANN', 'WIEBACK', 'WIFERLING', 'WILCE', 'WILCOX', 'WILDING', 'WILDSMITTE', 'WILE', 'WILKINSON', 'WILLBRAM', 'WILLET', 'WILLETS', 'WILLGRESS', 'WILLIAMS', 'WILLISS', 'WILLOUGHBY', 'WILLS', 'WILMOT', 'WILSON', 'WILTON', 'WIMS', 'WINNIE', 'WINTER', 'WINTOUR', 'WISMER', 'WIX', 'WOLFE', 'WONSON', 'WOOD', 'WOODCOCK', 'WOODHOUSE', 'WOODLEY', 'WOODROCK', 'WOODS', 'WOODWARD', 'WOOLCOCK', 'WOOLEY', 'WORGAN', 'WORKMAN', 'WORLEY', 'WORMACOTT', 'WORNINGTON', 'WORRALL', 'WORTHMAN', 'WREMBECK', 'WRIGHT', 'WRINGE', 'WULFF', 'WYATT', 'WYLIE', 'YADA', 'YALLA', 'YARNTON', 'YEADON', 'YEALES', 'YEOMANS', 'YOELMANN', 'YOUNG', 'YOURK', 'YOUSTER', 'YUILE', 'ZAHMEL', 'ZALLINGER', 'ZANDER', 'ZEIMER', 'ZEISSLER', 'ZIMMERLI', 'wAROKE']</t>
         </is>
@@ -578,18 +595,26 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>wife of Mils</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
         <v>42537</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>1159</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>['1 Infant of Henry', '1 Infant of Isaac', '1 Infant of John', '1 Infant of Mr', '1 Infant of Walter', '1 child', '1 child of Mr', '1 female Infant of Henry', '1 female child of Alfred', '1 female child of Jno', '1 female child of Joseph', '1 female child of Matt', '1 female child of Mr', '1 female child of Walter', '1 female child of William', '1 female child of William S', '1 male child of Geo F', '1 male child of Henry', '1 male child of Jno', '1 male child of John', '1 male child of Joseph', '1 male child of Mr', '1 male child of Pat', '1 male child of Sydney', '1 male child of William', '1 male child of William S', '2 children of Mr', '2 female child of Mr', '2 female children of Chas', '2 female children of David', '2 female children of Eli', '2 female children of Mr', '2 female children of William', '2 male child of Mr', '2 male children of David', '2 male children of Eli', '2 male children of John', '2 male children of Joseph', '2 male children of Mr', '2 male children of William', '3 female children of Mr', '3 male children of John', '3 male children of William', '67', 'A', 'Aaron', 'Abalvin', 'Abrah', 'Abraham', 'Acheson', 'Ada', 'Adam', 'Adelaide', 'Adolf', 'Adolph', 'Adolphe', 'Adolphine', 'Adolpho', 'Aeneas', 'Agathe', 'Agnes', 'Agnes G', 'Agnes Inf', 'Agustine', 'Alaide', 'Albert', 'Albert Inf', 'Albertine', 'Aldoph', 'Alena', 'Alex', 'Alex S', 'Alex.', 'Alexander', 'Alexandr Inf', 'Alexdr', 'Alexr', 'Alexr C', 'Alexr Inf', 'Alf', 'Alfd', 'Alfred', 'Alfred C', 'Alfred J', 'Alice', 'Alice E', 'Alice Inf', 'Alice M', 'Allen', 'Allen C Inf', 'Allice', 'Alphons', 'Amadi', 'Amalie', 'Amante', 'Ambrose', 'Amelia', 'Amelia M', 'Amie R', 'Amy', 'Anactatia', 'Anastatia', 'Anders', 'Anders A', 'Anders P', 'Anders Peter', 'Andrea', 'Andreas', 'Andrew', 'Andrina', 'Andrine O', 'Ane', 'Ane Maria', 'Ann', 'Ann B', 'Ann Dorth', 'Ann Maria', 'Anna', 'Anna L', 'Anna M', 'Anna Maria', 'Anne', 'Anne Beata', 'Anne E', 'Anne Kirstine', 'Anner', 'Annes', 'Annetta', 'Annetti', 'Annice', 'Annie', 'Annie E', 'Annie G', 'Annie H', 'Annie Inf', 'Annie J', 'Annisina', 'Anthan', 'Anthony', 'Anton', 'Antonio', 'Archd', 'Archibald', 'Archie', 'Arnold', 'Arthur', 'Arthur Inf', 'Asenath', 'Ashley', 'Attina', 'August', 'Augusta', 'Augusta R', 'Auguste', 'Augusti', 'Augustus', 'Austin', 'Avma', 'Axel', 'Axel Hollg', 'Balfour', 'Balthsheba', 'Banghan', 'Barbara', 'Bartholomew', 'Bartley', 'Batram', 'Beatrice', 'Beatrice Inf', 'Bella', 'Belzebub', 'Ben', 'Bengt A', 'Benj', 'Benjamin', 'Benjamine', 'Benjm', 'Benjn', 'Bennett', 'Bernard', 'Bernhard', 'Berta', 'Bertha', 'Berthildi', 'Bessie', 'Bessie Inf', 'Bessy', 'Betsey', 'Betsy', 'Billy', 'Blanche', 'Boatswain', 'Bob', 'Booth', 'Brian', 'Bridget', 'Bridget Inf', 'Bridgt', 'Britter', 'Bruno', 'Bryan', 'Bryant', 'Burton', 'C F W', 'C Wm', 'Canehetta', 'Captain', 'Captain George', 'Carl', 'Carl A', 'Carl Aug', 'Carl Auguste', 'Carl C', 'Carl F', 'Carl F W', 'Carl G', 'Carl J K', 'Carl T', 'Caroline', 'Cassandra', 'Cassie', 'Catane', 'Cath', 'Catharina', 'Catharine', 'Cathe', 'Catherine', 'Catherine E', 'Catherine Inf', 'Cathn', 'Cathne', 'Celia', 'Charity', 'Charles', 'Charles A', 'Charles Inf', 'Charles W', 'Charlie', 'Charlotte', 'Charlotte Inf', 'Chas', 'Chas E', 'Chas G', 'Chas W', 'Chistr', 'Chris', 'Christ', 'Christ M', 'Christen', 'Christen C', 'Christian', 'Christian N B', 'Christian P', 'Christiana', 'Christina', 'Christine', 'Christoper', 'Christopher', 'Christr', 'Clara', 'Clara J', 'Claretta', 'Claudius', 'Claus', 'Cockey', 'Colin', 'Come back', 'Constance Inf', 'Cornelias', 'Cornelius', 'Crawford Inf', 'Dan', 'Daniel', 'Daniel T P', 'Daniel W', 'Danl', 'David', 'David Henry', 'David Inf', 'Deborah', 'Delia', 'Delia Inf', 'Denah', 'Denis', 'Dennis', 'Dinah', 'Doctor', 'Domnick', 'Donald', 'Dora', 'Dora Inf', 'Dorcas', 'Dormer', 'Douglas', 'Duncan', 'E A', 'E J', 'E. Ann', 'Ebenezer', 'Ed', 'Edd', 'Edgar', 'Edith', 'Edmond', 'Edmund', 'Edward', 'Edward Inf', 'Edwardine', 'Edwd', 'Edwd A', 'Edwin', 'Eleanor', 'Elen', 'Eleonore', 'Eli', 'Elijah', 'Elise', 'Elise Soph', 'Elisha', 'Eliz', 'Eliza', 'Eliza A', 'Eliza Inf', 'Elizabeth', 'Elizabeth A', 'Elizabeth Inf', 'Elizabetta', 'Elizah', 'Elizbth', 'Elizh', 'Elizt', 'Elizth', 'Elizth A', 'Elizth J', 'Elizth L', 'Elizth M', 'Elizth T', 'Ellen', 'Ellen E', 'Ellen Inf', 'Ellen Sophie', 'Ellie', 'Ellonore', 'Elsa', 'Elsabe', 'Else', 'Ely', 'Emil', 'Emilia', 'Emilie', 'Emily', 'Emily E', 'Emma', 'Emma Inf', 'Emmanuel', 'Enos', 'Erasmus', 'Ernest', 'Ernest A', 'Ernestine', 'Ernst M', 'Erwin', 'Essex', 'Esther', 'Ethel Inf', 'Eucema', 'Eugen', 'Eugene', 'Eugenie A', 'Euphemia', 'Europe', 'Euvil', 'Eva', 'Evan', 'Evelyn', 'Evey', 'F', 'F C A', 'F Mr', 'F W', 'Falconer', 'Fannie', 'Fanny', 'Felix', 'Ferdinand', 'Ferdinand L', 'Ferdinandaie', 'Filippo', 'Fk C', 'Fk W', 'Florence', 'Florence Inf', 'Flourie', 'Foster', 'Frances', 'Frances A', 'Frances H', 'Francis', 'Francis W', 'Frandsine', 'Frank', 'Franny', 'Franz', 'Franz D G', 'Fraudsine', 'Fred', 'Fred A', 'Fred Aug', 'Fred Hy', 'Fred W', 'Frederick', 'Frederick Inf', 'Fredericke', 'Frederika', 'Frederike', 'Fredk', 'Fredk Henry', 'Fredrich', 'Fredrick', 'Fredrika', 'Fredrike', 'Fredz', 'Friederic', 'Friedr', 'Friedrich', 'Friedrick', 'Fritz', 'Fritz Carl', 'Fritz I W', 'G', 'G F', 'G R', 'Gabriel', 'Gardu', 'Gemima', 'Geo', 'Geo A', 'Geo F', 'Geo H', 'Geo Inf', 'Geo J', 'Geo T', 'Geo W', 'Georg', 'George', 'George A', 'George E', 'George Edwd', 'George F', 'George Gustave', 'George H', 'George Inf', 'George M', 'George R', 'George W', 'Georgie', 'Georgina', 'Georgine', 'Geovanni', 'Gerald', 'Gerhud', 'Gertrude', 'Geruda', 'Gibson', 'Gilcamina', 'Ginnini', 'Giovana', 'Giovanni', 'Gorin', 'Gorven', 'Gothbert', 'Gottfr', 'Gottfried', 'Gottlieb', 'Grace', 'Guiseppe', 'Guiseppi', 'Gunne', 'Gustav', 'Gustave', 'H', 'H M M', 'Hanh', 'Hanna L', 'Hannah', 'Hannah F', 'Hannah Inf', 'Hanora', 'Hans', 'Hans A', 'Hans F', 'Hans J', 'Hans J K', 'Hans P', 'Hans Peter', 'Hansine', 'Harold', 'Harriet', 'Harriet D', 'Harriett', 'Harrne', 'Harry', 'Hartley', 'Harvey', 'Hattie', 'Hatton', 'Haus', 'Heinr', 'Heinrich', 'Heinrick', 'Heirman', 'Helen', 'Helen M', 'Helena', 'Helene', 'Hellen', 'Henl', 'Henrich', 'Henrietta', 'Henriette', 'Henry', 'Henry C A', 'Henry G', 'Henry Inf', 'Henry J', 'Henry R', 'Herbert', 'Herbert H', 'Herm', 'Herm Aug', 'Herman', 'Herman V', 'Hermann', 'Hermine', 'Hermoine', 'Hester', 'Hienrich', 'Hilda', 'Hiram', 'Honor', 'Honora', 'Honorah', 'Honoria', 'Horatio', 'Howard', 'Hubert', 'Hugh', 'Hughina', 'Hy', 'I', 'I W', 'Ida', 'Infant of John', 'Infant of Mr', 'Infant of William', 'Ingred', 'Isa', 'Isaac', 'Isabella', 'Isabella Inf', 'Isak', 'Issabele', 'Issabella', 'J', 'J G', 'J J', 'J K', 'Jabez', 'Jacob', 'Jacob C F', 'Jacob C K', 'Jacob F', 'Jacob P', 'Jacobine W', 'James', 'James A', 'James C', 'James E', 'James F', 'James H', 'James Inf', 'James N', 'James W I See also John', 'Jane', 'Jane A', 'Jane H', 'Jane Inf', 'Janet', 'Jannett', 'Jans', 'Jas', 'Jasper', 'Jeanette', 'Jemima', 'Jemmy', 'Jennette', 'Jennie', 'Jens', 'Jens C', 'Jens Chr', 'Jens Christ', 'Jens Peter', 'Jephthah', 'Jeppeine', 'Jeremiah', 'Jeremiah Inf', 'Jesse', 'Jesse T', 'Jesse Y', 'Jessie', 'Jeus', 'Jinney', 'Jng Marie', 'Jno M', 'Jno Mr', 'Jno W', 'Joan', 'Job', 'Joe', 'Joen', 'Joh Johs', 'Johann', 'Johann F', 'Johann H', 'Johann Jacob', 'Johanna', 'Johanna Inf', 'Johanne', 'Johanne C', 'Johanne M', 'Johannes', 'John', 'John A', 'John B', 'John D', 'John E', 'John F', 'John G', 'John H', 'John Inf', 'John J', 'John Julius', 'John L', 'John M', 'John P', 'John R', 'John See also James W I', 'John T', 'John W', 'Jonah Robert', 'Jonathan', 'Joniah', 'Jons', 'Jorgen P', 'Jorgens', 'Jorgens N', 'Jose Ant', 'Joseph', 'Joseph A', 'Joseph B', 'Joseph C', 'Joseph H', 'Joseph Inf', 'Joseph W Inf', 'Josephine', 'Josephine Inf', 'Josh H W', 'Joshua', 'Josiah', 'Judy', 'Julia', 'Juliana', 'Julianne', 'Julie', 'Julien', 'Julius', 'Julius E P', 'June', 'Jurgen', 'Kane', 'Karim', 'Kaspar', 'Kate', 'Katie', 'Katy', 'Kaven', 'Kenneth', 'Kennith', 'Keziah', 'Kieran', 'Kirstine M', 'Kissi', 'Kitty', 'Knud S', 'Konrad', 'Kristine', 'Kristram', 'L C W', 'Lambert', 'Lars', 'Laughlan', 'Laura', 'Laura C', 'Laurence', 'Laurine', 'Lauritz', 'Lauriz', 'Lavina', 'Lavinia', 'Lawrance', 'Lawrence', 'Lawrenz', 'Lazarus', 'Leah', 'Lemy', 'Lena', 'Lennox', 'Leonard', 'Leonore', 'Letitia', 'Levi', 'Lewis', 'Lilian', 'Lillian', 'Lillian Inf', 'Lillie', 'Lilly', 'Lily', 'Lindsay', 'Lissie', 'Livia', 'Lizzie', 'Lizzie Inf', 'Lizzy', 'Llewellyn', 'Lorenz', 'Lorenzo', 'Louis', 'Louisa', 'Louisa A', 'Louisa M', 'Louisanna', 'Louise', 'Louise F', 'Lowry', 'Lucia', 'Lucy', 'Lucy E', 'Lucy H', 'Ludu W', 'Ludwig', 'Luigi', 'Luke', 'Lupton', 'Lydia', 'M A', 'Mabel', 'Mads', 'Mag', 'Magda', 'Magdalena', 'Magdalene', 'Magdelene', 'Maggie', 'Malachi', 'Malachy', 'Male', 'Malinga', 'Mann', 'Mansey', 'Marc', 'Marem', 'Maren', 'Marg', 'Margarate', 'Margaret', 'Margaret Inf', 'Margaretha', 'Margery', 'Margt', 'Margt E', 'Margt Inf', 'Margte', 'Margte Inf', 'Maria', 'Maria C', 'Maria J', 'Maria Kerst', 'Maria M', 'Marian', 'Marianne', 'Marie', 'Marie C', 'Marie L', 'Marion', 'Marion J', 'Marion Kirste', 'Marius', 'Mark', 'Marks', 'Martha', 'Martha A', 'Martha J', 'Martin', 'Martin Carl', 'Martini', 'Martlam', 'Mary', 'Mary A', 'Mary A L', 'Mary Ann', 'Mary E', 'Mary E Inf', 'Mary H', 'Mary I', 'Mary II', 'Mary Inf', 'Mary J', 'Mary L', 'MaryA', 'Mat', 'Matha', 'Mather', 'Mathew', 'Mathew N', 'Mathias', 'Mathilda', 'Mathilde', 'Matild', 'Matilda', 'Matilda A', 'Matt', 'Matthew', 'Maud', 'Maude E', 'Maurice', 'May', 'May A', 'Meinrad', 'Melaine', 'Melchoir', 'Mena', 'Metta', 'Mette C', 'Mich', 'Michael', 'Michael Inf', 'Michl', 'Mick', 'Mickey', 'Miles', 'Millie', 'Mils', 'Mina', 'Minnie', 'Minnie G', 'Miriam', 'Mirna', 'Miss', 'Miss B', 'Mita', 'Moofyda', 'Morgan', 'Morgan K', 'Mortimer', 'Moses', 'Mr', 'Mrs', 'Mrs Elizh', 'Mrs Matron', 'Mrs wife of Jno', 'Mrs wife of Robert', 'Mrs wife of Will', 'Mrswife of Alexr C', 'Mrswife of John', 'Murdo', 'Murdock', 'Myra', 'N', 'N C', 'Nan', 'Nancy', 'Nanie', 'Nannett', 'Nannie', 'Nano', 'Nans', 'Naomi', 'Nat', 'Nath H', 'Nathaniel', 'Nathl', 'Neal', 'Ned', 'Neil', 'Neils', 'Nellie', 'Nelly', 'Nicholas', 'Nicolas', 'Nicole', 'Nicolene', 'Nields', 'Niels', 'Niels A', 'Niels C H', 'Niels Christ', 'Niels Christian', 'Niels Julius', 'Niels P', 'Niels S', 'Nisse T', 'Noah', 'Nora', 'Norah', 'Nowlaus', 'Ocesti', 'Ola', 'Olander', 'Ole', 'Olive', 'Orlando', 'Ormond', 'Osborn', 'Oscar', 'Ottalie', 'Ottelee', 'Ottilie', 'Otto', 'Otto H', 'Ottolie', 'Owen', 'P C', 'P T', 'Pamila', 'Park', 'Pat', 'Pat Inf', 'Patick', 'Patience', 'Patk', 'Patrick', 'Paul', 'Paul H', 'Paul J', 'Pauline', 'Peder', 'Peder H', 'Penders', 'Per', 'Percival', 'Peter', 'Peter C', 'Peter Fred', 'Peter J', 'Peter Norgard', 'Ph D', 'Phebe', 'Philadelphia', 'Philip', 'Phillip', 'Phoebe', 'Pictro', 'Pryce', 'R Jas', 'Racheal', 'Rachel', 'Rafaelli', 'Ragnhild', 'Ralph', 'Rasmine', 'Rasmus', 'Raymond', 'Rd', 'Rebecca', 'Rebecca A', 'Redmond', 'Rene', 'Reuben', 'Reutene Inf', 'Rhoda', 'Rich', 'Richard', 'Richd', 'Rinaldi', 'Robert', 'Robert Inf', 'Robert P', 'Robt', 'Roderick', 'Rody', 'Roger', 'Rogers Rd', 'Rosa', 'Rosalie', 'Rosanna', 'Rosannah', 'Rose', 'Rose A', 'Rosey', 'Rosina', 'Rosini', 'Rosley A', 'Rowland', 'Rudolf', 'Rudolph', 'Rudolphe', 'Russel', 'Russell Inf', 'Ruth', 'Sal Valatile', 'Sam', 'Sambo', 'Samborne', 'Saml', 'Samuel', 'Sarah', 'Sarah A', 'Sarah Ann', 'Sarah E', 'Sarah Inf', 'Sebrine', 'Selina', 'Septimus', 'Severine', 'Siegmund', 'Silas', 'Simon', 'Solomon', 'Soner Jeps', 'Sophia', 'Sophias P', 'Sophie', 'Sophie C', 'Sophie S', 'Sophy', 'Soren', 'Soren S', 'Sorga A', 'Squire', 'Stella', 'Stephan', 'Stephen', 'Stewart', 'Susan', 'Susanah', 'Susannah', 'Susanne', 'Sussanah', 'Sydney', 'T Albert', 'Tamer', 'Terence', 'Teresa', 'Thady', 'Thealy', 'Theodor', 'Theodore', 'Theresa', 'Therese', 'Thirza', 'Thomas', 'Thomas A', 'Thomas C', 'Thomas Inf', 'Thomas J', 'Thomas P', 'Thos', 'Thos E', 'Timothy', 'Timy', 'Toent Hans', 'Tom', 'Tommy', 'Tristine', 'Trude W', 'Veronika', 'Victor', 'Vincenzi', 'Vincenzo', 'Violet', 'Vivian', 'W', 'W C', 'W D', 'W F', 'W H', 'W J', 'W P', 'Waldern', 'Waldmar F', 'Wallace', 'Walter', 'Walter Inf', 'Wardle', 'Waren', 'Warrington Inf', 'Werder', 'Wessley Inf', 'Whilemine', 'Wilfred', 'Wilhelm', 'Wilhelm F', 'Wilhelmine', 'Will', 'Will Mr', 'William', 'William A', 'William F', 'William G', 'William Inf', 'William J', 'William James', 'William R', 'William S', 'William T Inf', 'William W', 'Williamena', 'Willie', 'Willliam', 'Winifred', 'Winifred Inf', 'Wm', 'Wm F', 'Wm H', 'Wm J', 'Wm P', 'Wm R', 'Wright', 'Y H', 'child of A Schonsock', 'child of Alfred', 'family', 'family of', 'n/a', 'one child of Albert', 'one child of Ernest', 'one child of Hugh', 'one child of Jasper', 'one child of John', 'six children of Susan', 'three children of John', 'two children of Edward', 'two children of James', 'two children of John', 'two children of Richard', 'two children of William', 'unknown', 'wife', 'wife of', 'wife of A Schonsock', 'wife of Carl', 'wife of F Schulz', 'wife of G', 'wife of H', 'wife of Hend', 'wife of I Soshman', 'wife of J', 'wife of Mils']</t>
         </is>
@@ -648,18 +673,26 @@
       <c r="P4" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>n/a</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>74683</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>481</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>['1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '19', '2', '20', '21', '22', '23', '3', '4', '5', '6', '7', '8', '9', 'Aoba', 'Apie', 'Assisted', 'Burra Burra', 'Cabin', 'Free', 'Free Nominated', 'Full Payers', 'Mai', 'Malicolo', 'Married Families', 'Married Families 1', 'Married Families 10', 'Married Families 11', 'Married Families 12', 'Married Families 13', 'Married Families 14', 'Married Families 15', 'Married Families 16', 'Married Families 2', 'Married Families 3', 'Married Families 4', 'Married Families 5', 'Married Families 6', 'Married Families 7', 'Married Families 8', 'Married Families 9', 'Married Families Assisted', 'Married Families Asst 10', 'Married Families Asst 11', 'Married Families Asst 12', 'Married Families Asst 13', 'Married Families Asst 14', 'Married Families Asst 15', 'Married Families Asst 16', 'Married Families Asst 17', 'Married Families Asst 18', 'Married Families Asst 19', 'Married Families Asst 2', 'Married Families Asst 20', 'Married Families Asst 21', 'Married Families Asst 3', 'Married Families Asst 4', 'Married Families Asst 5', 'Married Families Asst 6', 'Married Families Asst 7', 'Married Families Asst 8', 'Married Families Asst 9', 'Married Families F P 1', 'Married Families Free 22', 'Married Families Free 23', 'Married Families Free 24', 'Married Families Free 25', 'Married Families Free 26', 'Married Families Free 27', 'Married Families Free 29', 'Married Families Free 30', 'Married Families Free 31', 'Married Families Free 32', 'Married Families Free 33', 'Married Families Free 34', 'Married Families Free 35', 'Married Families Free 36', 'Married Families Free 37', 'Married Families Free 38', 'Married Families Free 39', 'Married Families Free 40', 'Married Families Free 41', 'Married Families Free 42', 'Married Families Free 43', 'Married Families Free 44', 'Married Families Free 45', 'Married Families Free 46', 'Married Families Free 47', 'Married Families Free 48', 'Married Families Free 49', 'Married Families Free 50', 'Married Families Free 51', 'Married Families Free 52', 'Married Families Free 53', 'Married Families Free Nom', 'Married Families Remit Passengers', 'Married FamiliesFree 28', 'Married Immigrants 1', 'Married Immigrants 2', 'Married Immigrants 3', 'Married Immigrants 4', 'Married Immigrants 4?', 'Married Immigrants 5', 'Remittance', 'Saloon', 'Single Girls 1', 'Single Girls 10', 'Single Girls 11', 'Single Girls 12', 'Single Girls 13', 'Single Girls 14', 'Single Girls 15', 'Single Girls 16', 'Single Girls 17', 'Single Girls 18', 'Single Girls 19', 'Single Girls 2', 'Single Girls 20', 'Single Girls 21', 'Single Girls 22', 'Single Girls 23', 'Single Girls 24', 'Single Girls 25', 'Single Girls 26', 'Single Girls 27', 'Single Girls 28', 'Single Girls 29', 'Single Girls 3', 'Single Girls 30', 'Single Girls 31', 'Single Girls 32', 'Single Girls 33', 'Single Girls 34', 'Single Girls 35', 'Single Girls 36', 'Single Girls 37', 'Single Girls 38', 'Single Girls 39', 'Single Girls 4', 'Single Girls 40', 'Single Girls 41', 'Single Girls 42', 'Single Girls 43', 'Single Girls 44', 'Single Girls 45', 'Single Girls 46', 'Single Girls 47', 'Single Girls 48', 'Single Girls 49', 'Single Girls 5', 'Single Girls 50', 'Single Girls 51', 'Single Girls 52', 'Single Girls 53', 'Single Girls 54', 'Single Girls 55', 'Single Girls 56', 'Single Girls 57', 'Single Girls 58', 'Single Girls 59', 'Single Girls 6', 'Single Girls 60', 'Single Girls 61', 'Single Girls 62', 'Single Girls 63', 'Single Girls 64', 'Single Girls 65', 'Single Girls 66', 'Single Girls 67', 'Single Girls 68', 'Single Girls 69', 'Single Girls 7', 'Single Girls 70', 'Single Girls 71', 'Single Girls 72', 'Single Girls 73', 'Single Girls 74', 'Single Girls 75', 'Single Girls 76', 'Single Girls 77', 'Single Girls 78', 'Single Girls 79', 'Single Girls 8', 'Single Girls 80', 'Single Girls 81', 'Single Girls 82', 'Single Girls 9', 'Single Girls Free 1', 'Single Girls Free 10', 'Single Girls Free 11', 'Single Girls Free 12', 'Single Girls Free 13', 'Single Girls Free 14', 'Single Girls Free 15', 'Single Girls Free 2', 'Single Girls Free 3', 'Single Girls Free 4', 'Single Girls Free 5', 'Single Girls Free 6', 'Single Girls Free 7', 'Single Girls Free 8', 'Single Girls Free 9', 'Single Girls Free Nom', 'Single Girls Full Paying', 'Single Girls Full Paying 1', 'Single Girls Full Paying 2', 'Single Girls Full Paying 3', 'Single Girls Remittance', 'Single Men', 'Single Men 1', 'Single Men 10', 'Single Men 11', 'Single Men 12', 'Single Men 13', 'Single Men 14', 'Single Men 15', 'Single Men 16', 'Single Men 17', 'Single Men 18', 'Single Men 19', 'Single Men 2', 'Single Men 20', 'Single Men 21', 'Single Men 22', 'Single Men 23', 'Single Men 24', 'Single Men 25', 'Single Men 26', 'Single Men 27', 'Single Men 28', 'Single Men 29', 'Single Men 3', 'Single Men 30', 'Single Men 31', 'Single Men 32', 'Single Men 33', 'Single Men 34', 'Single Men 35', 'Single Men 36', 'Single Men 37', 'Single Men 38', 'Single Men 39', 'Single Men 4', 'Single Men 40', 'Single Men 41', 'Single Men 42', 'Single Men 43', 'Single Men 44', 'Single Men 45', 'Single Men 46', 'Single Men 47', 'Single Men 48', 'Single Men 49', 'Single Men 5', 'Single Men 50', 'Single Men 51', 'Single Men 52', 'Single Men 53', 'Single Men 54', 'Single Men 55', 'Single Men 56', 'Single Men 57', 'Single Men 58', 'Single Men 59', 'Single Men 6', 'Single Men 60', 'Single Men 61', 'Single Men 62', 'Single Men 63', 'Single Men 64', 'Single Men 65', 'Single Men 66', 'Single Men 67', 'Single Men 68', 'Single Men 69', 'Single Men 7', 'Single Men 70', 'Single Men 71', 'Single Men 72', 'Single Men 73', 'Single Men 74', 'Single Men 75', 'Single Men 76', 'Single Men 77', 'Single Men 78', 'Single Men 79', 'Single Men 8', 'Single Men 80', 'Single Men 81', 'Single Men 82', 'Single Men 83', 'Single Men 84', 'Single Men 85', 'Single Men 86', 'Single Men 87', 'Single Men 88', 'Single Men 9', 'Single Men Assisted', 'Single Men Assisted 1', 'Single Men Assisted 10', 'Single Men Assisted 11', 'Single Men Assisted 12', 'Single Men Assisted 13', 'Single Men Assisted 14', 'Single Men Assisted 15', 'Single Men Assisted 16', 'Single Men Assisted 17', 'Single Men Assisted 18', 'Single Men Assisted 19', 'Single Men Assisted 2', 'Single Men Assisted 20', 'Single Men Assisted 21', 'Single Men Assisted 22', 'Single Men Assisted 23', 'Single Men Assisted 24', 'Single Men Assisted 25', 'Single Men Assisted 26', 'Single Men Assisted 27', 'Single Men Assisted 28', 'Single Men Assisted 29', 'Single Men Assisted 3', 'Single Men Assisted 30', 'Single Men Assisted 31', 'Single Men Assisted 32', 'Single Men Assisted 4', 'Single Men Assisted 5', 'Single Men Assisted 6', 'Single Men Assisted 7', 'Single Men Assisted 8', 'Single Men Assisted 9', 'Single Men Asst', 'Single Men F P', 'Single Men Free', 'Single Men Free Nomd', 'Single Men Full 100', 'Single Men Full 101', 'Single Men Full 102', 'Single Men Full 103', 'Single Men Full 104', 'Single Men Full 105', 'Single Men Full 106', 'Single Men Full 107', 'Single Men Full 108', 'Single Men Full 109', 'Single Men Full 110', 'Single Men Full 111', 'Single Men Full 112', 'Single Men Full 113', 'Single Men Full 114', 'Single Men Full 115', 'Single Men Full 116', 'Single Men Full 117', 'Single Men Full 118', 'Single Men Full 119', 'Single Men Full 120', 'Single Men Full 121', 'Single Men Full 122', 'Single Men Full 123', 'Single Men Full 124', 'Single Men Full 125', 'Single Men Full 126', 'Single Men Full 127', 'Single Men Full 128', 'Single Men Full 129', 'Single Men Full 130', 'Single Men Full 131', 'Single Men Full 132', 'Single Men Full 133', 'Single Men Full 134', 'Single Men Full 135', 'Single Men Full 136', 'Single Men Full 137', 'Single Men Full 138', 'Single Men Full 139', 'Single Men Full 140', 'Single Men Full 141', 'Single Men Full 142', 'Single Men Full 143', 'Single Men Full 144', 'Single Men Full 145', 'Single Men Full 146', 'Single Men Full 147', 'Single Men Full 148', 'Single Men Full 149', 'Single Men Full 150', 'Single Men Full 151', 'Single Men Full 152', 'Single Men Full 153', 'Single Men Full 154', 'Single Men Full 155', 'Single Men Full 156', 'Single Men Full 157', 'Single Men Full 158', 'Single Men Full 33', 'Single Men Full 34', 'Single Men Full 35', 'Single Men Full 36', 'Single Men Full 37', 'Single Men Full 38', 'Single Men Full 39', 'Single Men Full 40', 'Single Men Full 41', 'Single Men Full 42', 'Single Men Full 43', 'Single Men Full 44', 'Single Men Full 45', 'Single Men Full 46', 'Single Men Full 47', 'Single Men Full 48', 'Single Men Full 49', 'Single Men Full 50', 'Single Men Full 51', 'Single Men Full 52', 'Single Men Full 53', 'Single Men Full 54', 'Single Men Full 55', 'Single Men Full 56', 'Single Men Full 57', 'Single Men Full 58', 'Single Men Full 59', 'Single Men Full 60', 'Single Men Full 61', 'Single Men Full 62', 'Single Men Full 63', 'Single Men Full 64', 'Single Men Full 65', 'Single Men Full 66', 'Single Men Full 67', 'Single Men Full 68', 'Single Men Full 69', 'Single Men Full 70', 'Single Men Full 71', 'Single Men Full 72', 'Single Men Full 73', 'Single Men Full 74', 'Single Men Full 75', 'Single Men Full 76', 'Single Men Full 77', 'Single Men Full 78', 'Single Men Full 79', 'Single Men Full 80', 'Single Men Full 81', 'Single Men Full 82', 'Single Men Full 83', 'Single Men Full 84', 'Single Men Full 85', 'Single Men Full 86', 'Single Men Full 87', 'Single Men Full 88', 'Single Men Full 89', 'Single Men Full 90', 'Single Men Full 91', 'Single Men Full 92', 'Single Men Full 93', 'Single Men Full 94', 'Single Men Full 95', 'Single Men Full 96', 'Single Men Full 97', 'Single Men Full 98', 'Single Men Full 99', 'Single Men Remittance', 'Single Women 1', 'Single Women 2', 'Single Women 3', 'Single Women 4', 'Single Women 4?', 'Single Women 5', 'Single Women 6', 'Single Women 7', 'Steerage', 'Tanna', 'n/a']</t>
         </is>
@@ -718,18 +751,26 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>City of Agra</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
         <v>60222</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>76</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>['1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '19', '2', '20', '21', '22', '23', '24', '25', '26', '27', '28', '29', '3', '30', '31', '32', '33', '34', '35', '36', '37', '38', '39', '4', '40', '41', '42', '43', '44', '45', '46', '47', '48', '49', '5', '50', '51', '52', '53', '54', '55', '56', '57', '58', '6', '7', '8', '9', 'Caroline', 'City of Agra', 'Duke of Athole', 'Glamis', 'Herschel', 'Highflyer', 'Indus', 'Lammershagen', 'Queensland', 'Saraca', 'Scottish Admiral', 'Scottish Hero', 'Scottish Wizard', 'Silver Eagle', 'Sybil', 'Western Monarch', 'Windsor Castle', 'n/a']</t>
         </is>
@@ -788,18 +829,26 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>ca Jul 1883</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>1878</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
         <v>64542</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>28</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>['13 Sep 1878', '14 Feb 1878', '14 June 1881', '15 Dec 1877', '15 May 1883', '18 Apr 1883', '18 Jan 1877', '18 Jul 1876', '18 Nov 1875', '1877', '1878', '1880', '1882', '2 Jan 1883', '20 Feb 1878', '23 Jan 1884', '26 Feb 1876', '27 Feb 1878', '29 Jul 1877', '30 May 1878', '363', '5 Dec 1878', '6 Apr 1879', 'Apr 1882', 'Aug 1882', 'Jun 1882', 'May 1881', 'ca Jul 1883']</t>
         </is>
@@ -858,18 +907,26 @@
       <c r="P7" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>18419</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>18418</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
         <v>36000</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>2</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>['18418', '18419']</t>
         </is>
@@ -928,18 +985,26 @@
       <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>IMA3/19</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>IMA3/18</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
         <v>50400</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>2</v>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>['IMA3/18', 'IMA3/19']</t>
         </is>
@@ -998,18 +1063,26 @@
       <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Z6612</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
         <v>32296</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>3</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>['N/A', 'Z6612', 'n/a']</t>
         </is>

--- a/examples/Australia OGD/rations_issued/profile.xlsx
+++ b/examples/Australia OGD/rations_issued/profile.xlsx
@@ -450,15 +450,20 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
+          <t>most_frequent_count</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -531,12 +536,15 @@
         </is>
       </c>
       <c r="T2" t="n">
+        <v>64</v>
+      </c>
+      <c r="U2" t="n">
         <v>46286</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>2565</v>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>['ABBO', 'ABBOTT', 'ABERCROMBIE', 'ABERNETHY', 'ABRAHAM', 'ACORN', 'ADAMS', 'ADAMSON', 'ADDERLY', 'ADDISON', 'ADIE', 'ADONGA', 'AERMO', 'AFFLECK', 'AGNEW', 'AHERN', 'AIREY', 'AITKEN', 'ALBUTT', 'ALDER', 'ALE', 'ALEXANDER', 'ALFORD', 'ALLARDICE', 'ALLEN', 'ALLSOP', 'ALLWOOD', 'ALTY', 'ALVEY', 'AMERY', 'ANDERSEN', 'ANDERSON', 'ANDREASEN', 'ANDREW', 'ANDREWS', 'ANGELL', 'ANGLE', 'ANTHONY', 'APPIER', 'APPLEMAN', 'APPLEYARD', 'APPLIN', 'ARCHARD', 'ARCHER', 'ARGLES', 'ARMATE', 'ARMITAGE', 'ARMSTRONG', 'ARNDT', 'ARNOLD', 'ARTHUR', 'ASHMAN', 'ASHTON', 'ASKEY', 'ASMUS', 'ASPINALL', 'ASSHEAD', 'ATKINSON', 'ATTERNALL', 'AULFREY', 'AURCLIAS', 'AUSTIN', 'AYLAND', 'AZZOPARDI', 'BADCOCK', 'BADCOOK', 'BADDOE', 'BAILEY', 'BAILLIE', 'BAKER', 'BALDINGER', 'BALE', 'BALL', 'BALLAN', 'BALLARD', 'BALLERINE', 'BALLIER', 'BALSTONE', 'BAMFORD', 'BANNEN', 'BANNISTER', 'BARBER', 'BARCLAY', 'BARDEN', 'BARDON', 'BARDSLEY', 'BARKER', 'BARKLEY', 'BARNES', 'BARNETT', 'BARNS', 'BARON', 'BARREL', 'BARROW', 'BARRY', 'BARTER', 'BARTHELSEN', 'BARTON', 'BATEMAN', 'BATES', 'BATH', 'BATSTONE', 'BATTLE', 'BATY', 'BAUER', 'BAUMANN', 'BAVID', 'BAWDIN', 'BAXTER', 'BAYLISS', 'BEAL', 'BEALES', 'BEAN', 'BEANLAND', 'BEARDIE', 'BEARDMON', 'BEATLE', 'BEATTEY', 'BEAZLEY', 'BECKINSALE', 'BECKOFF', 'BEECHAM', 'BEETHAM', 'BEGNALL', 'BEIDERMANN', 'BEIKOFF', 'BEIMECK', 'BELEY', 'BELL', 'BELLAMY', 'BELLIS', 'BENFOLD', 'BENINI', 'BENNETT', 'BENTLY', 'BERESFORD', 'BERGT', 'BERLYN', 'BERMINGHAM', 'BERNETT', 'BERNEY', 'BERRY', 'BERRYMAN', 'BEST', 'BEVAN', 'BIBBINGTON', 'BIEMECK', 'BIGWOOD', 'BILLA', 'BILLINGLSLEY', 'BINWOOD', 'BIRCHLEY', 'BIRD', 'BIRDSLEY', 'BISGROVE', 'BISHOP', 'BISSETT', 'BIZAT', 'BLACK', 'BLACKER', 'BLADWELL', 'BLAKE', 'BLANCHARD', 'BLAND', 'BLEARY', 'BLENKIROW', 'BLOYES', 'BLUNDELL', 'BLYTHE', 'BODE', 'BODIN', 'BOGAN', 'BOHAN', 'BOLGER', 'BOLT', 'BOLTON', 'BOLWELL', 'BONAR', 'BONDLER', 'BONEHAM', 'BONHAM', 'BONNAR', 'BONSER', 'BOOKER', 'BOOTH', 'BOOTH late KEENAN', 'BORLANDER', 'BORNE', 'BOSANKE', 'BOSANTO', 'BOSS', 'BOSWELL', 'BOTTERALL', 'BOTTOMBERG', 'BOUKE', 'BOULGER', 'BOURKE', 'BOURNE', 'BOWDEN', 'BOWEN', 'BOWLAND', 'BOX', 'BOYCE', 'BOYD', 'BOYFORD', 'BOYLAND', 'BOYLE', 'BOYNES', 'BRACKEN', 'BRADBURN', 'BRADBURY', 'BRADEY', 'BRADLEY', 'BRADSHAW', 'BRADY', 'BRAIN', 'BRAKE', 'BRAMBRIDGE', 'BRAND', 'BRANDT', 'BRAY', 'BRAYFIELD', 'BRAZEL', 'BRAZIER', 'BRAZIL', 'BREEN', 'BREENE', 'BREMAHAN', 'BREMAN', 'BRENNAN', 'BRESCHKE', 'BREWSTER', 'BRIAN', 'BRIDE', 'BRIDGEWATER', 'BRIEN', 'BRIENS', 'BRIGGS', 'BRIMLEY', 'BRINDLEY', 'BRISCHKE', 'BRISTOW', 'BRITTON', 'BROAD', 'BROADBRIDGE', 'BROADWITH', 'BROCKLEN', 'BRODIE', 'BRODY', 'BROMBACK', 'BROOK', 'BROOM', 'BROOMFIELD', 'BROSNAN', 'BROUGHAM', 'BROWN', 'BROWNE', 'BROWNING', 'BROWNLEES', 'BRUCE', 'BRUEN', 'BRUMBY', 'BRUMER', 'BRUNTON', 'BRYAN', 'BRYANT', 'BRYNOR', 'BUCHER', 'BUCKINGHAM', 'BUCKLEY', 'BUDD', 'BUDGETT', 'BUECI', 'BULLOCK', 'BUNT', 'BURCOMBE', 'BURDEN', 'BURGESS', 'BURGIN', 'BURKE', 'BURKHARDT', 'BURKOFF', 'BURLEY', 'BURLIN', 'BURN', 'BURNE', 'BURNES', 'BURNICOAT', 'BURNS', 'BURNSIDE', 'BURPHY', 'BURRAGE', 'BURRIDGE', 'BURTON', 'BUSH', 'BUSHBRIDGE', 'BUTCHER', 'BUTLER', 'BUTROYD', 'BUTTERWORTH', 'BUTTLER', 'BUZZOLI', 'BYERS', 'BYLAND', 'BYMIER', 'BYRNE', 'BYRNES', 'BYRON', 'CADMAN', 'CADOGAN', 'CADOW', 'CAHALANE', 'CAHILL', 'CAIL', 'CAIN', 'CAIRNS', 'CALDWELL', 'CALLAGHAM', 'CALLAHAN', 'CALLAN', 'CALVERT', 'CAMERON', 'CAMPBELL', 'CANE', 'CANNING', 'CANNON', 'CANT', 'CANTER', 'CANTHRAY', 'CAPPELLINI', 'CARBOY', 'CARDOCK', 'CAREW', 'CAREY', 'CARL', 'CARLEEN', 'CARLGOIST', 'CARLON', 'CARMAN', 'CARMODY', 'CARNEY', 'CARR', 'CARRAW', 'CARREW', 'CARROL', 'CARROLL', 'CARRON', 'CARRUTHERS', 'CARRY', 'CARSON', 'CARSTENSEN', 'CARSWELL', 'CARTER', 'CARVER', 'CASEY', 'CASHEN', 'CASHMAN', 'CASSALL', 'CASSIDY', 'CASTLE', 'CAVANAGH', 'CAVINS', 'CHADWICK', 'CHAFFER', 'CHALLONER', 'CHALMERS', 'CHAMBERS', 'CHAMPION', 'CHAPLIN', 'CHARMIN', 'CHASE', 'CHASTWARD', 'CHATAIN', 'CHATTERTON', 'CHEWEY', 'CHILDS', 'CHILLEN', 'CHLOPCZIG', 'CHRISTENSEN', 'CHRISTIE', 'CHRISTION', 'CHRISTOPHER', 'CHURCH', 'CHURCHILL', 'CIONELLI', 'CLACKERTY', 'CLAFFEY', 'CLAIRE', 'CLANCEY', 'CLANCY', 'CLAPTON', 'CLARK', 'CLARKE', 'CLARKSON', 'CLASKEN', 'CLAYTON', 'CLEARY', 'CLEMENT', 'CLEMENTS', 'CLIFFORD', 'CLOE', 'CLOWER', 'COAD', 'COADY', 'COAN', 'COB', 'COCHRANE', 'COCKERN', 'COCKRAN', 'COE', 'COFFEY', 'COGLAN', 'COGLIN', 'COHILL', 'COLE', 'COLEMAN', 'COLES', 'COLLEMON', 'COLLETT', 'COLLIE', 'COLLIER', 'COLLINS', 'COLLINSON', 'COLLIWAN', 'COLLY', 'COLMAN', 'COLTER', 'COLWELL', 'COLWOOD', 'COMMONS', 'CONCANNON', 'CONDEN', 'CONDON', 'CONE', 'CONIE', 'CONLAN', 'CONLON', 'CONN', 'CONNELL', 'CONNELLY', 'CONNOLLY', 'CONNOR', 'CONNORS', 'CONOLLY', 'CONROY', 'CONSEDINE', 'CONTSTANTINE', 'CONVAN', 'CONWAY', 'COOK', 'COOKE', 'COOMBE', 'COOMLEY', 'COONEY', 'COOPER', 'COOTE', 'COPELAND', 'COPNELL', 'COPPEN', 'CORBERT', 'CORBET', 'CORBETT', 'CORBY', 'CORCORAN', 'CORDELL', 'CORKHILL', 'CORMACK', 'CORNHILL', 'CORR', 'CORRIGAN', 'CORRIN', 'CORRY', 'COSTELLO', 'COSTOBADIC', 'COTTELL', 'COTTER', 'COTTON', 'COUGHLAN', 'COULTHARDT', 'COURT', 'COURTENAY', 'COURTNEY', 'COUSIN', 'COUZENS', 'COVENSALL', 'COWAN', 'COX', 'COYLE', 'COYNE', 'CRABTREE', 'CRAGO', 'CRAIG', 'CRAIGHEAD', 'CRAKE', 'CRANE', 'CRANWITCH', 'CRAWFORD', 'CRAWLEY', 'CREAMER', 'CREED', 'CREGAN', 'CREWE', 'CRIGAN', 'CROCKFORD', 'CROFT', 'CROMBIE', 'CROMBY', 'CROMWELL', 'CRONAN', 'CRONIN', 'CROOM', 'CROSBIE', 'CROSBY', 'CROSS', 'CROTHY', 'CROUCHER', 'CROWE', 'CROWLEY', 'CRUIKSHANK', 'CRUISE', 'CRUMMIN', 'CRUMP', 'CRUTCHFIELD', 'CRYAN', 'CULHANE', 'CULL', 'CULLEN', 'CULLINAN', 'CUMBERS', 'CUMMINGS', 'CUMMINS', 'CUNEEN', 'CUNLIFFE', 'CUNNINGHAM', 'CUPPLES', 'CURLEY', 'CURNON', 'CURRON', 'CURTIN', 'CURTIS', 'CURTON', 'CUSSACK', 'DABELSTIEN', 'DAINTON', 'DALAND', 'DALE', 'DALEY', 'DALLING', 'DALTON', 'DALY', 'DAMTON', 'DANES', 'DANIEL', 'DANIELS', 'DANZIGER', 'DARBY', 'DARE', 'DARK', 'DARMODY', 'DARNBOOM', 'DARRANT', 'DARWENT', 'DAVEY', 'DAVID', 'DAVIDSON', 'DAVIES', 'DAVIS', 'DAW', 'DAWAS', 'DAWLING', 'DEACON', 'DEAN', 'DEANE', 'DEARN', 'DEARY', 'DEASE', 'DEBNAN', 'DECKER', 'DEELEY', 'DEEN', 'DELAHUNTY', 'DELANEY', 'DEMPSEY', 'DEMPSTER', 'DENBY', 'DENCHANS', 'DENHAM', 'DENLAY', 'DENLEY', 'DENNANT', 'DENNIS', 'DENNISON', 'DENVIL', 'DERHET', 'DERMOTH', 'DESNEY', 'DEUTECHMANN', 'DEVERETT', 'DEVILLE', 'DEVLIN', 'DEXS', 'DIBBS', 'DICK', 'DICKENSON', 'DICKINSON', 'DICKS', 'DICKSON', 'DIGE', 'DIGNAN', 'DILLON', 'DIMOND', 'DINGNAN', 'DINGWALL', 'DIPLOCK', 'DIPROSE', 'DIVAN', 'DIVER', 'DOBRITZ', 'DOBSON', 'DODGE', 'DOIG', 'DOLAN', 'DOLPHIN', 'DOMIN', 'DONITHORNE', 'DONLAN', 'DONNELLY', 'DONNILLAN', 'DONOGHUE', 'DONOHOE', 'DONOHUE', 'DONOVAN', 'DONSWORTH', 'DOOLAN', 'DOOLIN', 'DOOMING', 'DORSE', 'DOUGLAS', 'DOWD', 'DOWDLE', 'DOWER', 'DOWLING', 'DOWN', 'DOWNDELYN', 'DOYLE', 'DRAPER', 'DREW', 'DRISCOLL', 'DRUMMOND', 'DRURY', 'DRYDEN', 'DRYSDALE', 'DUANA', 'DUASSA', 'DUCCI', 'DUDLEY', 'DUESBURY', 'DUFFY', 'DUGARD', 'DUGGAN', 'DUMLEARY', 'DUMMETT', 'DUMPHY', 'DUNBAR', 'DUNCAN', 'DUNDAS', 'DUNGWORTH', 'DUNLEAVY', 'DUNN', 'DUNNE', 'DUNNING', 'DUNPHY', 'DUNSTAN', 'DUNSTER', 'DUNSTON', 'DWYER', 'DYN', 'EADE', 'EAGAN', 'EAMES', 'EARLE', 'EARLEY', 'EARLY', 'EAST', 'EATWELL', 'ECKER', 'ECKSTEIN', 'EDGHILL', 'EDMONDSON', 'EDMUNDSON', 'EDWARDS', 'EGAN', 'EHRLICH', 'EICHBAUM', 'ELDRED', 'ELIAS', 'ELKINGTON', 'ELLERY', 'ELLIOT', 'ELLIOTT', 'ELLIS', 'ELSTONE', 'ELY', 'EMMONS', 'ENGLAND', 'ENGLISH', 'ENNIS', 'ENRIGHT', 'EPPS', 'ERALD', 'EREANDSON', 'ERICKSEN', 'ERISMANN', 'EVANS', 'EWALD', 'EYRE', 'FAGAN', 'FAGERETROM', 'FAHILY', 'FAIANI', 'FAIRLEY', 'FALCONER', 'FANELL', 'FANNING', 'FARAN', 'FARDON', 'FARGUSON', 'FARMER', 'FARR', 'FARRELL', 'FARRELLY', 'FARRILY', 'FEALY', 'FEATHER', 'FECHNAY', 'FEE', 'FEEHILLY', 'FEELEY', 'FEENEY', 'FEMHOC', 'FEMHOI', 'FENER', 'FENISON', 'FENNARTY', 'FERGNOON', 'FERGUSON', 'FERRIS', 'FESSEY', 'FIDDICK', 'FIELD', 'FIELDING', 'FIFE', 'FIGGINS', 'FILTER', 'FIM', 'FINCH', 'FINEGAN', 'FINEY', 'FINGER', 'FINK', 'FINLAY', 'FINLAYSON', 'FINN', 'FINNERMAN', 'FINNY', 'FINUCANE', 'FIRKIN', 'FISCHER', 'FISHER', 'FITZELL', 'FITZGERALD', 'FITZGIBBON', 'FITZHENRY', 'FITZMAURICE', 'FITZPATRICK', 'FITZSIMON', 'FLAHERTY', 'FLANAGAN', 'FLANNAGAN', 'FLANNERY', 'FLEMMING', 'FLETCHER', 'FLETT', 'FLINT', 'FLOOD', 'FLUCK', 'FLYNN', 'FODEN', 'FOLAN', 'FOLEY', 'FOLLAND', 'FORAN', 'FORBES', 'FORD', 'FORDE', 'FORDON', 'FOREMAN', 'FORREST', 'FOSSEY', 'FOSTER', 'FOULKAS', 'FOURNER', 'FOWLER', 'FOX', 'FOXTON', 'FOY', 'FRAME', 'FRAMPTON', 'FRANCHESE', 'FRANCIS', 'FRANDERS', 'FRANKER', 'FRANKLIN', 'FRANKS', 'FRANSEN', 'FRANZ', 'FRASER', 'FREDERICKSEN', 'FREDSHEVG', 'FREEMAN', 'FRENCH', 'FRIAR', 'FRIES', 'FRISKE', 'FROST', 'FROSTICK', 'FULLER', 'FULTON', 'FUNGE', 'FURY', 'GAFFNEY', 'GALACHER', 'GALELIEN', 'GALL', 'GALLAGHER', 'GALLOCHER', 'GALLOWAY', 'GALOIN', 'GALY', 'GAMBLE', 'GARDINER', 'GARDNER', 'GARLICK', 'GARRETT', 'GARROTT', 'GARVEY', 'GASCOYNE', 'GASOM', 'GATCHES', 'GATLEY', 'GAUDIN', 'GAVAGAN', 'GAVEKI', 'GAVEY', 'GAYNOR', 'GEDDES', 'GEE', 'GELLING', 'GEORGE', 'GERRARD', 'GERTZ', 'GIBBLING', 'GIBBON', 'GIBBONS', 'GIBBS', 'GIBSON', 'GICK', 'GIDDY', 'GILBERT', 'GILDED', 'GILES', 'GILFELLOW', 'GILFILLAN', 'GILFOYLE', 'GILL', 'GILLICK', 'GILLING', 'GILLMAN', 'GILLOM', 'GILLOOLY', 'GILMARTIN', 'GILMORE', 'GIRVAN', 'GITTONS', 'GLANCEY', 'GLANVILLE', 'GLASCOW', 'GLASGOW', 'GLASS', 'GLEESON', 'GLEGG', 'GLENDENING', 'GLENNON', 'GLORRE', 'GLOVER', 'GLUGAS', 'GLYNN', 'GLYNNEY', 'GODFREY', 'GODFRY', 'GODWIN', 'GOLDECHERT', 'GOLDY', 'GOLL', 'GOOD', 'GOODMAN', 'GOODWIN', 'GOOMLEY', 'GORDON', 'GORMAN', 'GORMANN', 'GOTHAM', 'GOUGH', 'GOULD', 'GOULDIN', 'GOULTEN', 'GOWAN', 'GOWLAND', 'GOYARTY', 'GRACE', 'GRADY', 'GRAHAM', 'GRAN', 'GRANT', 'GRAUCOCK', 'GRAVESON', 'GRAY', 'GRAYHAM', 'GREADY', 'GREANY', 'GREEN', 'GREENHEAD', 'GREENING', 'GREENWOOD', 'GREER', 'GREETT', 'GREGGS', 'GREGHEGSON', 'GREGORY', 'GREIG', 'GRENN', 'GRENNAN', 'GRIENE', 'GRIFFIN', 'GRIFFITH', 'GRIFFITHS', 'GRIFFY', 'GRILL', 'GRIMAN', 'GRIMES', 'GROGAN', 'GROOM', 'GROOMBRIDGE', 'GROSS', 'GROVE', 'GRUER', 'GRUN', 'GRUSDOHY', 'GUBBANPAUL', 'GUILDFOYLE', 'GUILFORD', 'GULLEFORD', 'GULLY', 'GUMBLE', 'GUMLEY', 'GUNDERSDATTER', 'GUNDERSEN', 'GUNN', 'GUNTHARDT', 'GUT', 'GUTHRIE', 'GUTTERIDGE', 'HABLIFF', 'HABSTLE', 'HADLINGTON', 'HAGAN', 'HAGSHOM', 'HAIN', 'HAINES', 'HAIRE', 'HAKES', 'HALEGOOD', 'HALFNIGHT', 'HALL', 'HALLEY', 'HALLITT', 'HALLMAN', 'HAMILTON', 'HAMMERSTIEN', 'HAMPTON', 'HANCOCK', 'HAND', 'HANDSEN', 'HANDY', 'HANLEY', 'HANLON', 'HANNA', 'HANNAFORD', 'HANNAH', 'HANNAN', 'HANNELY', 'HANNIGAN', 'HANRAHAN', 'HANSEN', 'HARCAS', 'HARDING', 'HARE', 'HARLEY', 'HARM', 'HARNEY', 'HAROLD', 'HARRIGAN', 'HARRINGTON', 'HARRIS', 'HARRISON', 'HARRISSON', 'HARROP', 'HART', 'HARTAGE', 'HARTE', 'HARTNETT', 'HARVEY', 'HASTINGS', 'HATTEN', 'HATTON', 'HAWKE', 'HAWKER', 'HAWKINS', 'HAWKSWORTH', 'HAY', 'HAYES', 'HAYNES', 'HAYWARD', 'HAZILL', 'HEAD', 'HEAHEN', 'HEALEY', 'HEALY', 'HEATES', 'HEATH', 'HEES', 'HEFFELS', 'HEFFERMAN', 'HEFFERNAN', 'HEFFI', 'HEHER', 'HEHIN', 'HEISE', 'HENDERSEN', 'HENDERSON', 'HENDRY', 'HENNELLY', 'HENNESSY', 'HENNEWOOD', 'HENNINGSEN', 'HENRICKS', 'HENRICKSON', 'HENRY', 'HENWOOD', 'HERBERTON', 'HERMANSEN', 'HERON', 'HERTZ', 'HESSIAN', 'HEUER', 'HEWETT', 'HEWITT', 'HEWLETT', 'HEWOHER', 'HIBBS', 'HIBBUT', 'HICKEY', 'HICKIN', 'HICKMAN', 'HIENRICK', 'HIGGINS', 'HIGGINSTONE', 'HIGHAM', 'HILL', 'HILLS', 'HILLWEBBER', 'HILTON', 'HINSHEY', 'HIRST', 'HITCHMAN', 'HOBBINS', 'HOBBS', 'HOCKRIDGE', 'HODDART', 'HODGE', 'HODGES', 'HODGKIN', 'HODGSON', 'HOELKSEN', 'HOFFLIR', 'HOFFMANN', 'HOGAN', 'HOGG', 'HOLBERG', 'HOLDEN', 'HOLE', 'HOLFORD', 'HOLLAND', 'HOLLISON', 'HOLLOHAN', 'HOLLOWAY', 'HOLME', 'HOLMES', 'HOLT', 'HOLZ', 'HOLZMANN', 'HOMANN', 'HOMPSON', 'HONER', 'HOOD', 'HOODLEY', 'HOOG', 'HOOK', 'HOOLAHAN', 'HOOPER', 'HOPKINS', 'HOPPI', 'HOPPINGS', 'HOPWOOD', 'HORAN', 'HORN', 'HORNBLOWER', 'HORNER', 'HORRELL', 'HORTON', 'HOSKING', 'HOSKINGS', 'HOSKINS', 'HOULEY', 'HOULIHAN', 'HOURSTON', 'HOUSE', 'HOUSTON', 'HOWARD', 'HOWARTH', 'HOWDEN', 'HOWELL', 'HOWELLS', 'HOWIE', 'HOWSON', 'HUBER', 'HUBNER', 'HUGHES', 'HULSE', 'HUNDTOFTE', 'HUNNINGHAM', 'HUNT', 'HUNTER', 'HURLE', 'HURLEY', 'HURLIN', 'HURNEY', 'HURT', 'HUSSEY', 'HUSTON', 'HUTCHINS', 'HUTCHINSON', 'HUTTON', 'HYDE', 'HYSLOP', 'IBBETSON', 'INCHES', 'IRELAND', 'IRVINE', 'IRWIN', 'ISAAC', 'ISBISTER ?', 'JACKMAN', 'JACKSON', 'JACKWITZ', 'JACOBSEN', 'JACOBSON', 'JAMES', 'JAMIESON', 'JARDINE', 'JARRNETT', 'JARVIS', 'JAUTFEN', 'JAY', 'JEBBATT', 'JEFFRY', 'JENKINS', 'JENNINGS', 'JENNS', 'JENSEN', 'JEPPSSON', 'JERCHOW', 'JEREMAN', 'JESSEN', 'JESSON', 'JOBISTER', 'JOHANNSEN', 'JOHANSEN', 'JOHN', 'JOHNS', 'JOHNSON', 'JOHNSTON', 'JOHNSTONE', 'JONES', 'JONSSON', 'JORDAN', 'JORGENSEN', 'JOSEPH', 'JOY', 'JOYCE', 'JSLER', 'JURGENS', 'JURGENSON', 'KAISS', 'KAMPRED', 'KASPER', 'KAVANAGH', 'KAY', 'KAYSER', 'KEAN', 'KEANE', 'KEANSLEY', 'KEARIE', 'KEARNE', 'KEARNEY', 'KEATES', 'KEATING', 'KEAY', 'KEEBLE', 'KEEGAN', 'KEENAN', 'KEENE', 'KEETON', 'KEHLS', 'KEHMS', 'KELCHER', 'KELEHER', 'KELLEHER', 'KELLEY', 'KELLIHER', 'KELLY', 'KELSON', 'KEMP', 'KEN', 'KENDALL', 'KENDRICK', 'KENEDY', 'KENNEDY', 'KENNINGTON', 'KENNY', 'KENT', 'KENWICK', 'KEOGH', 'KEOHAM', 'KERMODE', 'KERNI', 'KERNOHAN', 'KERR', 'KERSHAW', 'KERSTON', 'KEVNICK', 'KEY', 'KEYS', 'KIDD', 'KIELY', 'KILLEEN', 'KILLELIA', 'KILLMURRAY', 'KILPATRICK', 'KILROY', 'KING', 'KINGSTON', 'KINNAN', 'KINNANE', 'KINSELLA', 'KIRBY', 'KIRK', 'KIRKLAND', 'KISBEE', 'KISSANE', 'KITCHEN', 'KITCHINGS', 'KITTLEWALL', 'KITTLEWELL', 'KLAGES', 'KLAPPER', 'KLAPPOCK', 'KLAUSEN', 'KLIBBE', 'KLOPP', 'KLOSE', 'KNEE', 'KNIGHT', 'KNOWLES', 'KNUDSEN', 'KOHL', 'KRAMER', 'KREGSUBRINK', 'KROGER', 'KROGH', 'KRONHOLM', 'KRUGER', 'KRULE', 'KRUMBACK', 'KRUMMEN', 'KRUNBACK', 'KRUPMAN', 'KUHN', 'KULM', 'KUNKLE', 'KURZEIVEIL', 'KYLE', 'LACKY', 'LACY', 'LADEWIG', 'LAING', 'LAKE', 'LAMBERT', 'LAMOND', 'LAMONT', 'LANCASTER', 'LANCEY', 'LANDERS', 'LANDSCHAPP', 'LANE', 'LANGDON', 'LANGFORD', 'LANGLEY', 'LANHAHAN', 'LANYON', 'LAPPIN', 'LARCOMBE', 'LARKIN', 'LARMER', 'LARRIGAN', 'LARRUM', 'LARSEN', 'LAURIZEN', 'LAVELLE', 'LAWEYY', 'LAWLOR', 'LAWRENCE', 'LAWSON', 'LAWTON', 'LAY', 'LE FEUVRE', 'LEACH', 'LEAGUE', 'LEAHEY', 'LEAHY', 'LEAKE', 'LEAN', 'LECKEY', 'LEE', 'LEEDS', 'LEGGITT', 'LEHANE', 'LEIGHTON', 'LEINHARDT', 'LEISHMON', 'LEITH', 'LEMAINE', 'LEMARTY', 'LEMIN', 'LENNEY', 'LENNON', 'LENSI', 'LEONARD', 'LESCHKE', 'LESSAW', 'LETFORD', 'LEVINE', 'LEWAS', 'LEWIN', 'LEWIS', 'LEYDON', 'LEYSHAW', 'LIDDELL', 'LIEBAN', 'LIGHTFOOT', 'LILLEY', 'LINDSKE', 'LINEHAM', 'LINEHAN', 'LINGARD', 'LINHANE', 'LINNANE', 'LINTORN', 'LISTER', 'LISTON', 'LITTLE', 'LITTLEFAIR', 'LITTLEWOOD', 'LIVINGSTONE', 'LLEWELLYN', 'LLOYD', 'LLOYDE', 'LOCKYER', 'LOGAN', 'LOMAS', 'LONDER', 'LONERGAN', 'LONG', 'LONGDON', 'LORRIGAN', 'LOUGHNAN', 'LOUGHRAN', 'LOUGHRANE', 'LOUGHRY', 'LOUGHTEN', 'LOUTH', 'LOVE', 'LOVELL', 'LOVETT', 'LOWRY', 'LOWTHA', 'LOWTHER', 'LUCAS', 'LUDERS', 'LUGG', 'LUMBERT', 'LUNN', 'LUPTON', 'LUTHERALL', 'LYDEN', 'LYDON', 'LYLE', 'LYNCH', 'LYND', 'LYOD', 'LYON', 'LYONS', 'LYSIN', 'LYTHALL', 'MACCARTHY', 'MACFARLANE', 'MACKELMANN', 'MACKENZIE', 'MACKEY', 'MACKIE', 'MACKLIN', 'MACKRELL', 'MADDIN', 'MADDOCKS', 'MADSEN', 'MAGNIE', 'MAGRATH', 'MAGUIRE', 'MAHER', 'MAHN', 'MAHON', 'MAHONEY', 'MAISHMAN', 'MAKE', 'MALAHY', 'MALCOLM', 'MALI', 'MALINGS', 'MALLIN', 'MALLISON', 'MALONE', 'MALONEY', 'MALPAS', 'MALVA', 'MAM', 'MANAHAN', 'MANN', 'MANNALL', 'MANNERS', 'MANNING', 'MANNION', 'MARA', 'MARGERISSON', 'MARHSCHINSKY', 'MARK', 'MARKEY', 'MARKS', 'MARLOW', 'MARRINAN', 'MARSHALL', 'MARTAGE', 'MARTIN', 'MASON', 'MASTAGE', 'MASTERS', 'MASTERTON', 'MATHA', 'MATHER', 'MATHEWS', 'MATHSCHINSKY', 'MATHUSON', 'MATON', 'MATSON', 'MATTHEW', 'MATTHEWS', 'MATTON', 'MAUNDELL', 'MAUNDRELL', 'MAUNDULL', 'MAUNSELL', 'MAUSKETT', 'MAWEENEY', 'MAXWELL', 'MAY', 'MAYER', 'MAYFIELD', 'MEADE', 'MEADS', 'MEAGHER', 'MEANEY', 'MEARA', 'MEDDUK', 'MEDLEY', 'MEE', 'MEENAGHAN', 'MEHSE', 'MEIER', 'MEILKE', 'MELIA', 'MELKSHAM', 'MELODY', 'MELROSE', 'MELSDELTER', 'MEM', 'MEMENY', 'MEREDITH', 'MERSER', 'MESSING', 'METCALF', 'METZLOFF', 'MEWACK', 'MEYER', 'MEYTS', 'MICKKELSON', 'MIDDLETON', 'MIKKELSEN', 'MILEHELL', 'MILES', 'MILEU', 'MILL', 'MILLAR', 'MILLARD', 'MILLER', 'MILLS', 'MILNE', 'MINCASTER', 'MINEHAM', 'MINES', 'MINIHAN', 'MINOGUE', 'MITCHELL', 'MITCHINSON', 'MIX', 'MOCKFORD', 'MOFFATT', 'MOGENSEN', 'MOHONEY', 'MOLLISON', 'MOLLOY', 'MOLLYNEUX', 'MOLONEY', 'MOLOUGHNEY', 'MOLTON', 'MONI', 'MONKEN', 'MONROW', 'MONTGOMERY', 'MOONEY', 'MOORE', 'MORAN', 'MORCONSEN', 'MORGAN', 'MORIARITY', 'MORIARTY', 'MORINS', 'MORISH', 'MORLEY', 'MORNEY', 'MORNSEN', 'MOROSKE', 'MORREL', 'MORRELL', 'MORRINAN', 'MORRIS', 'MORRISEY', 'MORRISH', 'MORRISON', 'MORRISSEY', 'MORSUS', 'MORTHEATE', 'MOSELEY', 'MOSLEY', 'MOSS', 'MOULE', 'MOUNTFORD', 'MOUSE', 'MOXEY', 'MOYINHAN', 'MOYSE', 'MUCAHY', 'MUDDLEBROOK', 'MUIR', 'MUIRHEAD', 'MULCAHY', 'MULDOON', 'MULER', 'MULLER', 'MULLINS', 'MULROONEY', 'MUMFORD', 'MUNAN', 'MUNRO', 'MUNROW', 'MURCHIE', 'MURCHINN', 'MURDOCK', 'MURISON', 'MURO', 'MURPHY', 'MURRAY', 'MURRY', 'MURTAGE', 'MYER', 'MYERS', 'MYLES', 'MacGURRIGLE', 'McALLISTER', 'McALSER', 'McARA', 'McAULIFFE', 'McAVOY', 'McBAIN', 'McBRIDE', 'McCABE', 'McCAFFREY', 'McCALL', 'McCALLUM', 'McCAMBRIDGE', 'McCANE', 'McCANN', 'McCARRON', 'McCARTHY', 'McCAULEY', 'McCAWLAY', 'McCLASKEY', 'McCLEAD', 'McCLOY', 'McCLURE', 'McCOAL', 'McCOLL', 'McCOMBE', 'McCORMACK', 'McCORMICK', 'McCOY', 'McCRORY', 'McCUBBEN', 'McCUE', 'McCURRAN', 'McDONAGH', 'McDONALD', 'McDONNELL', 'McDORRAGH', 'McDOUGALL', 'McDUWELL', 'McELGAN', 'McELGON', 'McENVY', 'McEWIN', 'McFARLANE', 'McFLINN', 'McGANN', 'McGARRIGLE', 'McGARTH', 'McGEE', 'McGEORNEY', 'McGHEE', 'McGINLEY', 'McGLICUDDY', 'McGLINN', 'McGLOINE', 'McGOLRICK', 'McGORIN', 'McGORRAN', 'McGOVERN', 'McGOWAN', 'McGRATH', 'McGREGOR', 'McGUIGAN', 'McGUINESS', 'McGUIRE', 'McGUIRK', 'McHAB', 'McHUGH', 'McILWEEN', 'McINDAL', 'McINDOE', 'McINERING', 'McINERNAY', 'McINERNEY', 'McINERY', 'McINTOSH', 'McINTYRE', 'McKAY', 'McKEAN', 'McKECKNIE', 'McKEDDIE', 'McKEE', 'McKELCHIE', 'McKENZIE', 'McKEOGH', 'McKINNON', 'McKURNAN', 'McLAUGHLIN', 'McLEAN', 'McLELLAND', 'McLENNAN', 'McLEOD', 'McLOUGHLIN', 'McMAHON', 'McMANUS', 'McMILLAN', 'McMILLIGAN', 'McMINAMIN', 'McMONAGH', 'McNAH', 'McNALLY', 'McNAMARA', 'McNAUGHT', 'McNEILL', 'McNEILLE', 'McNIELL', 'McNULTY', 'McPHAIL', 'McPHEE', 'McQUALLY', 'McQUORY', 'McSHEA', 'McSORBY', 'McVETTER', 'McWALTER', 'NADONGA', 'NAGEL', 'NAGLE', 'NALOW', 'NANKERVIS', 'NANKEVILLE', 'NAUGHTON', 'NAYLOR', 'NEAL', 'NEALON', 'NEAT', 'NEBI', 'NEEDHAM', 'NEHLS', 'NEIDERNAM', 'NEILSON', 'NELSON', 'NETMER', 'NEUMAN', 'NEVILLE', 'NEVIN', 'NEVINE', 'NEWBURN', 'NEWILL', 'NEWITT', 'NEWMAN', 'NEWTON', 'NICHOLAS', 'NICHOLLS', 'NICHOLSON', 'NICOL', 'NIECHIMEKI', 'NIEL', 'NIELSDOTTER', 'NIELSEN', 'NIELSON', 'NISBETT', 'NISCTIWSKI', 'NIXON', 'NOAKA', 'NOBLE', 'NOLAN', 'NORCLIFFE', 'NORMAN', 'NORRIS', 'NORTON', 'NOSOTTI', 'NOTH', 'NOTT', 'NUGENT', 'NUTE', 'NUTTING', 'O BREEN', 'O BRIEN', 'O BRYAN', 'O CALLAGHAN', 'O CONNELL', 'O CONNER', 'O CONNOR', 'O DEA', 'O DONNEL', 'O DONNELL', 'O DWYER', 'O GORMAN', 'O GRADY', 'O HAGAN', 'O KEEFE', 'O LEARY', 'O LOUGHLEN', 'O LOUGHLIN', 'O MALLEY', 'O MULLAM', 'O NEIL', 'O NIEL', 'O REILLY', 'O ROURKE', 'O SHAUGHNESSY', 'O TOOLE', 'OAKES', 'OAKLEY', 'OATEN', 'OCCHS', 'OELSEN', 'OELSNER', 'OGDEN', 'OHLSEN', 'OLCSDOTTER', 'OLDFIELD', 'OLIVER', 'OLSEN', 'ORCHARD', 'ORMOND', 'OSBORN', 'OSBORNE', 'OTT', 'OUGHTON', 'OULD', 'OWEN', 'OXMAN', 'PAASKE', 'PACCELLI', 'PACKHAM', 'PALADINNI', 'PALLESTIN', 'PALMER', 'PAMPILLANI', 'PARBURRY', 'PARBURY', 'PARDECK', 'PARDON', 'PARK', 'PARKER', 'PARKIN', 'PARKINS', 'PARKS', 'PARRY', 'PARSON', 'PARSONS', 'PARTON', 'PASCOE', 'PATERSON', 'PATRELL', 'PATRICK', 'PATTERSON', 'PATTINSON', 'PATTON', 'PAUL', 'PAULSEN', 'PAVES', 'PAYNE', 'PEAHERS', 'PEARCE', 'PEARN', 'PEARSON', 'PEATERS', 'PEDERSEN', 'PEED', 'PEGG', 'PEGLER', 'PEHRSON', 'PEMBROKE', 'PENDERGAST', 'PENGELLY', 'PENGELY', 'PENMAN', 'PENNER', 'PENNINGTON', 'PENSON', 'PERCY', 'PERKINS', 'PERREN', 'PERRINS', 'PERROTT', 'PERRY', 'PERSON', 'PERSSE', 'PETER', 'PETERS', 'PETERSEN', 'PETRIE', 'PETTS', 'PFISTER', 'PHILIPS', 'PHILLIP', 'PHILLIPS', 'PICKERING', 'PIDGEON', 'PIKE', 'PILKINGTON', 'PILLAGE', 'PILLING', 'PINCHIN', 'PIPER', 'PISHAK', 'PITT', 'PLANKA', 'PLATT', 'PLEACE', 'PLISTED', 'PLUCKNETT', 'PLUMMER', 'PLUNKETT', 'PODD', 'POINTER', 'POLLARD', 'POLYNESIAN', 'POLZIN', 'POMEROY', 'POOL', 'POOLE', 'PORTER', 'POTHEWAY', 'POTTER', 'POULSEN', 'POULTNEY', 'POWE', 'POWELL', 'POWER', 'POYSEN', 'PRANGLEY', 'PRATT', 'PRENSO', 'PRESTON', 'PRICE', 'PRIDDY', 'PRIEST', 'PRIESTLEY', 'PRIOR', 'PRITCHARD', 'PRITCHETT', 'PROCTOR', 'PROSDOCINI', 'PROUT', 'PRTICHARD', 'PRYCE', 'PRYER', 'PUDDLE', 'PUGH', 'PURTELL', 'PURVIS', 'PYM', 'PYNE', 'QUANE', 'QUICK', 'QUIGLEY', 'QUILTY', 'QUIN', 'QUINAN', 'QUINE', 'QUINLAN', 'QUINLIVAN', 'QUINN', 'QUIRKE', 'QURALAN', 'RADKE', 'RAE', 'RAECKE', 'RAFERTY', 'RAFTER', 'RAGGITT', 'RAGIONEVI', 'RAIL', 'RAMPTON', 'RAMSAY', 'RAMSEY', 'RANDON', 'RANGER', 'RANKIN', 'RANY', 'RASMUSSEN', 'RAVENSCROFT', 'RAVERTY', 'RAWLINGS', 'RAYNES', 'RAYNOR', 'READ', 'REARDON', 'REBHOBZ', 'RECKOW', 'REDDY', 'REDFORD', 'REECE', 'REED', 'REES', 'REFFICKE', 'REGAN', 'REID', 'REILLY', 'REIMERS', 'REINKE', 'RENDALL', 'RERSGAARD', 'RETTSCHLAG', 'REYNOLDS', 'RIALL', 'RICE', 'RICHARD', 'RICHARDS', 'RICHARDSON', 'RICHMOND', 'RICKETTS', 'RIELD', 'RIELLY', 'RILEY', 'RINGROSE', 'RINNY', 'RIORDAN', 'RIPLEY', 'RITCHIE', 'ROBBINS', 'ROBERTS', 'ROBERTSON', 'ROBINSON', 'ROBSON', 'ROCHE', 'RODDAM', 'RODERICK', 'RODGERS', 'ROGERS', 'ROHDE', 'RONAN', 'ROOKSLEY', 'ROONEY', 'ROSCOLD', 'ROSE', 'ROSENLAND', 'ROSENLUND', 'ROSS', 'ROSSBUIN', 'ROSSBUN', 'ROSSER', 'ROTH', 'ROUND', 'ROURKE', 'ROUSELL', 'ROUTE', 'ROVERY', 'ROWBOTHAM', 'ROWD', 'ROWE', 'ROWLAND', 'ROWLES', 'ROWLEY', 'ROYAN', 'ROYE', 'RUDD', 'RUDGE', 'RUSKE', 'RUSMUSSEN', 'RUSSEL', 'RUSSELL', 'RUTTER', 'RYAN', 'RYLAND', 'RYNNE', 'SALMON', 'SALTER', 'SALVADORE', 'SAMPSON', 'SAMUEL', 'SANDERS', 'SANDERSON', 'SANDS', 'SANISBURY', 'SATINLEY', 'SAUGNESSY', 'SAUNDERS', 'SAVAGE', 'SAXBY', 'SAYERS', 'SCAMMEL', 'SCAMMELL', 'SCANLAN', 'SCANLON', 'SCANNELL', 'SCARLET', 'SCARLETT', 'SCASE', 'SCHAFFERIGNS', 'SCHEFFLER', 'SCHEIKOWEKI', 'SCHENK', 'SCHIBOOWSKIE', 'SCHIBROWSKI', 'SCHION', 'SCHIPPLIK', 'SCHLACK', 'SCHMARK', 'SCHMIDT', 'SCHMITZ', 'SCHNIEDWIND', 'SCHOFIELD', 'SCHONEBUK', 'SCHONROCK', 'SCHONSOCK', 'SCHOON', 'SCHOTT', 'SCHRANK', 'SCHROEDER', 'SCHULZ', 'SCHURER', 'SCHUTE', 'SCHWERSO', 'SCORCH', 'SCOTT', 'SCROGGS', 'SCULLY', 'SEALES', 'SEEGAR', 'SEETAR', 'SEIFERT', 'SELLER', 'SELLEY', 'SEMAL', 'SEWARD', 'SEXTON', 'SHACK', 'SHANAHAN', 'SHANNAHAN', 'SHARP', 'SHAW', 'SHEA', 'SHEADY', 'SHEAH', 'SHEARER', 'SHEARS', 'SHEBELLING', 'SHEEHAN', 'SHEEHY', 'SHEEN', 'SHEERAN', 'SHENRAHAN', 'SHEPHARD', 'SHEPPARD', 'SHEPPIN', 'SHERIDAN', 'SHERIDON', 'SHINE', 'SHIPPARD', 'SHOMMCOCK', 'SHORTAL', 'SHORTALL', 'SHORTER', 'SIERRRERT', 'SILVER', 'SILVESTER', 'SILWOOD', 'SIM', 'SIMINSON', 'SIMPSON', 'SIMS', 'SINGLETON', 'SISNEY', 'SISSETT', 'SISSY', 'SKACFE', 'SKAN', 'SKARFE', 'SKERRINGTON', 'SKIDMORE', 'SKYNNE', 'SLANSKY', 'SLATEY', 'SLATTERY', 'SLAUGHTER', 'SLEAN', 'SLEATH', 'SLOCUMB', 'SMACK', 'SMARK', 'SMART', 'SMELLIE', 'SMILLIE', 'SMITH', 'SMITHERS', 'SMURTHWAITE', 'SMYTH', 'SMYTHE', 'SNAPE', 'SNOOK', 'SNOW', 'SOMERVILLE', 'SOMMERFELD', 'SON', 'SORENSEN', 'SORENSON', 'SOSHMAN', 'SOUTHALL', 'SPAIN', 'SPEAN', 'SPEAR', 'SPEDDING', 'SPERLING', 'SPILLER', 'SPINNER', 'SPIRES', 'SPOMAN', 'SPRAGUE', 'SPRATT', 'SPURDLE', 'ST JOHN', 'STACEY', 'STACK', 'STANCLIFFE', 'STANITON', 'STANLEY', 'STANTON', 'STANWAY', 'STAPLER', 'STAPLETON', 'STEELE', 'STEHR', 'STEINER', 'STEPHEN', 'STEPHENS', 'STEPHENSEN', 'STEPHENSON', 'STERNSON', 'STERZING', 'STEVENS', 'STEVENSON', 'STEWARD', 'STEWART', 'STIBBARDS', 'STILES', 'STILGOE', 'STOCKALL', 'STOJHR', 'STOKES', 'STONE', 'STOUT', 'STRACHAN', 'STRAIN', 'STRAMACH', 'STRAND', 'STREAM', 'STREHLAN', 'STRICKLAND', 'STUART', 'STUBBINGTON', 'STUBBS', 'STUCKLEY', 'STUR', 'STUTTER', 'SUINAMON', 'SULLIVAN', 'SUMAKE', 'SUMMERS', 'SUMMONS', 'SUNDELL', 'SURMAN', 'SUTER', 'SUTHERLAND', 'SUTTON', 'SVENDSEN', 'SWAIN', 'SWAN', 'SWEENEY', 'SWEOLLEN', 'SWIFT', 'SYKES', 'SYMONS', 'TACKER', 'TADD', 'TADT', 'TAEBKE', 'TAFFE', 'TAFT', 'TAIT', 'TALBOT', 'TALTY', 'TARAHAN', 'TARRANT', 'TARSENE', 'TASLING', 'TASMER', 'TATTERSALL', 'TAVNUR', 'TAYLOR', 'TEASDALE', 'TEASE', 'TEDFORD', 'TEDISCOMBE', 'TEEVOR', 'TELFORD', 'TELLERS', 'TEMPLER', 'TENCH', 'TEOKELL', 'TERRY', 'THAKE', 'THAM', 'THAMBOA', 'THATHO', 'THELEFSEN', 'THESA', 'THIMARACK', 'THOMAS', 'THOMPSON', 'THOMSEN', 'THORN', 'THORPE', 'THOUKI', 'THUSKELDSEN', 'THWAITES', 'TIBBEY', 'TICHINOR', 'TIERNEY', 'TIMMY', 'TINKER', 'TIPPER', 'TIPPING', 'TOBIN', 'TOLLERTON', 'TOMKINSON', 'TOMLINES', 'TONKINSON', 'TOOL', 'TOOLE', 'TOOVEY', 'TORGESEN', 'TORNBERG', 'TOUGH', 'TOVEY', 'TOWELL', 'TOWHY', 'TOWNSEND', 'TOY', 'TRACEY', 'TRAISE', 'TRASK', 'TRAVERS', 'TREACEY', 'TREACY', 'TREASURE', 'TREGONING', 'TREHERNE', 'TREICHEL', 'TRELOAR', 'TREVANKIS', 'TREVATHAN', 'TREVATHEN', 'TREVOR', 'TRIMBLE', 'TRITT', 'TROHLOFF', 'TROTT', 'TROUGHTON', 'TROWBRIDGE', 'TRUDGEON', 'TUCKER', 'TUICKNELL', 'TUNKEY', 'TUNY', 'TURCHEK', 'TURNER', 'TURUN', 'TUTICCI', 'TWEDDLE', 'TWEED', 'TWEEDALE', 'TWOHY', 'TWOMEY', 'TWOMY', 'TYDINGS', 'TYE', 'TYLER', 'TYMONS', 'TYSON', 'UBANK', 'ULETT', 'UNGOOD', 'UNNAMED', 'UPTON', 'VALLEHY', 'VALLIER', 'VANDERWOLF', 'VANDERY', 'VANE', 'VARLEY', 'VAUGH', 'VAUGHAN', 'VAYSEY', 'VEAL', 'VEDIH', 'VEELONG', 'VEITH', 'VELA', 'VERNON', 'VERONI', 'VEST', 'VEUILLE', 'VEY', 'VICKERY', 'VILE', 'VIMNICONSTIL', 'VINCENS', 'VINNICONSTIL', 'VOLKEL', 'VOZZI', 'VULCH', 'WADDELL', 'WAGNER', 'WAITE', 'WAKELY', 'WALDEN', 'WALDRON', 'WALKER', 'WALL', 'WALLACE', 'WALLER', 'WALLIS', 'WALSH', 'WALTERS', 'WALTHER', 'WALTON', 'WANZEICH', 'WARD', 'WARDROP', 'WARE', 'WARKS', 'WARNE', 'WARNER', 'WARNES', 'WARNOCK', 'WARREN', 'WARSNA', 'WASON', 'WATCHMAN', 'WATERFIELD', 'WATERS', 'WATKIN', 'WATKINS', 'WATSON', 'WATT', 'WATTIE', 'WAULDRON', 'WAYARDT', 'WEARING', 'WEATHERHEAD', 'WEBB', 'WEBSTER', 'WEDLOCK', 'WEEKS', 'WEIFER', 'WEINEGRUN', 'WEIR', 'WEISS', 'WELBOURN', 'WELLINGTON', 'WELLS', 'WELWOOD', 'WERNER', 'WESCHEL', 'WEST', 'WETHERALL', 'WEYNES', 'WHEELDON', 'WHEELER', 'WHELAN', 'WHELAW', 'WHELLEN', 'WHEWAY', 'WHILIMORE', 'WHITAKER', 'WHITBOURNE', 'WHITE', 'WHITEHEAD', 'WHITEHORN', 'WHITELAW', 'WHITING', 'WHITTAKER', 'WHITTINGHAM', 'WHITTLE', 'WHYTE', 'WICKHAM', 'WIDLOCK', 'WIDMANN', 'WIEBACK', 'WIFERLING', 'WILCE', 'WILCOX', 'WILDING', 'WILDSMITTE', 'WILE', 'WILKINSON', 'WILLBRAM', 'WILLET', 'WILLETS', 'WILLGRESS', 'WILLIAMS', 'WILLISS', 'WILLOUGHBY', 'WILLS', 'WILMOT', 'WILSON', 'WILTON', 'WIMS', 'WINNIE', 'WINTER', 'WINTOUR', 'WISMER', 'WIX', 'WOLFE', 'WONSON', 'WOOD', 'WOODCOCK', 'WOODHOUSE', 'WOODLEY', 'WOODROCK', 'WOODS', 'WOODWARD', 'WOOLCOCK', 'WOOLEY', 'WORGAN', 'WORKMAN', 'WORLEY', 'WORMACOTT', 'WORNINGTON', 'WORRALL', 'WORTHMAN', 'WREMBECK', 'WRIGHT', 'WRINGE', 'WULFF', 'WYATT', 'WYLIE', 'YADA', 'YALLA', 'YARNTON', 'YEADON', 'YEALES', 'YEOMANS', 'YOELMANN', 'YOUNG', 'YOURK', 'YOUSTER', 'YUILE', 'ZAHMEL', 'ZALLINGER', 'ZANDER', 'ZEIMER', 'ZEISSLER', 'ZIMMERLI', 'wAROKE']</t>
         </is>
@@ -609,12 +617,15 @@
         </is>
       </c>
       <c r="T3" t="n">
+        <v>498</v>
+      </c>
+      <c r="U3" t="n">
         <v>42537</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>1159</v>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>['1 Infant of Henry', '1 Infant of Isaac', '1 Infant of John', '1 Infant of Mr', '1 Infant of Walter', '1 child', '1 child of Mr', '1 female Infant of Henry', '1 female child of Alfred', '1 female child of Jno', '1 female child of Joseph', '1 female child of Matt', '1 female child of Mr', '1 female child of Walter', '1 female child of William', '1 female child of William S', '1 male child of Geo F', '1 male child of Henry', '1 male child of Jno', '1 male child of John', '1 male child of Joseph', '1 male child of Mr', '1 male child of Pat', '1 male child of Sydney', '1 male child of William', '1 male child of William S', '2 children of Mr', '2 female child of Mr', '2 female children of Chas', '2 female children of David', '2 female children of Eli', '2 female children of Mr', '2 female children of William', '2 male child of Mr', '2 male children of David', '2 male children of Eli', '2 male children of John', '2 male children of Joseph', '2 male children of Mr', '2 male children of William', '3 female children of Mr', '3 male children of John', '3 male children of William', '67', 'A', 'Aaron', 'Abalvin', 'Abrah', 'Abraham', 'Acheson', 'Ada', 'Adam', 'Adelaide', 'Adolf', 'Adolph', 'Adolphe', 'Adolphine', 'Adolpho', 'Aeneas', 'Agathe', 'Agnes', 'Agnes G', 'Agnes Inf', 'Agustine', 'Alaide', 'Albert', 'Albert Inf', 'Albertine', 'Aldoph', 'Alena', 'Alex', 'Alex S', 'Alex.', 'Alexander', 'Alexandr Inf', 'Alexdr', 'Alexr', 'Alexr C', 'Alexr Inf', 'Alf', 'Alfd', 'Alfred', 'Alfred C', 'Alfred J', 'Alice', 'Alice E', 'Alice Inf', 'Alice M', 'Allen', 'Allen C Inf', 'Allice', 'Alphons', 'Amadi', 'Amalie', 'Amante', 'Ambrose', 'Amelia', 'Amelia M', 'Amie R', 'Amy', 'Anactatia', 'Anastatia', 'Anders', 'Anders A', 'Anders P', 'Anders Peter', 'Andrea', 'Andreas', 'Andrew', 'Andrina', 'Andrine O', 'Ane', 'Ane Maria', 'Ann', 'Ann B', 'Ann Dorth', 'Ann Maria', 'Anna', 'Anna L', 'Anna M', 'Anna Maria', 'Anne', 'Anne Beata', 'Anne E', 'Anne Kirstine', 'Anner', 'Annes', 'Annetta', 'Annetti', 'Annice', 'Annie', 'Annie E', 'Annie G', 'Annie H', 'Annie Inf', 'Annie J', 'Annisina', 'Anthan', 'Anthony', 'Anton', 'Antonio', 'Archd', 'Archibald', 'Archie', 'Arnold', 'Arthur', 'Arthur Inf', 'Asenath', 'Ashley', 'Attina', 'August', 'Augusta', 'Augusta R', 'Auguste', 'Augusti', 'Augustus', 'Austin', 'Avma', 'Axel', 'Axel Hollg', 'Balfour', 'Balthsheba', 'Banghan', 'Barbara', 'Bartholomew', 'Bartley', 'Batram', 'Beatrice', 'Beatrice Inf', 'Bella', 'Belzebub', 'Ben', 'Bengt A', 'Benj', 'Benjamin', 'Benjamine', 'Benjm', 'Benjn', 'Bennett', 'Bernard', 'Bernhard', 'Berta', 'Bertha', 'Berthildi', 'Bessie', 'Bessie Inf', 'Bessy', 'Betsey', 'Betsy', 'Billy', 'Blanche', 'Boatswain', 'Bob', 'Booth', 'Brian', 'Bridget', 'Bridget Inf', 'Bridgt', 'Britter', 'Bruno', 'Bryan', 'Bryant', 'Burton', 'C F W', 'C Wm', 'Canehetta', 'Captain', 'Captain George', 'Carl', 'Carl A', 'Carl Aug', 'Carl Auguste', 'Carl C', 'Carl F', 'Carl F W', 'Carl G', 'Carl J K', 'Carl T', 'Caroline', 'Cassandra', 'Cassie', 'Catane', 'Cath', 'Catharina', 'Catharine', 'Cathe', 'Catherine', 'Catherine E', 'Catherine Inf', 'Cathn', 'Cathne', 'Celia', 'Charity', 'Charles', 'Charles A', 'Charles Inf', 'Charles W', 'Charlie', 'Charlotte', 'Charlotte Inf', 'Chas', 'Chas E', 'Chas G', 'Chas W', 'Chistr', 'Chris', 'Christ', 'Christ M', 'Christen', 'Christen C', 'Christian', 'Christian N B', 'Christian P', 'Christiana', 'Christina', 'Christine', 'Christoper', 'Christopher', 'Christr', 'Clara', 'Clara J', 'Claretta', 'Claudius', 'Claus', 'Cockey', 'Colin', 'Come back', 'Constance Inf', 'Cornelias', 'Cornelius', 'Crawford Inf', 'Dan', 'Daniel', 'Daniel T P', 'Daniel W', 'Danl', 'David', 'David Henry', 'David Inf', 'Deborah', 'Delia', 'Delia Inf', 'Denah', 'Denis', 'Dennis', 'Dinah', 'Doctor', 'Domnick', 'Donald', 'Dora', 'Dora Inf', 'Dorcas', 'Dormer', 'Douglas', 'Duncan', 'E A', 'E J', 'E. Ann', 'Ebenezer', 'Ed', 'Edd', 'Edgar', 'Edith', 'Edmond', 'Edmund', 'Edward', 'Edward Inf', 'Edwardine', 'Edwd', 'Edwd A', 'Edwin', 'Eleanor', 'Elen', 'Eleonore', 'Eli', 'Elijah', 'Elise', 'Elise Soph', 'Elisha', 'Eliz', 'Eliza', 'Eliza A', 'Eliza Inf', 'Elizabeth', 'Elizabeth A', 'Elizabeth Inf', 'Elizabetta', 'Elizah', 'Elizbth', 'Elizh', 'Elizt', 'Elizth', 'Elizth A', 'Elizth J', 'Elizth L', 'Elizth M', 'Elizth T', 'Ellen', 'Ellen E', 'Ellen Inf', 'Ellen Sophie', 'Ellie', 'Ellonore', 'Elsa', 'Elsabe', 'Else', 'Ely', 'Emil', 'Emilia', 'Emilie', 'Emily', 'Emily E', 'Emma', 'Emma Inf', 'Emmanuel', 'Enos', 'Erasmus', 'Ernest', 'Ernest A', 'Ernestine', 'Ernst M', 'Erwin', 'Essex', 'Esther', 'Ethel Inf', 'Eucema', 'Eugen', 'Eugene', 'Eugenie A', 'Euphemia', 'Europe', 'Euvil', 'Eva', 'Evan', 'Evelyn', 'Evey', 'F', 'F C A', 'F Mr', 'F W', 'Falconer', 'Fannie', 'Fanny', 'Felix', 'Ferdinand', 'Ferdinand L', 'Ferdinandaie', 'Filippo', 'Fk C', 'Fk W', 'Florence', 'Florence Inf', 'Flourie', 'Foster', 'Frances', 'Frances A', 'Frances H', 'Francis', 'Francis W', 'Frandsine', 'Frank', 'Franny', 'Franz', 'Franz D G', 'Fraudsine', 'Fred', 'Fred A', 'Fred Aug', 'Fred Hy', 'Fred W', 'Frederick', 'Frederick Inf', 'Fredericke', 'Frederika', 'Frederike', 'Fredk', 'Fredk Henry', 'Fredrich', 'Fredrick', 'Fredrika', 'Fredrike', 'Fredz', 'Friederic', 'Friedr', 'Friedrich', 'Friedrick', 'Fritz', 'Fritz Carl', 'Fritz I W', 'G', 'G F', 'G R', 'Gabriel', 'Gardu', 'Gemima', 'Geo', 'Geo A', 'Geo F', 'Geo H', 'Geo Inf', 'Geo J', 'Geo T', 'Geo W', 'Georg', 'George', 'George A', 'George E', 'George Edwd', 'George F', 'George Gustave', 'George H', 'George Inf', 'George M', 'George R', 'George W', 'Georgie', 'Georgina', 'Georgine', 'Geovanni', 'Gerald', 'Gerhud', 'Gertrude', 'Geruda', 'Gibson', 'Gilcamina', 'Ginnini', 'Giovana', 'Giovanni', 'Gorin', 'Gorven', 'Gothbert', 'Gottfr', 'Gottfried', 'Gottlieb', 'Grace', 'Guiseppe', 'Guiseppi', 'Gunne', 'Gustav', 'Gustave', 'H', 'H M M', 'Hanh', 'Hanna L', 'Hannah', 'Hannah F', 'Hannah Inf', 'Hanora', 'Hans', 'Hans A', 'Hans F', 'Hans J', 'Hans J K', 'Hans P', 'Hans Peter', 'Hansine', 'Harold', 'Harriet', 'Harriet D', 'Harriett', 'Harrne', 'Harry', 'Hartley', 'Harvey', 'Hattie', 'Hatton', 'Haus', 'Heinr', 'Heinrich', 'Heinrick', 'Heirman', 'Helen', 'Helen M', 'Helena', 'Helene', 'Hellen', 'Henl', 'Henrich', 'Henrietta', 'Henriette', 'Henry', 'Henry C A', 'Henry G', 'Henry Inf', 'Henry J', 'Henry R', 'Herbert', 'Herbert H', 'Herm', 'Herm Aug', 'Herman', 'Herman V', 'Hermann', 'Hermine', 'Hermoine', 'Hester', 'Hienrich', 'Hilda', 'Hiram', 'Honor', 'Honora', 'Honorah', 'Honoria', 'Horatio', 'Howard', 'Hubert', 'Hugh', 'Hughina', 'Hy', 'I', 'I W', 'Ida', 'Infant of John', 'Infant of Mr', 'Infant of William', 'Ingred', 'Isa', 'Isaac', 'Isabella', 'Isabella Inf', 'Isak', 'Issabele', 'Issabella', 'J', 'J G', 'J J', 'J K', 'Jabez', 'Jacob', 'Jacob C F', 'Jacob C K', 'Jacob F', 'Jacob P', 'Jacobine W', 'James', 'James A', 'James C', 'James E', 'James F', 'James H', 'James Inf', 'James N', 'James W I See also John', 'Jane', 'Jane A', 'Jane H', 'Jane Inf', 'Janet', 'Jannett', 'Jans', 'Jas', 'Jasper', 'Jeanette', 'Jemima', 'Jemmy', 'Jennette', 'Jennie', 'Jens', 'Jens C', 'Jens Chr', 'Jens Christ', 'Jens Peter', 'Jephthah', 'Jeppeine', 'Jeremiah', 'Jeremiah Inf', 'Jesse', 'Jesse T', 'Jesse Y', 'Jessie', 'Jeus', 'Jinney', 'Jng Marie', 'Jno M', 'Jno Mr', 'Jno W', 'Joan', 'Job', 'Joe', 'Joen', 'Joh Johs', 'Johann', 'Johann F', 'Johann H', 'Johann Jacob', 'Johanna', 'Johanna Inf', 'Johanne', 'Johanne C', 'Johanne M', 'Johannes', 'John', 'John A', 'John B', 'John D', 'John E', 'John F', 'John G', 'John H', 'John Inf', 'John J', 'John Julius', 'John L', 'John M', 'John P', 'John R', 'John See also James W I', 'John T', 'John W', 'Jonah Robert', 'Jonathan', 'Joniah', 'Jons', 'Jorgen P', 'Jorgens', 'Jorgens N', 'Jose Ant', 'Joseph', 'Joseph A', 'Joseph B', 'Joseph C', 'Joseph H', 'Joseph Inf', 'Joseph W Inf', 'Josephine', 'Josephine Inf', 'Josh H W', 'Joshua', 'Josiah', 'Judy', 'Julia', 'Juliana', 'Julianne', 'Julie', 'Julien', 'Julius', 'Julius E P', 'June', 'Jurgen', 'Kane', 'Karim', 'Kaspar', 'Kate', 'Katie', 'Katy', 'Kaven', 'Kenneth', 'Kennith', 'Keziah', 'Kieran', 'Kirstine M', 'Kissi', 'Kitty', 'Knud S', 'Konrad', 'Kristine', 'Kristram', 'L C W', 'Lambert', 'Lars', 'Laughlan', 'Laura', 'Laura C', 'Laurence', 'Laurine', 'Lauritz', 'Lauriz', 'Lavina', 'Lavinia', 'Lawrance', 'Lawrence', 'Lawrenz', 'Lazarus', 'Leah', 'Lemy', 'Lena', 'Lennox', 'Leonard', 'Leonore', 'Letitia', 'Levi', 'Lewis', 'Lilian', 'Lillian', 'Lillian Inf', 'Lillie', 'Lilly', 'Lily', 'Lindsay', 'Lissie', 'Livia', 'Lizzie', 'Lizzie Inf', 'Lizzy', 'Llewellyn', 'Lorenz', 'Lorenzo', 'Louis', 'Louisa', 'Louisa A', 'Louisa M', 'Louisanna', 'Louise', 'Louise F', 'Lowry', 'Lucia', 'Lucy', 'Lucy E', 'Lucy H', 'Ludu W', 'Ludwig', 'Luigi', 'Luke', 'Lupton', 'Lydia', 'M A', 'Mabel', 'Mads', 'Mag', 'Magda', 'Magdalena', 'Magdalene', 'Magdelene', 'Maggie', 'Malachi', 'Malachy', 'Male', 'Malinga', 'Mann', 'Mansey', 'Marc', 'Marem', 'Maren', 'Marg', 'Margarate', 'Margaret', 'Margaret Inf', 'Margaretha', 'Margery', 'Margt', 'Margt E', 'Margt Inf', 'Margte', 'Margte Inf', 'Maria', 'Maria C', 'Maria J', 'Maria Kerst', 'Maria M', 'Marian', 'Marianne', 'Marie', 'Marie C', 'Marie L', 'Marion', 'Marion J', 'Marion Kirste', 'Marius', 'Mark', 'Marks', 'Martha', 'Martha A', 'Martha J', 'Martin', 'Martin Carl', 'Martini', 'Martlam', 'Mary', 'Mary A', 'Mary A L', 'Mary Ann', 'Mary E', 'Mary E Inf', 'Mary H', 'Mary I', 'Mary II', 'Mary Inf', 'Mary J', 'Mary L', 'MaryA', 'Mat', 'Matha', 'Mather', 'Mathew', 'Mathew N', 'Mathias', 'Mathilda', 'Mathilde', 'Matild', 'Matilda', 'Matilda A', 'Matt', 'Matthew', 'Maud', 'Maude E', 'Maurice', 'May', 'May A', 'Meinrad', 'Melaine', 'Melchoir', 'Mena', 'Metta', 'Mette C', 'Mich', 'Michael', 'Michael Inf', 'Michl', 'Mick', 'Mickey', 'Miles', 'Millie', 'Mils', 'Mina', 'Minnie', 'Minnie G', 'Miriam', 'Mirna', 'Miss', 'Miss B', 'Mita', 'Moofyda', 'Morgan', 'Morgan K', 'Mortimer', 'Moses', 'Mr', 'Mrs', 'Mrs Elizh', 'Mrs Matron', 'Mrs wife of Jno', 'Mrs wife of Robert', 'Mrs wife of Will', 'Mrswife of Alexr C', 'Mrswife of John', 'Murdo', 'Murdock', 'Myra', 'N', 'N C', 'Nan', 'Nancy', 'Nanie', 'Nannett', 'Nannie', 'Nano', 'Nans', 'Naomi', 'Nat', 'Nath H', 'Nathaniel', 'Nathl', 'Neal', 'Ned', 'Neil', 'Neils', 'Nellie', 'Nelly', 'Nicholas', 'Nicolas', 'Nicole', 'Nicolene', 'Nields', 'Niels', 'Niels A', 'Niels C H', 'Niels Christ', 'Niels Christian', 'Niels Julius', 'Niels P', 'Niels S', 'Nisse T', 'Noah', 'Nora', 'Norah', 'Nowlaus', 'Ocesti', 'Ola', 'Olander', 'Ole', 'Olive', 'Orlando', 'Ormond', 'Osborn', 'Oscar', 'Ottalie', 'Ottelee', 'Ottilie', 'Otto', 'Otto H', 'Ottolie', 'Owen', 'P C', 'P T', 'Pamila', 'Park', 'Pat', 'Pat Inf', 'Patick', 'Patience', 'Patk', 'Patrick', 'Paul', 'Paul H', 'Paul J', 'Pauline', 'Peder', 'Peder H', 'Penders', 'Per', 'Percival', 'Peter', 'Peter C', 'Peter Fred', 'Peter J', 'Peter Norgard', 'Ph D', 'Phebe', 'Philadelphia', 'Philip', 'Phillip', 'Phoebe', 'Pictro', 'Pryce', 'R Jas', 'Racheal', 'Rachel', 'Rafaelli', 'Ragnhild', 'Ralph', 'Rasmine', 'Rasmus', 'Raymond', 'Rd', 'Rebecca', 'Rebecca A', 'Redmond', 'Rene', 'Reuben', 'Reutene Inf', 'Rhoda', 'Rich', 'Richard', 'Richd', 'Rinaldi', 'Robert', 'Robert Inf', 'Robert P', 'Robt', 'Roderick', 'Rody', 'Roger', 'Rogers Rd', 'Rosa', 'Rosalie', 'Rosanna', 'Rosannah', 'Rose', 'Rose A', 'Rosey', 'Rosina', 'Rosini', 'Rosley A', 'Rowland', 'Rudolf', 'Rudolph', 'Rudolphe', 'Russel', 'Russell Inf', 'Ruth', 'Sal Valatile', 'Sam', 'Sambo', 'Samborne', 'Saml', 'Samuel', 'Sarah', 'Sarah A', 'Sarah Ann', 'Sarah E', 'Sarah Inf', 'Sebrine', 'Selina', 'Septimus', 'Severine', 'Siegmund', 'Silas', 'Simon', 'Solomon', 'Soner Jeps', 'Sophia', 'Sophias P', 'Sophie', 'Sophie C', 'Sophie S', 'Sophy', 'Soren', 'Soren S', 'Sorga A', 'Squire', 'Stella', 'Stephan', 'Stephen', 'Stewart', 'Susan', 'Susanah', 'Susannah', 'Susanne', 'Sussanah', 'Sydney', 'T Albert', 'Tamer', 'Terence', 'Teresa', 'Thady', 'Thealy', 'Theodor', 'Theodore', 'Theresa', 'Therese', 'Thirza', 'Thomas', 'Thomas A', 'Thomas C', 'Thomas Inf', 'Thomas J', 'Thomas P', 'Thos', 'Thos E', 'Timothy', 'Timy', 'Toent Hans', 'Tom', 'Tommy', 'Tristine', 'Trude W', 'Veronika', 'Victor', 'Vincenzi', 'Vincenzo', 'Violet', 'Vivian', 'W', 'W C', 'W D', 'W F', 'W H', 'W J', 'W P', 'Waldern', 'Waldmar F', 'Wallace', 'Walter', 'Walter Inf', 'Wardle', 'Waren', 'Warrington Inf', 'Werder', 'Wessley Inf', 'Whilemine', 'Wilfred', 'Wilhelm', 'Wilhelm F', 'Wilhelmine', 'Will', 'Will Mr', 'William', 'William A', 'William F', 'William G', 'William Inf', 'William J', 'William James', 'William R', 'William S', 'William T Inf', 'William W', 'Williamena', 'Willie', 'Willliam', 'Winifred', 'Winifred Inf', 'Wm', 'Wm F', 'Wm H', 'Wm J', 'Wm P', 'Wm R', 'Wright', 'Y H', 'child of A Schonsock', 'child of Alfred', 'family', 'family of', 'n/a', 'one child of Albert', 'one child of Ernest', 'one child of Hugh', 'one child of Jasper', 'one child of John', 'six children of Susan', 'three children of John', 'two children of Edward', 'two children of James', 'two children of John', 'two children of Richard', 'two children of William', 'unknown', 'wife', 'wife of', 'wife of A Schonsock', 'wife of Carl', 'wife of F Schulz', 'wife of G', 'wife of H', 'wife of Hend', 'wife of I Soshman', 'wife of J', 'wife of Mils']</t>
         </is>
@@ -687,12 +698,15 @@
         </is>
       </c>
       <c r="T4" t="n">
+        <v>1845</v>
+      </c>
+      <c r="U4" t="n">
         <v>74683</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>481</v>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>['1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '19', '2', '20', '21', '22', '23', '3', '4', '5', '6', '7', '8', '9', 'Aoba', 'Apie', 'Assisted', 'Burra Burra', 'Cabin', 'Free', 'Free Nominated', 'Full Payers', 'Mai', 'Malicolo', 'Married Families', 'Married Families 1', 'Married Families 10', 'Married Families 11', 'Married Families 12', 'Married Families 13', 'Married Families 14', 'Married Families 15', 'Married Families 16', 'Married Families 2', 'Married Families 3', 'Married Families 4', 'Married Families 5', 'Married Families 6', 'Married Families 7', 'Married Families 8', 'Married Families 9', 'Married Families Assisted', 'Married Families Asst 10', 'Married Families Asst 11', 'Married Families Asst 12', 'Married Families Asst 13', 'Married Families Asst 14', 'Married Families Asst 15', 'Married Families Asst 16', 'Married Families Asst 17', 'Married Families Asst 18', 'Married Families Asst 19', 'Married Families Asst 2', 'Married Families Asst 20', 'Married Families Asst 21', 'Married Families Asst 3', 'Married Families Asst 4', 'Married Families Asst 5', 'Married Families Asst 6', 'Married Families Asst 7', 'Married Families Asst 8', 'Married Families Asst 9', 'Married Families F P 1', 'Married Families Free 22', 'Married Families Free 23', 'Married Families Free 24', 'Married Families Free 25', 'Married Families Free 26', 'Married Families Free 27', 'Married Families Free 29', 'Married Families Free 30', 'Married Families Free 31', 'Married Families Free 32', 'Married Families Free 33', 'Married Families Free 34', 'Married Families Free 35', 'Married Families Free 36', 'Married Families Free 37', 'Married Families Free 38', 'Married Families Free 39', 'Married Families Free 40', 'Married Families Free 41', 'Married Families Free 42', 'Married Families Free 43', 'Married Families Free 44', 'Married Families Free 45', 'Married Families Free 46', 'Married Families Free 47', 'Married Families Free 48', 'Married Families Free 49', 'Married Families Free 50', 'Married Families Free 51', 'Married Families Free 52', 'Married Families Free 53', 'Married Families Free Nom', 'Married Families Remit Passengers', 'Married FamiliesFree 28', 'Married Immigrants 1', 'Married Immigrants 2', 'Married Immigrants 3', 'Married Immigrants 4', 'Married Immigrants 4?', 'Married Immigrants 5', 'Remittance', 'Saloon', 'Single Girls 1', 'Single Girls 10', 'Single Girls 11', 'Single Girls 12', 'Single Girls 13', 'Single Girls 14', 'Single Girls 15', 'Single Girls 16', 'Single Girls 17', 'Single Girls 18', 'Single Girls 19', 'Single Girls 2', 'Single Girls 20', 'Single Girls 21', 'Single Girls 22', 'Single Girls 23', 'Single Girls 24', 'Single Girls 25', 'Single Girls 26', 'Single Girls 27', 'Single Girls 28', 'Single Girls 29', 'Single Girls 3', 'Single Girls 30', 'Single Girls 31', 'Single Girls 32', 'Single Girls 33', 'Single Girls 34', 'Single Girls 35', 'Single Girls 36', 'Single Girls 37', 'Single Girls 38', 'Single Girls 39', 'Single Girls 4', 'Single Girls 40', 'Single Girls 41', 'Single Girls 42', 'Single Girls 43', 'Single Girls 44', 'Single Girls 45', 'Single Girls 46', 'Single Girls 47', 'Single Girls 48', 'Single Girls 49', 'Single Girls 5', 'Single Girls 50', 'Single Girls 51', 'Single Girls 52', 'Single Girls 53', 'Single Girls 54', 'Single Girls 55', 'Single Girls 56', 'Single Girls 57', 'Single Girls 58', 'Single Girls 59', 'Single Girls 6', 'Single Girls 60', 'Single Girls 61', 'Single Girls 62', 'Single Girls 63', 'Single Girls 64', 'Single Girls 65', 'Single Girls 66', 'Single Girls 67', 'Single Girls 68', 'Single Girls 69', 'Single Girls 7', 'Single Girls 70', 'Single Girls 71', 'Single Girls 72', 'Single Girls 73', 'Single Girls 74', 'Single Girls 75', 'Single Girls 76', 'Single Girls 77', 'Single Girls 78', 'Single Girls 79', 'Single Girls 8', 'Single Girls 80', 'Single Girls 81', 'Single Girls 82', 'Single Girls 9', 'Single Girls Free 1', 'Single Girls Free 10', 'Single Girls Free 11', 'Single Girls Free 12', 'Single Girls Free 13', 'Single Girls Free 14', 'Single Girls Free 15', 'Single Girls Free 2', 'Single Girls Free 3', 'Single Girls Free 4', 'Single Girls Free 5', 'Single Girls Free 6', 'Single Girls Free 7', 'Single Girls Free 8', 'Single Girls Free 9', 'Single Girls Free Nom', 'Single Girls Full Paying', 'Single Girls Full Paying 1', 'Single Girls Full Paying 2', 'Single Girls Full Paying 3', 'Single Girls Remittance', 'Single Men', 'Single Men 1', 'Single Men 10', 'Single Men 11', 'Single Men 12', 'Single Men 13', 'Single Men 14', 'Single Men 15', 'Single Men 16', 'Single Men 17', 'Single Men 18', 'Single Men 19', 'Single Men 2', 'Single Men 20', 'Single Men 21', 'Single Men 22', 'Single Men 23', 'Single Men 24', 'Single Men 25', 'Single Men 26', 'Single Men 27', 'Single Men 28', 'Single Men 29', 'Single Men 3', 'Single Men 30', 'Single Men 31', 'Single Men 32', 'Single Men 33', 'Single Men 34', 'Single Men 35', 'Single Men 36', 'Single Men 37', 'Single Men 38', 'Single Men 39', 'Single Men 4', 'Single Men 40', 'Single Men 41', 'Single Men 42', 'Single Men 43', 'Single Men 44', 'Single Men 45', 'Single Men 46', 'Single Men 47', 'Single Men 48', 'Single Men 49', 'Single Men 5', 'Single Men 50', 'Single Men 51', 'Single Men 52', 'Single Men 53', 'Single Men 54', 'Single Men 55', 'Single Men 56', 'Single Men 57', 'Single Men 58', 'Single Men 59', 'Single Men 6', 'Single Men 60', 'Single Men 61', 'Single Men 62', 'Single Men 63', 'Single Men 64', 'Single Men 65', 'Single Men 66', 'Single Men 67', 'Single Men 68', 'Single Men 69', 'Single Men 7', 'Single Men 70', 'Single Men 71', 'Single Men 72', 'Single Men 73', 'Single Men 74', 'Single Men 75', 'Single Men 76', 'Single Men 77', 'Single Men 78', 'Single Men 79', 'Single Men 8', 'Single Men 80', 'Single Men 81', 'Single Men 82', 'Single Men 83', 'Single Men 84', 'Single Men 85', 'Single Men 86', 'Single Men 87', 'Single Men 88', 'Single Men 9', 'Single Men Assisted', 'Single Men Assisted 1', 'Single Men Assisted 10', 'Single Men Assisted 11', 'Single Men Assisted 12', 'Single Men Assisted 13', 'Single Men Assisted 14', 'Single Men Assisted 15', 'Single Men Assisted 16', 'Single Men Assisted 17', 'Single Men Assisted 18', 'Single Men Assisted 19', 'Single Men Assisted 2', 'Single Men Assisted 20', 'Single Men Assisted 21', 'Single Men Assisted 22', 'Single Men Assisted 23', 'Single Men Assisted 24', 'Single Men Assisted 25', 'Single Men Assisted 26', 'Single Men Assisted 27', 'Single Men Assisted 28', 'Single Men Assisted 29', 'Single Men Assisted 3', 'Single Men Assisted 30', 'Single Men Assisted 31', 'Single Men Assisted 32', 'Single Men Assisted 4', 'Single Men Assisted 5', 'Single Men Assisted 6', 'Single Men Assisted 7', 'Single Men Assisted 8', 'Single Men Assisted 9', 'Single Men Asst', 'Single Men F P', 'Single Men Free', 'Single Men Free Nomd', 'Single Men Full 100', 'Single Men Full 101', 'Single Men Full 102', 'Single Men Full 103', 'Single Men Full 104', 'Single Men Full 105', 'Single Men Full 106', 'Single Men Full 107', 'Single Men Full 108', 'Single Men Full 109', 'Single Men Full 110', 'Single Men Full 111', 'Single Men Full 112', 'Single Men Full 113', 'Single Men Full 114', 'Single Men Full 115', 'Single Men Full 116', 'Single Men Full 117', 'Single Men Full 118', 'Single Men Full 119', 'Single Men Full 120', 'Single Men Full 121', 'Single Men Full 122', 'Single Men Full 123', 'Single Men Full 124', 'Single Men Full 125', 'Single Men Full 126', 'Single Men Full 127', 'Single Men Full 128', 'Single Men Full 129', 'Single Men Full 130', 'Single Men Full 131', 'Single Men Full 132', 'Single Men Full 133', 'Single Men Full 134', 'Single Men Full 135', 'Single Men Full 136', 'Single Men Full 137', 'Single Men Full 138', 'Single Men Full 139', 'Single Men Full 140', 'Single Men Full 141', 'Single Men Full 142', 'Single Men Full 143', 'Single Men Full 144', 'Single Men Full 145', 'Single Men Full 146', 'Single Men Full 147', 'Single Men Full 148', 'Single Men Full 149', 'Single Men Full 150', 'Single Men Full 151', 'Single Men Full 152', 'Single Men Full 153', 'Single Men Full 154', 'Single Men Full 155', 'Single Men Full 156', 'Single Men Full 157', 'Single Men Full 158', 'Single Men Full 33', 'Single Men Full 34', 'Single Men Full 35', 'Single Men Full 36', 'Single Men Full 37', 'Single Men Full 38', 'Single Men Full 39', 'Single Men Full 40', 'Single Men Full 41', 'Single Men Full 42', 'Single Men Full 43', 'Single Men Full 44', 'Single Men Full 45', 'Single Men Full 46', 'Single Men Full 47', 'Single Men Full 48', 'Single Men Full 49', 'Single Men Full 50', 'Single Men Full 51', 'Single Men Full 52', 'Single Men Full 53', 'Single Men Full 54', 'Single Men Full 55', 'Single Men Full 56', 'Single Men Full 57', 'Single Men Full 58', 'Single Men Full 59', 'Single Men Full 60', 'Single Men Full 61', 'Single Men Full 62', 'Single Men Full 63', 'Single Men Full 64', 'Single Men Full 65', 'Single Men Full 66', 'Single Men Full 67', 'Single Men Full 68', 'Single Men Full 69', 'Single Men Full 70', 'Single Men Full 71', 'Single Men Full 72', 'Single Men Full 73', 'Single Men Full 74', 'Single Men Full 75', 'Single Men Full 76', 'Single Men Full 77', 'Single Men Full 78', 'Single Men Full 79', 'Single Men Full 80', 'Single Men Full 81', 'Single Men Full 82', 'Single Men Full 83', 'Single Men Full 84', 'Single Men Full 85', 'Single Men Full 86', 'Single Men Full 87', 'Single Men Full 88', 'Single Men Full 89', 'Single Men Full 90', 'Single Men Full 91', 'Single Men Full 92', 'Single Men Full 93', 'Single Men Full 94', 'Single Men Full 95', 'Single Men Full 96', 'Single Men Full 97', 'Single Men Full 98', 'Single Men Full 99', 'Single Men Remittance', 'Single Women 1', 'Single Women 2', 'Single Women 3', 'Single Women 4', 'Single Women 4?', 'Single Women 5', 'Single Women 6', 'Single Women 7', 'Steerage', 'Tanna', 'n/a']</t>
         </is>
@@ -765,12 +779,15 @@
         </is>
       </c>
       <c r="T5" t="n">
+        <v>538</v>
+      </c>
+      <c r="U5" t="n">
         <v>60222</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>76</v>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>['1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '19', '2', '20', '21', '22', '23', '24', '25', '26', '27', '28', '29', '3', '30', '31', '32', '33', '34', '35', '36', '37', '38', '39', '4', '40', '41', '42', '43', '44', '45', '46', '47', '48', '49', '5', '50', '51', '52', '53', '54', '55', '56', '57', '58', '6', '7', '8', '9', 'Caroline', 'City of Agra', 'Duke of Athole', 'Glamis', 'Herschel', 'Highflyer', 'Indus', 'Lammershagen', 'Queensland', 'Saraca', 'Scottish Admiral', 'Scottish Hero', 'Scottish Wizard', 'Silver Eagle', 'Sybil', 'Western Monarch', 'Windsor Castle', 'n/a']</t>
         </is>
@@ -843,12 +860,15 @@
         </is>
       </c>
       <c r="T6" t="n">
+        <v>794</v>
+      </c>
+      <c r="U6" t="n">
         <v>64542</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>28</v>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>['13 Sep 1878', '14 Feb 1878', '14 June 1881', '15 Dec 1877', '15 May 1883', '18 Apr 1883', '18 Jan 1877', '18 Jul 1876', '18 Nov 1875', '1877', '1878', '1880', '1882', '2 Jan 1883', '20 Feb 1878', '23 Jan 1884', '26 Feb 1876', '27 Feb 1878', '29 Jul 1877', '30 May 1878', '363', '5 Dec 1878', '6 Apr 1879', 'Apr 1882', 'Aug 1882', 'Jun 1882', 'May 1881', 'ca Jul 1883']</t>
         </is>
@@ -921,12 +941,15 @@
         </is>
       </c>
       <c r="T7" t="n">
+        <v>5361</v>
+      </c>
+      <c r="U7" t="n">
         <v>36000</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>2</v>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>['18418', '18419']</t>
         </is>
@@ -999,12 +1022,15 @@
         </is>
       </c>
       <c r="T8" t="n">
+        <v>5361</v>
+      </c>
+      <c r="U8" t="n">
         <v>50400</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>2</v>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>['IMA3/18', 'IMA3/19']</t>
         </is>
@@ -1077,12 +1103,15 @@
         </is>
       </c>
       <c r="T9" t="n">
+        <v>5348</v>
+      </c>
+      <c r="U9" t="n">
         <v>32296</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>3</v>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>['N/A', 'Z6612', 'n/a']</t>
         </is>

--- a/examples/Australia OGD/rations_issued/profile.xlsx
+++ b/examples/Australia OGD/rations_issued/profile.xlsx
@@ -455,15 +455,20 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
+          <t>csim</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -476,7 +481,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -539,12 +544,15 @@
         <v>64</v>
       </c>
       <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
         <v>46286</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>2565</v>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>['ABBO', 'ABBOTT', 'ABERCROMBIE', 'ABERNETHY', 'ABRAHAM', 'ACORN', 'ADAMS', 'ADAMSON', 'ADDERLY', 'ADDISON', 'ADIE', 'ADONGA', 'AERMO', 'AFFLECK', 'AGNEW', 'AHERN', 'AIREY', 'AITKEN', 'ALBUTT', 'ALDER', 'ALE', 'ALEXANDER', 'ALFORD', 'ALLARDICE', 'ALLEN', 'ALLSOP', 'ALLWOOD', 'ALTY', 'ALVEY', 'AMERY', 'ANDERSEN', 'ANDERSON', 'ANDREASEN', 'ANDREW', 'ANDREWS', 'ANGELL', 'ANGLE', 'ANTHONY', 'APPIER', 'APPLEMAN', 'APPLEYARD', 'APPLIN', 'ARCHARD', 'ARCHER', 'ARGLES', 'ARMATE', 'ARMITAGE', 'ARMSTRONG', 'ARNDT', 'ARNOLD', 'ARTHUR', 'ASHMAN', 'ASHTON', 'ASKEY', 'ASMUS', 'ASPINALL', 'ASSHEAD', 'ATKINSON', 'ATTERNALL', 'AULFREY', 'AURCLIAS', 'AUSTIN', 'AYLAND', 'AZZOPARDI', 'BADCOCK', 'BADCOOK', 'BADDOE', 'BAILEY', 'BAILLIE', 'BAKER', 'BALDINGER', 'BALE', 'BALL', 'BALLAN', 'BALLARD', 'BALLERINE', 'BALLIER', 'BALSTONE', 'BAMFORD', 'BANNEN', 'BANNISTER', 'BARBER', 'BARCLAY', 'BARDEN', 'BARDON', 'BARDSLEY', 'BARKER', 'BARKLEY', 'BARNES', 'BARNETT', 'BARNS', 'BARON', 'BARREL', 'BARROW', 'BARRY', 'BARTER', 'BARTHELSEN', 'BARTON', 'BATEMAN', 'BATES', 'BATH', 'BATSTONE', 'BATTLE', 'BATY', 'BAUER', 'BAUMANN', 'BAVID', 'BAWDIN', 'BAXTER', 'BAYLISS', 'BEAL', 'BEALES', 'BEAN', 'BEANLAND', 'BEARDIE', 'BEARDMON', 'BEATLE', 'BEATTEY', 'BEAZLEY', 'BECKINSALE', 'BECKOFF', 'BEECHAM', 'BEETHAM', 'BEGNALL', 'BEIDERMANN', 'BEIKOFF', 'BEIMECK', 'BELEY', 'BELL', 'BELLAMY', 'BELLIS', 'BENFOLD', 'BENINI', 'BENNETT', 'BENTLY', 'BERESFORD', 'BERGT', 'BERLYN', 'BERMINGHAM', 'BERNETT', 'BERNEY', 'BERRY', 'BERRYMAN', 'BEST', 'BEVAN', 'BIBBINGTON', 'BIEMECK', 'BIGWOOD', 'BILLA', 'BILLINGLSLEY', 'BINWOOD', 'BIRCHLEY', 'BIRD', 'BIRDSLEY', 'BISGROVE', 'BISHOP', 'BISSETT', 'BIZAT', 'BLACK', 'BLACKER', 'BLADWELL', 'BLAKE', 'BLANCHARD', 'BLAND', 'BLEARY', 'BLENKIROW', 'BLOYES', 'BLUNDELL', 'BLYTHE', 'BODE', 'BODIN', 'BOGAN', 'BOHAN', 'BOLGER', 'BOLT', 'BOLTON', 'BOLWELL', 'BONAR', 'BONDLER', 'BONEHAM', 'BONHAM', 'BONNAR', 'BONSER', 'BOOKER', 'BOOTH', 'BOOTH late KEENAN', 'BORLANDER', 'BORNE', 'BOSANKE', 'BOSANTO', 'BOSS', 'BOSWELL', 'BOTTERALL', 'BOTTOMBERG', 'BOUKE', 'BOULGER', 'BOURKE', 'BOURNE', 'BOWDEN', 'BOWEN', 'BOWLAND', 'BOX', 'BOYCE', 'BOYD', 'BOYFORD', 'BOYLAND', 'BOYLE', 'BOYNES', 'BRACKEN', 'BRADBURN', 'BRADBURY', 'BRADEY', 'BRADLEY', 'BRADSHAW', 'BRADY', 'BRAIN', 'BRAKE', 'BRAMBRIDGE', 'BRAND', 'BRANDT', 'BRAY', 'BRAYFIELD', 'BRAZEL', 'BRAZIER', 'BRAZIL', 'BREEN', 'BREENE', 'BREMAHAN', 'BREMAN', 'BRENNAN', 'BRESCHKE', 'BREWSTER', 'BRIAN', 'BRIDE', 'BRIDGEWATER', 'BRIEN', 'BRIENS', 'BRIGGS', 'BRIMLEY', 'BRINDLEY', 'BRISCHKE', 'BRISTOW', 'BRITTON', 'BROAD', 'BROADBRIDGE', 'BROADWITH', 'BROCKLEN', 'BRODIE', 'BRODY', 'BROMBACK', 'BROOK', 'BROOM', 'BROOMFIELD', 'BROSNAN', 'BROUGHAM', 'BROWN', 'BROWNE', 'BROWNING', 'BROWNLEES', 'BRUCE', 'BRUEN', 'BRUMBY', 'BRUMER', 'BRUNTON', 'BRYAN', 'BRYANT', 'BRYNOR', 'BUCHER', 'BUCKINGHAM', 'BUCKLEY', 'BUDD', 'BUDGETT', 'BUECI', 'BULLOCK', 'BUNT', 'BURCOMBE', 'BURDEN', 'BURGESS', 'BURGIN', 'BURKE', 'BURKHARDT', 'BURKOFF', 'BURLEY', 'BURLIN', 'BURN', 'BURNE', 'BURNES', 'BURNICOAT', 'BURNS', 'BURNSIDE', 'BURPHY', 'BURRAGE', 'BURRIDGE', 'BURTON', 'BUSH', 'BUSHBRIDGE', 'BUTCHER', 'BUTLER', 'BUTROYD', 'BUTTERWORTH', 'BUTTLER', 'BUZZOLI', 'BYERS', 'BYLAND', 'BYMIER', 'BYRNE', 'BYRNES', 'BYRON', 'CADMAN', 'CADOGAN', 'CADOW', 'CAHALANE', 'CAHILL', 'CAIL', 'CAIN', 'CAIRNS', 'CALDWELL', 'CALLAGHAM', 'CALLAHAN', 'CALLAN', 'CALVERT', 'CAMERON', 'CAMPBELL', 'CANE', 'CANNING', 'CANNON', 'CANT', 'CANTER', 'CANTHRAY', 'CAPPELLINI', 'CARBOY', 'CARDOCK', 'CAREW', 'CAREY', 'CARL', 'CARLEEN', 'CARLGOIST', 'CARLON', 'CARMAN', 'CARMODY', 'CARNEY', 'CARR', 'CARRAW', 'CARREW', 'CARROL', 'CARROLL', 'CARRON', 'CARRUTHERS', 'CARRY', 'CARSON', 'CARSTENSEN', 'CARSWELL', 'CARTER', 'CARVER', 'CASEY', 'CASHEN', 'CASHMAN', 'CASSALL', 'CASSIDY', 'CASTLE', 'CAVANAGH', 'CAVINS', 'CHADWICK', 'CHAFFER', 'CHALLONER', 'CHALMERS', 'CHAMBERS', 'CHAMPION', 'CHAPLIN', 'CHARMIN', 'CHASE', 'CHASTWARD', 'CHATAIN', 'CHATTERTON', 'CHEWEY', 'CHILDS', 'CHILLEN', 'CHLOPCZIG', 'CHRISTENSEN', 'CHRISTIE', 'CHRISTION', 'CHRISTOPHER', 'CHURCH', 'CHURCHILL', 'CIONELLI', 'CLACKERTY', 'CLAFFEY', 'CLAIRE', 'CLANCEY', 'CLANCY', 'CLAPTON', 'CLARK', 'CLARKE', 'CLARKSON', 'CLASKEN', 'CLAYTON', 'CLEARY', 'CLEMENT', 'CLEMENTS', 'CLIFFORD', 'CLOE', 'CLOWER', 'COAD', 'COADY', 'COAN', 'COB', 'COCHRANE', 'COCKERN', 'COCKRAN', 'COE', 'COFFEY', 'COGLAN', 'COGLIN', 'COHILL', 'COLE', 'COLEMAN', 'COLES', 'COLLEMON', 'COLLETT', 'COLLIE', 'COLLIER', 'COLLINS', 'COLLINSON', 'COLLIWAN', 'COLLY', 'COLMAN', 'COLTER', 'COLWELL', 'COLWOOD', 'COMMONS', 'CONCANNON', 'CONDEN', 'CONDON', 'CONE', 'CONIE', 'CONLAN', 'CONLON', 'CONN', 'CONNELL', 'CONNELLY', 'CONNOLLY', 'CONNOR', 'CONNORS', 'CONOLLY', 'CONROY', 'CONSEDINE', 'CONTSTANTINE', 'CONVAN', 'CONWAY', 'COOK', 'COOKE', 'COOMBE', 'COOMLEY', 'COONEY', 'COOPER', 'COOTE', 'COPELAND', 'COPNELL', 'COPPEN', 'CORBERT', 'CORBET', 'CORBETT', 'CORBY', 'CORCORAN', 'CORDELL', 'CORKHILL', 'CORMACK', 'CORNHILL', 'CORR', 'CORRIGAN', 'CORRIN', 'CORRY', 'COSTELLO', 'COSTOBADIC', 'COTTELL', 'COTTER', 'COTTON', 'COUGHLAN', 'COULTHARDT', 'COURT', 'COURTENAY', 'COURTNEY', 'COUSIN', 'COUZENS', 'COVENSALL', 'COWAN', 'COX', 'COYLE', 'COYNE', 'CRABTREE', 'CRAGO', 'CRAIG', 'CRAIGHEAD', 'CRAKE', 'CRANE', 'CRANWITCH', 'CRAWFORD', 'CRAWLEY', 'CREAMER', 'CREED', 'CREGAN', 'CREWE', 'CRIGAN', 'CROCKFORD', 'CROFT', 'CROMBIE', 'CROMBY', 'CROMWELL', 'CRONAN', 'CRONIN', 'CROOM', 'CROSBIE', 'CROSBY', 'CROSS', 'CROTHY', 'CROUCHER', 'CROWE', 'CROWLEY', 'CRUIKSHANK', 'CRUISE', 'CRUMMIN', 'CRUMP', 'CRUTCHFIELD', 'CRYAN', 'CULHANE', 'CULL', 'CULLEN', 'CULLINAN', 'CUMBERS', 'CUMMINGS', 'CUMMINS', 'CUNEEN', 'CUNLIFFE', 'CUNNINGHAM', 'CUPPLES', 'CURLEY', 'CURNON', 'CURRON', 'CURTIN', 'CURTIS', 'CURTON', 'CUSSACK', 'DABELSTIEN', 'DAINTON', 'DALAND', 'DALE', 'DALEY', 'DALLING', 'DALTON', 'DALY', 'DAMTON', 'DANES', 'DANIEL', 'DANIELS', 'DANZIGER', 'DARBY', 'DARE', 'DARK', 'DARMODY', 'DARNBOOM', 'DARRANT', 'DARWENT', 'DAVEY', 'DAVID', 'DAVIDSON', 'DAVIES', 'DAVIS', 'DAW', 'DAWAS', 'DAWLING', 'DEACON', 'DEAN', 'DEANE', 'DEARN', 'DEARY', 'DEASE', 'DEBNAN', 'DECKER', 'DEELEY', 'DEEN', 'DELAHUNTY', 'DELANEY', 'DEMPSEY', 'DEMPSTER', 'DENBY', 'DENCHANS', 'DENHAM', 'DENLAY', 'DENLEY', 'DENNANT', 'DENNIS', 'DENNISON', 'DENVIL', 'DERHET', 'DERMOTH', 'DESNEY', 'DEUTECHMANN', 'DEVERETT', 'DEVILLE', 'DEVLIN', 'DEXS', 'DIBBS', 'DICK', 'DICKENSON', 'DICKINSON', 'DICKS', 'DICKSON', 'DIGE', 'DIGNAN', 'DILLON', 'DIMOND', 'DINGNAN', 'DINGWALL', 'DIPLOCK', 'DIPROSE', 'DIVAN', 'DIVER', 'DOBRITZ', 'DOBSON', 'DODGE', 'DOIG', 'DOLAN', 'DOLPHIN', 'DOMIN', 'DONITHORNE', 'DONLAN', 'DONNELLY', 'DONNILLAN', 'DONOGHUE', 'DONOHOE', 'DONOHUE', 'DONOVAN', 'DONSWORTH', 'DOOLAN', 'DOOLIN', 'DOOMING', 'DORSE', 'DOUGLAS', 'DOWD', 'DOWDLE', 'DOWER', 'DOWLING', 'DOWN', 'DOWNDELYN', 'DOYLE', 'DRAPER', 'DREW', 'DRISCOLL', 'DRUMMOND', 'DRURY', 'DRYDEN', 'DRYSDALE', 'DUANA', 'DUASSA', 'DUCCI', 'DUDLEY', 'DUESBURY', 'DUFFY', 'DUGARD', 'DUGGAN', 'DUMLEARY', 'DUMMETT', 'DUMPHY', 'DUNBAR', 'DUNCAN', 'DUNDAS', 'DUNGWORTH', 'DUNLEAVY', 'DUNN', 'DUNNE', 'DUNNING', 'DUNPHY', 'DUNSTAN', 'DUNSTER', 'DUNSTON', 'DWYER', 'DYN', 'EADE', 'EAGAN', 'EAMES', 'EARLE', 'EARLEY', 'EARLY', 'EAST', 'EATWELL', 'ECKER', 'ECKSTEIN', 'EDGHILL', 'EDMONDSON', 'EDMUNDSON', 'EDWARDS', 'EGAN', 'EHRLICH', 'EICHBAUM', 'ELDRED', 'ELIAS', 'ELKINGTON', 'ELLERY', 'ELLIOT', 'ELLIOTT', 'ELLIS', 'ELSTONE', 'ELY', 'EMMONS', 'ENGLAND', 'ENGLISH', 'ENNIS', 'ENRIGHT', 'EPPS', 'ERALD', 'EREANDSON', 'ERICKSEN', 'ERISMANN', 'EVANS', 'EWALD', 'EYRE', 'FAGAN', 'FAGERETROM', 'FAHILY', 'FAIANI', 'FAIRLEY', 'FALCONER', 'FANELL', 'FANNING', 'FARAN', 'FARDON', 'FARGUSON', 'FARMER', 'FARR', 'FARRELL', 'FARRELLY', 'FARRILY', 'FEALY', 'FEATHER', 'FECHNAY', 'FEE', 'FEEHILLY', 'FEELEY', 'FEENEY', 'FEMHOC', 'FEMHOI', 'FENER', 'FENISON', 'FENNARTY', 'FERGNOON', 'FERGUSON', 'FERRIS', 'FESSEY', 'FIDDICK', 'FIELD', 'FIELDING', 'FIFE', 'FIGGINS', 'FILTER', 'FIM', 'FINCH', 'FINEGAN', 'FINEY', 'FINGER', 'FINK', 'FINLAY', 'FINLAYSON', 'FINN', 'FINNERMAN', 'FINNY', 'FINUCANE', 'FIRKIN', 'FISCHER', 'FISHER', 'FITZELL', 'FITZGERALD', 'FITZGIBBON', 'FITZHENRY', 'FITZMAURICE', 'FITZPATRICK', 'FITZSIMON', 'FLAHERTY', 'FLANAGAN', 'FLANNAGAN', 'FLANNERY', 'FLEMMING', 'FLETCHER', 'FLETT', 'FLINT', 'FLOOD', 'FLUCK', 'FLYNN', 'FODEN', 'FOLAN', 'FOLEY', 'FOLLAND', 'FORAN', 'FORBES', 'FORD', 'FORDE', 'FORDON', 'FOREMAN', 'FORREST', 'FOSSEY', 'FOSTER', 'FOULKAS', 'FOURNER', 'FOWLER', 'FOX', 'FOXTON', 'FOY', 'FRAME', 'FRAMPTON', 'FRANCHESE', 'FRANCIS', 'FRANDERS', 'FRANKER', 'FRANKLIN', 'FRANKS', 'FRANSEN', 'FRANZ', 'FRASER', 'FREDERICKSEN', 'FREDSHEVG', 'FREEMAN', 'FRENCH', 'FRIAR', 'FRIES', 'FRISKE', 'FROST', 'FROSTICK', 'FULLER', 'FULTON', 'FUNGE', 'FURY', 'GAFFNEY', 'GALACHER', 'GALELIEN', 'GALL', 'GALLAGHER', 'GALLOCHER', 'GALLOWAY', 'GALOIN', 'GALY', 'GAMBLE', 'GARDINER', 'GARDNER', 'GARLICK', 'GARRETT', 'GARROTT', 'GARVEY', 'GASCOYNE', 'GASOM', 'GATCHES', 'GATLEY', 'GAUDIN', 'GAVAGAN', 'GAVEKI', 'GAVEY', 'GAYNOR', 'GEDDES', 'GEE', 'GELLING', 'GEORGE', 'GERRARD', 'GERTZ', 'GIBBLING', 'GIBBON', 'GIBBONS', 'GIBBS', 'GIBSON', 'GICK', 'GIDDY', 'GILBERT', 'GILDED', 'GILES', 'GILFELLOW', 'GILFILLAN', 'GILFOYLE', 'GILL', 'GILLICK', 'GILLING', 'GILLMAN', 'GILLOM', 'GILLOOLY', 'GILMARTIN', 'GILMORE', 'GIRVAN', 'GITTONS', 'GLANCEY', 'GLANVILLE', 'GLASCOW', 'GLASGOW', 'GLASS', 'GLEESON', 'GLEGG', 'GLENDENING', 'GLENNON', 'GLORRE', 'GLOVER', 'GLUGAS', 'GLYNN', 'GLYNNEY', 'GODFREY', 'GODFRY', 'GODWIN', 'GOLDECHERT', 'GOLDY', 'GOLL', 'GOOD', 'GOODMAN', 'GOODWIN', 'GOOMLEY', 'GORDON', 'GORMAN', 'GORMANN', 'GOTHAM', 'GOUGH', 'GOULD', 'GOULDIN', 'GOULTEN', 'GOWAN', 'GOWLAND', 'GOYARTY', 'GRACE', 'GRADY', 'GRAHAM', 'GRAN', 'GRANT', 'GRAUCOCK', 'GRAVESON', 'GRAY', 'GRAYHAM', 'GREADY', 'GREANY', 'GREEN', 'GREENHEAD', 'GREENING', 'GREENWOOD', 'GREER', 'GREETT', 'GREGGS', 'GREGHEGSON', 'GREGORY', 'GREIG', 'GRENN', 'GRENNAN', 'GRIENE', 'GRIFFIN', 'GRIFFITH', 'GRIFFITHS', 'GRIFFY', 'GRILL', 'GRIMAN', 'GRIMES', 'GROGAN', 'GROOM', 'GROOMBRIDGE', 'GROSS', 'GROVE', 'GRUER', 'GRUN', 'GRUSDOHY', 'GUBBANPAUL', 'GUILDFOYLE', 'GUILFORD', 'GULLEFORD', 'GULLY', 'GUMBLE', 'GUMLEY', 'GUNDERSDATTER', 'GUNDERSEN', 'GUNN', 'GUNTHARDT', 'GUT', 'GUTHRIE', 'GUTTERIDGE', 'HABLIFF', 'HABSTLE', 'HADLINGTON', 'HAGAN', 'HAGSHOM', 'HAIN', 'HAINES', 'HAIRE', 'HAKES', 'HALEGOOD', 'HALFNIGHT', 'HALL', 'HALLEY', 'HALLITT', 'HALLMAN', 'HAMILTON', 'HAMMERSTIEN', 'HAMPTON', 'HANCOCK', 'HAND', 'HANDSEN', 'HANDY', 'HANLEY', 'HANLON', 'HANNA', 'HANNAFORD', 'HANNAH', 'HANNAN', 'HANNELY', 'HANNIGAN', 'HANRAHAN', 'HANSEN', 'HARCAS', 'HARDING', 'HARE', 'HARLEY', 'HARM', 'HARNEY', 'HAROLD', 'HARRIGAN', 'HARRINGTON', 'HARRIS', 'HARRISON', 'HARRISSON', 'HARROP', 'HART', 'HARTAGE', 'HARTE', 'HARTNETT', 'HARVEY', 'HASTINGS', 'HATTEN', 'HATTON', 'HAWKE', 'HAWKER', 'HAWKINS', 'HAWKSWORTH', 'HAY', 'HAYES', 'HAYNES', 'HAYWARD', 'HAZILL', 'HEAD', 'HEAHEN', 'HEALEY', 'HEALY', 'HEATES', 'HEATH', 'HEES', 'HEFFELS', 'HEFFERMAN', 'HEFFERNAN', 'HEFFI', 'HEHER', 'HEHIN', 'HEISE', 'HENDERSEN', 'HENDERSON', 'HENDRY', 'HENNELLY', 'HENNESSY', 'HENNEWOOD', 'HENNINGSEN', 'HENRICKS', 'HENRICKSON', 'HENRY', 'HENWOOD', 'HERBERTON', 'HERMANSEN', 'HERON', 'HERTZ', 'HESSIAN', 'HEUER', 'HEWETT', 'HEWITT', 'HEWLETT', 'HEWOHER', 'HIBBS', 'HIBBUT', 'HICKEY', 'HICKIN', 'HICKMAN', 'HIENRICK', 'HIGGINS', 'HIGGINSTONE', 'HIGHAM', 'HILL', 'HILLS', 'HILLWEBBER', 'HILTON', 'HINSHEY', 'HIRST', 'HITCHMAN', 'HOBBINS', 'HOBBS', 'HOCKRIDGE', 'HODDART', 'HODGE', 'HODGES', 'HODGKIN', 'HODGSON', 'HOELKSEN', 'HOFFLIR', 'HOFFMANN', 'HOGAN', 'HOGG', 'HOLBERG', 'HOLDEN', 'HOLE', 'HOLFORD', 'HOLLAND', 'HOLLISON', 'HOLLOHAN', 'HOLLOWAY', 'HOLME', 'HOLMES', 'HOLT', 'HOLZ', 'HOLZMANN', 'HOMANN', 'HOMPSON', 'HONER', 'HOOD', 'HOODLEY', 'HOOG', 'HOOK', 'HOOLAHAN', 'HOOPER', 'HOPKINS', 'HOPPI', 'HOPPINGS', 'HOPWOOD', 'HORAN', 'HORN', 'HORNBLOWER', 'HORNER', 'HORRELL', 'HORTON', 'HOSKING', 'HOSKINGS', 'HOSKINS', 'HOULEY', 'HOULIHAN', 'HOURSTON', 'HOUSE', 'HOUSTON', 'HOWARD', 'HOWARTH', 'HOWDEN', 'HOWELL', 'HOWELLS', 'HOWIE', 'HOWSON', 'HUBER', 'HUBNER', 'HUGHES', 'HULSE', 'HUNDTOFTE', 'HUNNINGHAM', 'HUNT', 'HUNTER', 'HURLE', 'HURLEY', 'HURLIN', 'HURNEY', 'HURT', 'HUSSEY', 'HUSTON', 'HUTCHINS', 'HUTCHINSON', 'HUTTON', 'HYDE', 'HYSLOP', 'IBBETSON', 'INCHES', 'IRELAND', 'IRVINE', 'IRWIN', 'ISAAC', 'ISBISTER ?', 'JACKMAN', 'JACKSON', 'JACKWITZ', 'JACOBSEN', 'JACOBSON', 'JAMES', 'JAMIESON', 'JARDINE', 'JARRNETT', 'JARVIS', 'JAUTFEN', 'JAY', 'JEBBATT', 'JEFFRY', 'JENKINS', 'JENNINGS', 'JENNS', 'JENSEN', 'JEPPSSON', 'JERCHOW', 'JEREMAN', 'JESSEN', 'JESSON', 'JOBISTER', 'JOHANNSEN', 'JOHANSEN', 'JOHN', 'JOHNS', 'JOHNSON', 'JOHNSTON', 'JOHNSTONE', 'JONES', 'JONSSON', 'JORDAN', 'JORGENSEN', 'JOSEPH', 'JOY', 'JOYCE', 'JSLER', 'JURGENS', 'JURGENSON', 'KAISS', 'KAMPRED', 'KASPER', 'KAVANAGH', 'KAY', 'KAYSER', 'KEAN', 'KEANE', 'KEANSLEY', 'KEARIE', 'KEARNE', 'KEARNEY', 'KEATES', 'KEATING', 'KEAY', 'KEEBLE', 'KEEGAN', 'KEENAN', 'KEENE', 'KEETON', 'KEHLS', 'KEHMS', 'KELCHER', 'KELEHER', 'KELLEHER', 'KELLEY', 'KELLIHER', 'KELLY', 'KELSON', 'KEMP', 'KEN', 'KENDALL', 'KENDRICK', 'KENEDY', 'KENNEDY', 'KENNINGTON', 'KENNY', 'KENT', 'KENWICK', 'KEOGH', 'KEOHAM', 'KERMODE', 'KERNI', 'KERNOHAN', 'KERR', 'KERSHAW', 'KERSTON', 'KEVNICK', 'KEY', 'KEYS', 'KIDD', 'KIELY', 'KILLEEN', 'KILLELIA', 'KILLMURRAY', 'KILPATRICK', 'KILROY', 'KING', 'KINGSTON', 'KINNAN', 'KINNANE', 'KINSELLA', 'KIRBY', 'KIRK', 'KIRKLAND', 'KISBEE', 'KISSANE', 'KITCHEN', 'KITCHINGS', 'KITTLEWALL', 'KITTLEWELL', 'KLAGES', 'KLAPPER', 'KLAPPOCK', 'KLAUSEN', 'KLIBBE', 'KLOPP', 'KLOSE', 'KNEE', 'KNIGHT', 'KNOWLES', 'KNUDSEN', 'KOHL', 'KRAMER', 'KREGSUBRINK', 'KROGER', 'KROGH', 'KRONHOLM', 'KRUGER', 'KRULE', 'KRUMBACK', 'KRUMMEN', 'KRUNBACK', 'KRUPMAN', 'KUHN', 'KULM', 'KUNKLE', 'KURZEIVEIL', 'KYLE', 'LACKY', 'LACY', 'LADEWIG', 'LAING', 'LAKE', 'LAMBERT', 'LAMOND', 'LAMONT', 'LANCASTER', 'LANCEY', 'LANDERS', 'LANDSCHAPP', 'LANE', 'LANGDON', 'LANGFORD', 'LANGLEY', 'LANHAHAN', 'LANYON', 'LAPPIN', 'LARCOMBE', 'LARKIN', 'LARMER', 'LARRIGAN', 'LARRUM', 'LARSEN', 'LAURIZEN', 'LAVELLE', 'LAWEYY', 'LAWLOR', 'LAWRENCE', 'LAWSON', 'LAWTON', 'LAY', 'LE FEUVRE', 'LEACH', 'LEAGUE', 'LEAHEY', 'LEAHY', 'LEAKE', 'LEAN', 'LECKEY', 'LEE', 'LEEDS', 'LEGGITT', 'LEHANE', 'LEIGHTON', 'LEINHARDT', 'LEISHMON', 'LEITH', 'LEMAINE', 'LEMARTY', 'LEMIN', 'LENNEY', 'LENNON', 'LENSI', 'LEONARD', 'LESCHKE', 'LESSAW', 'LETFORD', 'LEVINE', 'LEWAS', 'LEWIN', 'LEWIS', 'LEYDON', 'LEYSHAW', 'LIDDELL', 'LIEBAN', 'LIGHTFOOT', 'LILLEY', 'LINDSKE', 'LINEHAM', 'LINEHAN', 'LINGARD', 'LINHANE', 'LINNANE', 'LINTORN', 'LISTER', 'LISTON', 'LITTLE', 'LITTLEFAIR', 'LITTLEWOOD', 'LIVINGSTONE', 'LLEWELLYN', 'LLOYD', 'LLOYDE', 'LOCKYER', 'LOGAN', 'LOMAS', 'LONDER', 'LONERGAN', 'LONG', 'LONGDON', 'LORRIGAN', 'LOUGHNAN', 'LOUGHRAN', 'LOUGHRANE', 'LOUGHRY', 'LOUGHTEN', 'LOUTH', 'LOVE', 'LOVELL', 'LOVETT', 'LOWRY', 'LOWTHA', 'LOWTHER', 'LUCAS', 'LUDERS', 'LUGG', 'LUMBERT', 'LUNN', 'LUPTON', 'LUTHERALL', 'LYDEN', 'LYDON', 'LYLE', 'LYNCH', 'LYND', 'LYOD', 'LYON', 'LYONS', 'LYSIN', 'LYTHALL', 'MACCARTHY', 'MACFARLANE', 'MACKELMANN', 'MACKENZIE', 'MACKEY', 'MACKIE', 'MACKLIN', 'MACKRELL', 'MADDIN', 'MADDOCKS', 'MADSEN', 'MAGNIE', 'MAGRATH', 'MAGUIRE', 'MAHER', 'MAHN', 'MAHON', 'MAHONEY', 'MAISHMAN', 'MAKE', 'MALAHY', 'MALCOLM', 'MALI', 'MALINGS', 'MALLIN', 'MALLISON', 'MALONE', 'MALONEY', 'MALPAS', 'MALVA', 'MAM', 'MANAHAN', 'MANN', 'MANNALL', 'MANNERS', 'MANNING', 'MANNION', 'MARA', 'MARGERISSON', 'MARHSCHINSKY', 'MARK', 'MARKEY', 'MARKS', 'MARLOW', 'MARRINAN', 'MARSHALL', 'MARTAGE', 'MARTIN', 'MASON', 'MASTAGE', 'MASTERS', 'MASTERTON', 'MATHA', 'MATHER', 'MATHEWS', 'MATHSCHINSKY', 'MATHUSON', 'MATON', 'MATSON', 'MATTHEW', 'MATTHEWS', 'MATTON', 'MAUNDELL', 'MAUNDRELL', 'MAUNDULL', 'MAUNSELL', 'MAUSKETT', 'MAWEENEY', 'MAXWELL', 'MAY', 'MAYER', 'MAYFIELD', 'MEADE', 'MEADS', 'MEAGHER', 'MEANEY', 'MEARA', 'MEDDUK', 'MEDLEY', 'MEE', 'MEENAGHAN', 'MEHSE', 'MEIER', 'MEILKE', 'MELIA', 'MELKSHAM', 'MELODY', 'MELROSE', 'MELSDELTER', 'MEM', 'MEMENY', 'MEREDITH', 'MERSER', 'MESSING', 'METCALF', 'METZLOFF', 'MEWACK', 'MEYER', 'MEYTS', 'MICKKELSON', 'MIDDLETON', 'MIKKELSEN', 'MILEHELL', 'MILES', 'MILEU', 'MILL', 'MILLAR', 'MILLARD', 'MILLER', 'MILLS', 'MILNE', 'MINCASTER', 'MINEHAM', 'MINES', 'MINIHAN', 'MINOGUE', 'MITCHELL', 'MITCHINSON', 'MIX', 'MOCKFORD', 'MOFFATT', 'MOGENSEN', 'MOHONEY', 'MOLLISON', 'MOLLOY', 'MOLLYNEUX', 'MOLONEY', 'MOLOUGHNEY', 'MOLTON', 'MONI', 'MONKEN', 'MONROW', 'MONTGOMERY', 'MOONEY', 'MOORE', 'MORAN', 'MORCONSEN', 'MORGAN', 'MORIARITY', 'MORIARTY', 'MORINS', 'MORISH', 'MORLEY', 'MORNEY', 'MORNSEN', 'MOROSKE', 'MORREL', 'MORRELL', 'MORRINAN', 'MORRIS', 'MORRISEY', 'MORRISH', 'MORRISON', 'MORRISSEY', 'MORSUS', 'MORTHEATE', 'MOSELEY', 'MOSLEY', 'MOSS', 'MOULE', 'MOUNTFORD', 'MOUSE', 'MOXEY', 'MOYINHAN', 'MOYSE', 'MUCAHY', 'MUDDLEBROOK', 'MUIR', 'MUIRHEAD', 'MULCAHY', 'MULDOON', 'MULER', 'MULLER', 'MULLINS', 'MULROONEY', 'MUMFORD', 'MUNAN', 'MUNRO', 'MUNROW', 'MURCHIE', 'MURCHINN', 'MURDOCK', 'MURISON', 'MURO', 'MURPHY', 'MURRAY', 'MURRY', 'MURTAGE', 'MYER', 'MYERS', 'MYLES', 'MacGURRIGLE', 'McALLISTER', 'McALSER', 'McARA', 'McAULIFFE', 'McAVOY', 'McBAIN', 'McBRIDE', 'McCABE', 'McCAFFREY', 'McCALL', 'McCALLUM', 'McCAMBRIDGE', 'McCANE', 'McCANN', 'McCARRON', 'McCARTHY', 'McCAULEY', 'McCAWLAY', 'McCLASKEY', 'McCLEAD', 'McCLOY', 'McCLURE', 'McCOAL', 'McCOLL', 'McCOMBE', 'McCORMACK', 'McCORMICK', 'McCOY', 'McCRORY', 'McCUBBEN', 'McCUE', 'McCURRAN', 'McDONAGH', 'McDONALD', 'McDONNELL', 'McDORRAGH', 'McDOUGALL', 'McDUWELL', 'McELGAN', 'McELGON', 'McENVY', 'McEWIN', 'McFARLANE', 'McFLINN', 'McGANN', 'McGARRIGLE', 'McGARTH', 'McGEE', 'McGEORNEY', 'McGHEE', 'McGINLEY', 'McGLICUDDY', 'McGLINN', 'McGLOINE', 'McGOLRICK', 'McGORIN', 'McGORRAN', 'McGOVERN', 'McGOWAN', 'McGRATH', 'McGREGOR', 'McGUIGAN', 'McGUINESS', 'McGUIRE', 'McGUIRK', 'McHAB', 'McHUGH', 'McILWEEN', 'McINDAL', 'McINDOE', 'McINERING', 'McINERNAY', 'McINERNEY', 'McINERY', 'McINTOSH', 'McINTYRE', 'McKAY', 'McKEAN', 'McKECKNIE', 'McKEDDIE', 'McKEE', 'McKELCHIE', 'McKENZIE', 'McKEOGH', 'McKINNON', 'McKURNAN', 'McLAUGHLIN', 'McLEAN', 'McLELLAND', 'McLENNAN', 'McLEOD', 'McLOUGHLIN', 'McMAHON', 'McMANUS', 'McMILLAN', 'McMILLIGAN', 'McMINAMIN', 'McMONAGH', 'McNAH', 'McNALLY', 'McNAMARA', 'McNAUGHT', 'McNEILL', 'McNEILLE', 'McNIELL', 'McNULTY', 'McPHAIL', 'McPHEE', 'McQUALLY', 'McQUORY', 'McSHEA', 'McSORBY', 'McVETTER', 'McWALTER', 'NADONGA', 'NAGEL', 'NAGLE', 'NALOW', 'NANKERVIS', 'NANKEVILLE', 'NAUGHTON', 'NAYLOR', 'NEAL', 'NEALON', 'NEAT', 'NEBI', 'NEEDHAM', 'NEHLS', 'NEIDERNAM', 'NEILSON', 'NELSON', 'NETMER', 'NEUMAN', 'NEVILLE', 'NEVIN', 'NEVINE', 'NEWBURN', 'NEWILL', 'NEWITT', 'NEWMAN', 'NEWTON', 'NICHOLAS', 'NICHOLLS', 'NICHOLSON', 'NICOL', 'NIECHIMEKI', 'NIEL', 'NIELSDOTTER', 'NIELSEN', 'NIELSON', 'NISBETT', 'NISCTIWSKI', 'NIXON', 'NOAKA', 'NOBLE', 'NOLAN', 'NORCLIFFE', 'NORMAN', 'NORRIS', 'NORTON', 'NOSOTTI', 'NOTH', 'NOTT', 'NUGENT', 'NUTE', 'NUTTING', 'O BREEN', 'O BRIEN', 'O BRYAN', 'O CALLAGHAN', 'O CONNELL', 'O CONNER', 'O CONNOR', 'O DEA', 'O DONNEL', 'O DONNELL', 'O DWYER', 'O GORMAN', 'O GRADY', 'O HAGAN', 'O KEEFE', 'O LEARY', 'O LOUGHLEN', 'O LOUGHLIN', 'O MALLEY', 'O MULLAM', 'O NEIL', 'O NIEL', 'O REILLY', 'O ROURKE', 'O SHAUGHNESSY', 'O TOOLE', 'OAKES', 'OAKLEY', 'OATEN', 'OCCHS', 'OELSEN', 'OELSNER', 'OGDEN', 'OHLSEN', 'OLCSDOTTER', 'OLDFIELD', 'OLIVER', 'OLSEN', 'ORCHARD', 'ORMOND', 'OSBORN', 'OSBORNE', 'OTT', 'OUGHTON', 'OULD', 'OWEN', 'OXMAN', 'PAASKE', 'PACCELLI', 'PACKHAM', 'PALADINNI', 'PALLESTIN', 'PALMER', 'PAMPILLANI', 'PARBURRY', 'PARBURY', 'PARDECK', 'PARDON', 'PARK', 'PARKER', 'PARKIN', 'PARKINS', 'PARKS', 'PARRY', 'PARSON', 'PARSONS', 'PARTON', 'PASCOE', 'PATERSON', 'PATRELL', 'PATRICK', 'PATTERSON', 'PATTINSON', 'PATTON', 'PAUL', 'PAULSEN', 'PAVES', 'PAYNE', 'PEAHERS', 'PEARCE', 'PEARN', 'PEARSON', 'PEATERS', 'PEDERSEN', 'PEED', 'PEGG', 'PEGLER', 'PEHRSON', 'PEMBROKE', 'PENDERGAST', 'PENGELLY', 'PENGELY', 'PENMAN', 'PENNER', 'PENNINGTON', 'PENSON', 'PERCY', 'PERKINS', 'PERREN', 'PERRINS', 'PERROTT', 'PERRY', 'PERSON', 'PERSSE', 'PETER', 'PETERS', 'PETERSEN', 'PETRIE', 'PETTS', 'PFISTER', 'PHILIPS', 'PHILLIP', 'PHILLIPS', 'PICKERING', 'PIDGEON', 'PIKE', 'PILKINGTON', 'PILLAGE', 'PILLING', 'PINCHIN', 'PIPER', 'PISHAK', 'PITT', 'PLANKA', 'PLATT', 'PLEACE', 'PLISTED', 'PLUCKNETT', 'PLUMMER', 'PLUNKETT', 'PODD', 'POINTER', 'POLLARD', 'POLYNESIAN', 'POLZIN', 'POMEROY', 'POOL', 'POOLE', 'PORTER', 'POTHEWAY', 'POTTER', 'POULSEN', 'POULTNEY', 'POWE', 'POWELL', 'POWER', 'POYSEN', 'PRANGLEY', 'PRATT', 'PRENSO', 'PRESTON', 'PRICE', 'PRIDDY', 'PRIEST', 'PRIESTLEY', 'PRIOR', 'PRITCHARD', 'PRITCHETT', 'PROCTOR', 'PROSDOCINI', 'PROUT', 'PRTICHARD', 'PRYCE', 'PRYER', 'PUDDLE', 'PUGH', 'PURTELL', 'PURVIS', 'PYM', 'PYNE', 'QUANE', 'QUICK', 'QUIGLEY', 'QUILTY', 'QUIN', 'QUINAN', 'QUINE', 'QUINLAN', 'QUINLIVAN', 'QUINN', 'QUIRKE', 'QURALAN', 'RADKE', 'RAE', 'RAECKE', 'RAFERTY', 'RAFTER', 'RAGGITT', 'RAGIONEVI', 'RAIL', 'RAMPTON', 'RAMSAY', 'RAMSEY', 'RANDON', 'RANGER', 'RANKIN', 'RANY', 'RASMUSSEN', 'RAVENSCROFT', 'RAVERTY', 'RAWLINGS', 'RAYNES', 'RAYNOR', 'READ', 'REARDON', 'REBHOBZ', 'RECKOW', 'REDDY', 'REDFORD', 'REECE', 'REED', 'REES', 'REFFICKE', 'REGAN', 'REID', 'REILLY', 'REIMERS', 'REINKE', 'RENDALL', 'RERSGAARD', 'RETTSCHLAG', 'REYNOLDS', 'RIALL', 'RICE', 'RICHARD', 'RICHARDS', 'RICHARDSON', 'RICHMOND', 'RICKETTS', 'RIELD', 'RIELLY', 'RILEY', 'RINGROSE', 'RINNY', 'RIORDAN', 'RIPLEY', 'RITCHIE', 'ROBBINS', 'ROBERTS', 'ROBERTSON', 'ROBINSON', 'ROBSON', 'ROCHE', 'RODDAM', 'RODERICK', 'RODGERS', 'ROGERS', 'ROHDE', 'RONAN', 'ROOKSLEY', 'ROONEY', 'ROSCOLD', 'ROSE', 'ROSENLAND', 'ROSENLUND', 'ROSS', 'ROSSBUIN', 'ROSSBUN', 'ROSSER', 'ROTH', 'ROUND', 'ROURKE', 'ROUSELL', 'ROUTE', 'ROVERY', 'ROWBOTHAM', 'ROWD', 'ROWE', 'ROWLAND', 'ROWLES', 'ROWLEY', 'ROYAN', 'ROYE', 'RUDD', 'RUDGE', 'RUSKE', 'RUSMUSSEN', 'RUSSEL', 'RUSSELL', 'RUTTER', 'RYAN', 'RYLAND', 'RYNNE', 'SALMON', 'SALTER', 'SALVADORE', 'SAMPSON', 'SAMUEL', 'SANDERS', 'SANDERSON', 'SANDS', 'SANISBURY', 'SATINLEY', 'SAUGNESSY', 'SAUNDERS', 'SAVAGE', 'SAXBY', 'SAYERS', 'SCAMMEL', 'SCAMMELL', 'SCANLAN', 'SCANLON', 'SCANNELL', 'SCARLET', 'SCARLETT', 'SCASE', 'SCHAFFERIGNS', 'SCHEFFLER', 'SCHEIKOWEKI', 'SCHENK', 'SCHIBOOWSKIE', 'SCHIBROWSKI', 'SCHION', 'SCHIPPLIK', 'SCHLACK', 'SCHMARK', 'SCHMIDT', 'SCHMITZ', 'SCHNIEDWIND', 'SCHOFIELD', 'SCHONEBUK', 'SCHONROCK', 'SCHONSOCK', 'SCHOON', 'SCHOTT', 'SCHRANK', 'SCHROEDER', 'SCHULZ', 'SCHURER', 'SCHUTE', 'SCHWERSO', 'SCORCH', 'SCOTT', 'SCROGGS', 'SCULLY', 'SEALES', 'SEEGAR', 'SEETAR', 'SEIFERT', 'SELLER', 'SELLEY', 'SEMAL', 'SEWARD', 'SEXTON', 'SHACK', 'SHANAHAN', 'SHANNAHAN', 'SHARP', 'SHAW', 'SHEA', 'SHEADY', 'SHEAH', 'SHEARER', 'SHEARS', 'SHEBELLING', 'SHEEHAN', 'SHEEHY', 'SHEEN', 'SHEERAN', 'SHENRAHAN', 'SHEPHARD', 'SHEPPARD', 'SHEPPIN', 'SHERIDAN', 'SHERIDON', 'SHINE', 'SHIPPARD', 'SHOMMCOCK', 'SHORTAL', 'SHORTALL', 'SHORTER', 'SIERRRERT', 'SILVER', 'SILVESTER', 'SILWOOD', 'SIM', 'SIMINSON', 'SIMPSON', 'SIMS', 'SINGLETON', 'SISNEY', 'SISSETT', 'SISSY', 'SKACFE', 'SKAN', 'SKARFE', 'SKERRINGTON', 'SKIDMORE', 'SKYNNE', 'SLANSKY', 'SLATEY', 'SLATTERY', 'SLAUGHTER', 'SLEAN', 'SLEATH', 'SLOCUMB', 'SMACK', 'SMARK', 'SMART', 'SMELLIE', 'SMILLIE', 'SMITH', 'SMITHERS', 'SMURTHWAITE', 'SMYTH', 'SMYTHE', 'SNAPE', 'SNOOK', 'SNOW', 'SOMERVILLE', 'SOMMERFELD', 'SON', 'SORENSEN', 'SORENSON', 'SOSHMAN', 'SOUTHALL', 'SPAIN', 'SPEAN', 'SPEAR', 'SPEDDING', 'SPERLING', 'SPILLER', 'SPINNER', 'SPIRES', 'SPOMAN', 'SPRAGUE', 'SPRATT', 'SPURDLE', 'ST JOHN', 'STACEY', 'STACK', 'STANCLIFFE', 'STANITON', 'STANLEY', 'STANTON', 'STANWAY', 'STAPLER', 'STAPLETON', 'STEELE', 'STEHR', 'STEINER', 'STEPHEN', 'STEPHENS', 'STEPHENSEN', 'STEPHENSON', 'STERNSON', 'STERZING', 'STEVENS', 'STEVENSON', 'STEWARD', 'STEWART', 'STIBBARDS', 'STILES', 'STILGOE', 'STOCKALL', 'STOJHR', 'STOKES', 'STONE', 'STOUT', 'STRACHAN', 'STRAIN', 'STRAMACH', 'STRAND', 'STREAM', 'STREHLAN', 'STRICKLAND', 'STUART', 'STUBBINGTON', 'STUBBS', 'STUCKLEY', 'STUR', 'STUTTER', 'SUINAMON', 'SULLIVAN', 'SUMAKE', 'SUMMERS', 'SUMMONS', 'SUNDELL', 'SURMAN', 'SUTER', 'SUTHERLAND', 'SUTTON', 'SVENDSEN', 'SWAIN', 'SWAN', 'SWEENEY', 'SWEOLLEN', 'SWIFT', 'SYKES', 'SYMONS', 'TACKER', 'TADD', 'TADT', 'TAEBKE', 'TAFFE', 'TAFT', 'TAIT', 'TALBOT', 'TALTY', 'TARAHAN', 'TARRANT', 'TARSENE', 'TASLING', 'TASMER', 'TATTERSALL', 'TAVNUR', 'TAYLOR', 'TEASDALE', 'TEASE', 'TEDFORD', 'TEDISCOMBE', 'TEEVOR', 'TELFORD', 'TELLERS', 'TEMPLER', 'TENCH', 'TEOKELL', 'TERRY', 'THAKE', 'THAM', 'THAMBOA', 'THATHO', 'THELEFSEN', 'THESA', 'THIMARACK', 'THOMAS', 'THOMPSON', 'THOMSEN', 'THORN', 'THORPE', 'THOUKI', 'THUSKELDSEN', 'THWAITES', 'TIBBEY', 'TICHINOR', 'TIERNEY', 'TIMMY', 'TINKER', 'TIPPER', 'TIPPING', 'TOBIN', 'TOLLERTON', 'TOMKINSON', 'TOMLINES', 'TONKINSON', 'TOOL', 'TOOLE', 'TOOVEY', 'TORGESEN', 'TORNBERG', 'TOUGH', 'TOVEY', 'TOWELL', 'TOWHY', 'TOWNSEND', 'TOY', 'TRACEY', 'TRAISE', 'TRASK', 'TRAVERS', 'TREACEY', 'TREACY', 'TREASURE', 'TREGONING', 'TREHERNE', 'TREICHEL', 'TRELOAR', 'TREVANKIS', 'TREVATHAN', 'TREVATHEN', 'TREVOR', 'TRIMBLE', 'TRITT', 'TROHLOFF', 'TROTT', 'TROUGHTON', 'TROWBRIDGE', 'TRUDGEON', 'TUCKER', 'TUICKNELL', 'TUNKEY', 'TUNY', 'TURCHEK', 'TURNER', 'TURUN', 'TUTICCI', 'TWEDDLE', 'TWEED', 'TWEEDALE', 'TWOHY', 'TWOMEY', 'TWOMY', 'TYDINGS', 'TYE', 'TYLER', 'TYMONS', 'TYSON', 'UBANK', 'ULETT', 'UNGOOD', 'UNNAMED', 'UPTON', 'VALLEHY', 'VALLIER', 'VANDERWOLF', 'VANDERY', 'VANE', 'VARLEY', 'VAUGH', 'VAUGHAN', 'VAYSEY', 'VEAL', 'VEDIH', 'VEELONG', 'VEITH', 'VELA', 'VERNON', 'VERONI', 'VEST', 'VEUILLE', 'VEY', 'VICKERY', 'VILE', 'VIMNICONSTIL', 'VINCENS', 'VINNICONSTIL', 'VOLKEL', 'VOZZI', 'VULCH', 'WADDELL', 'WAGNER', 'WAITE', 'WAKELY', 'WALDEN', 'WALDRON', 'WALKER', 'WALL', 'WALLACE', 'WALLER', 'WALLIS', 'WALSH', 'WALTERS', 'WALTHER', 'WALTON', 'WANZEICH', 'WARD', 'WARDROP', 'WARE', 'WARKS', 'WARNE', 'WARNER', 'WARNES', 'WARNOCK', 'WARREN', 'WARSNA', 'WASON', 'WATCHMAN', 'WATERFIELD', 'WATERS', 'WATKIN', 'WATKINS', 'WATSON', 'WATT', 'WATTIE', 'WAULDRON', 'WAYARDT', 'WEARING', 'WEATHERHEAD', 'WEBB', 'WEBSTER', 'WEDLOCK', 'WEEKS', 'WEIFER', 'WEINEGRUN', 'WEIR', 'WEISS', 'WELBOURN', 'WELLINGTON', 'WELLS', 'WELWOOD', 'WERNER', 'WESCHEL', 'WEST', 'WETHERALL', 'WEYNES', 'WHEELDON', 'WHEELER', 'WHELAN', 'WHELAW', 'WHELLEN', 'WHEWAY', 'WHILIMORE', 'WHITAKER', 'WHITBOURNE', 'WHITE', 'WHITEHEAD', 'WHITEHORN', 'WHITELAW', 'WHITING', 'WHITTAKER', 'WHITTINGHAM', 'WHITTLE', 'WHYTE', 'WICKHAM', 'WIDLOCK', 'WIDMANN', 'WIEBACK', 'WIFERLING', 'WILCE', 'WILCOX', 'WILDING', 'WILDSMITTE', 'WILE', 'WILKINSON', 'WILLBRAM', 'WILLET', 'WILLETS', 'WILLGRESS', 'WILLIAMS', 'WILLISS', 'WILLOUGHBY', 'WILLS', 'WILMOT', 'WILSON', 'WILTON', 'WIMS', 'WINNIE', 'WINTER', 'WINTOUR', 'WISMER', 'WIX', 'WOLFE', 'WONSON', 'WOOD', 'WOODCOCK', 'WOODHOUSE', 'WOODLEY', 'WOODROCK', 'WOODS', 'WOODWARD', 'WOOLCOCK', 'WOOLEY', 'WORGAN', 'WORKMAN', 'WORLEY', 'WORMACOTT', 'WORNINGTON', 'WORRALL', 'WORTHMAN', 'WREMBECK', 'WRIGHT', 'WRINGE', 'WULFF', 'WYATT', 'WYLIE', 'YADA', 'YALLA', 'YARNTON', 'YEADON', 'YEALES', 'YEOMANS', 'YOELMANN', 'YOUNG', 'YOURK', 'YOUSTER', 'YUILE', 'ZAHMEL', 'ZALLINGER', 'ZANDER', 'ZEIMER', 'ZEISSLER', 'ZIMMERLI', 'wAROKE']</t>
         </is>
@@ -557,7 +565,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -620,12 +628,15 @@
         <v>498</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>42537</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>1159</v>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>['1 Infant of Henry', '1 Infant of Isaac', '1 Infant of John', '1 Infant of Mr', '1 Infant of Walter', '1 child', '1 child of Mr', '1 female Infant of Henry', '1 female child of Alfred', '1 female child of Jno', '1 female child of Joseph', '1 female child of Matt', '1 female child of Mr', '1 female child of Walter', '1 female child of William', '1 female child of William S', '1 male child of Geo F', '1 male child of Henry', '1 male child of Jno', '1 male child of John', '1 male child of Joseph', '1 male child of Mr', '1 male child of Pat', '1 male child of Sydney', '1 male child of William', '1 male child of William S', '2 children of Mr', '2 female child of Mr', '2 female children of Chas', '2 female children of David', '2 female children of Eli', '2 female children of Mr', '2 female children of William', '2 male child of Mr', '2 male children of David', '2 male children of Eli', '2 male children of John', '2 male children of Joseph', '2 male children of Mr', '2 male children of William', '3 female children of Mr', '3 male children of John', '3 male children of William', '67', 'A', 'Aaron', 'Abalvin', 'Abrah', 'Abraham', 'Acheson', 'Ada', 'Adam', 'Adelaide', 'Adolf', 'Adolph', 'Adolphe', 'Adolphine', 'Adolpho', 'Aeneas', 'Agathe', 'Agnes', 'Agnes G', 'Agnes Inf', 'Agustine', 'Alaide', 'Albert', 'Albert Inf', 'Albertine', 'Aldoph', 'Alena', 'Alex', 'Alex S', 'Alex.', 'Alexander', 'Alexandr Inf', 'Alexdr', 'Alexr', 'Alexr C', 'Alexr Inf', 'Alf', 'Alfd', 'Alfred', 'Alfred C', 'Alfred J', 'Alice', 'Alice E', 'Alice Inf', 'Alice M', 'Allen', 'Allen C Inf', 'Allice', 'Alphons', 'Amadi', 'Amalie', 'Amante', 'Ambrose', 'Amelia', 'Amelia M', 'Amie R', 'Amy', 'Anactatia', 'Anastatia', 'Anders', 'Anders A', 'Anders P', 'Anders Peter', 'Andrea', 'Andreas', 'Andrew', 'Andrina', 'Andrine O', 'Ane', 'Ane Maria', 'Ann', 'Ann B', 'Ann Dorth', 'Ann Maria', 'Anna', 'Anna L', 'Anna M', 'Anna Maria', 'Anne', 'Anne Beata', 'Anne E', 'Anne Kirstine', 'Anner', 'Annes', 'Annetta', 'Annetti', 'Annice', 'Annie', 'Annie E', 'Annie G', 'Annie H', 'Annie Inf', 'Annie J', 'Annisina', 'Anthan', 'Anthony', 'Anton', 'Antonio', 'Archd', 'Archibald', 'Archie', 'Arnold', 'Arthur', 'Arthur Inf', 'Asenath', 'Ashley', 'Attina', 'August', 'Augusta', 'Augusta R', 'Auguste', 'Augusti', 'Augustus', 'Austin', 'Avma', 'Axel', 'Axel Hollg', 'Balfour', 'Balthsheba', 'Banghan', 'Barbara', 'Bartholomew', 'Bartley', 'Batram', 'Beatrice', 'Beatrice Inf', 'Bella', 'Belzebub', 'Ben', 'Bengt A', 'Benj', 'Benjamin', 'Benjamine', 'Benjm', 'Benjn', 'Bennett', 'Bernard', 'Bernhard', 'Berta', 'Bertha', 'Berthildi', 'Bessie', 'Bessie Inf', 'Bessy', 'Betsey', 'Betsy', 'Billy', 'Blanche', 'Boatswain', 'Bob', 'Booth', 'Brian', 'Bridget', 'Bridget Inf', 'Bridgt', 'Britter', 'Bruno', 'Bryan', 'Bryant', 'Burton', 'C F W', 'C Wm', 'Canehetta', 'Captain', 'Captain George', 'Carl', 'Carl A', 'Carl Aug', 'Carl Auguste', 'Carl C', 'Carl F', 'Carl F W', 'Carl G', 'Carl J K', 'Carl T', 'Caroline', 'Cassandra', 'Cassie', 'Catane', 'Cath', 'Catharina', 'Catharine', 'Cathe', 'Catherine', 'Catherine E', 'Catherine Inf', 'Cathn', 'Cathne', 'Celia', 'Charity', 'Charles', 'Charles A', 'Charles Inf', 'Charles W', 'Charlie', 'Charlotte', 'Charlotte Inf', 'Chas', 'Chas E', 'Chas G', 'Chas W', 'Chistr', 'Chris', 'Christ', 'Christ M', 'Christen', 'Christen C', 'Christian', 'Christian N B', 'Christian P', 'Christiana', 'Christina', 'Christine', 'Christoper', 'Christopher', 'Christr', 'Clara', 'Clara J', 'Claretta', 'Claudius', 'Claus', 'Cockey', 'Colin', 'Come back', 'Constance Inf', 'Cornelias', 'Cornelius', 'Crawford Inf', 'Dan', 'Daniel', 'Daniel T P', 'Daniel W', 'Danl', 'David', 'David Henry', 'David Inf', 'Deborah', 'Delia', 'Delia Inf', 'Denah', 'Denis', 'Dennis', 'Dinah', 'Doctor', 'Domnick', 'Donald', 'Dora', 'Dora Inf', 'Dorcas', 'Dormer', 'Douglas', 'Duncan', 'E A', 'E J', 'E. Ann', 'Ebenezer', 'Ed', 'Edd', 'Edgar', 'Edith', 'Edmond', 'Edmund', 'Edward', 'Edward Inf', 'Edwardine', 'Edwd', 'Edwd A', 'Edwin', 'Eleanor', 'Elen', 'Eleonore', 'Eli', 'Elijah', 'Elise', 'Elise Soph', 'Elisha', 'Eliz', 'Eliza', 'Eliza A', 'Eliza Inf', 'Elizabeth', 'Elizabeth A', 'Elizabeth Inf', 'Elizabetta', 'Elizah', 'Elizbth', 'Elizh', 'Elizt', 'Elizth', 'Elizth A', 'Elizth J', 'Elizth L', 'Elizth M', 'Elizth T', 'Ellen', 'Ellen E', 'Ellen Inf', 'Ellen Sophie', 'Ellie', 'Ellonore', 'Elsa', 'Elsabe', 'Else', 'Ely', 'Emil', 'Emilia', 'Emilie', 'Emily', 'Emily E', 'Emma', 'Emma Inf', 'Emmanuel', 'Enos', 'Erasmus', 'Ernest', 'Ernest A', 'Ernestine', 'Ernst M', 'Erwin', 'Essex', 'Esther', 'Ethel Inf', 'Eucema', 'Eugen', 'Eugene', 'Eugenie A', 'Euphemia', 'Europe', 'Euvil', 'Eva', 'Evan', 'Evelyn', 'Evey', 'F', 'F C A', 'F Mr', 'F W', 'Falconer', 'Fannie', 'Fanny', 'Felix', 'Ferdinand', 'Ferdinand L', 'Ferdinandaie', 'Filippo', 'Fk C', 'Fk W', 'Florence', 'Florence Inf', 'Flourie', 'Foster', 'Frances', 'Frances A', 'Frances H', 'Francis', 'Francis W', 'Frandsine', 'Frank', 'Franny', 'Franz', 'Franz D G', 'Fraudsine', 'Fred', 'Fred A', 'Fred Aug', 'Fred Hy', 'Fred W', 'Frederick', 'Frederick Inf', 'Fredericke', 'Frederika', 'Frederike', 'Fredk', 'Fredk Henry', 'Fredrich', 'Fredrick', 'Fredrika', 'Fredrike', 'Fredz', 'Friederic', 'Friedr', 'Friedrich', 'Friedrick', 'Fritz', 'Fritz Carl', 'Fritz I W', 'G', 'G F', 'G R', 'Gabriel', 'Gardu', 'Gemima', 'Geo', 'Geo A', 'Geo F', 'Geo H', 'Geo Inf', 'Geo J', 'Geo T', 'Geo W', 'Georg', 'George', 'George A', 'George E', 'George Edwd', 'George F', 'George Gustave', 'George H', 'George Inf', 'George M', 'George R', 'George W', 'Georgie', 'Georgina', 'Georgine', 'Geovanni', 'Gerald', 'Gerhud', 'Gertrude', 'Geruda', 'Gibson', 'Gilcamina', 'Ginnini', 'Giovana', 'Giovanni', 'Gorin', 'Gorven', 'Gothbert', 'Gottfr', 'Gottfried', 'Gottlieb', 'Grace', 'Guiseppe', 'Guiseppi', 'Gunne', 'Gustav', 'Gustave', 'H', 'H M M', 'Hanh', 'Hanna L', 'Hannah', 'Hannah F', 'Hannah Inf', 'Hanora', 'Hans', 'Hans A', 'Hans F', 'Hans J', 'Hans J K', 'Hans P', 'Hans Peter', 'Hansine', 'Harold', 'Harriet', 'Harriet D', 'Harriett', 'Harrne', 'Harry', 'Hartley', 'Harvey', 'Hattie', 'Hatton', 'Haus', 'Heinr', 'Heinrich', 'Heinrick', 'Heirman', 'Helen', 'Helen M', 'Helena', 'Helene', 'Hellen', 'Henl', 'Henrich', 'Henrietta', 'Henriette', 'Henry', 'Henry C A', 'Henry G', 'Henry Inf', 'Henry J', 'Henry R', 'Herbert', 'Herbert H', 'Herm', 'Herm Aug', 'Herman', 'Herman V', 'Hermann', 'Hermine', 'Hermoine', 'Hester', 'Hienrich', 'Hilda', 'Hiram', 'Honor', 'Honora', 'Honorah', 'Honoria', 'Horatio', 'Howard', 'Hubert', 'Hugh', 'Hughina', 'Hy', 'I', 'I W', 'Ida', 'Infant of John', 'Infant of Mr', 'Infant of William', 'Ingred', 'Isa', 'Isaac', 'Isabella', 'Isabella Inf', 'Isak', 'Issabele', 'Issabella', 'J', 'J G', 'J J', 'J K', 'Jabez', 'Jacob', 'Jacob C F', 'Jacob C K', 'Jacob F', 'Jacob P', 'Jacobine W', 'James', 'James A', 'James C', 'James E', 'James F', 'James H', 'James Inf', 'James N', 'James W I See also John', 'Jane', 'Jane A', 'Jane H', 'Jane Inf', 'Janet', 'Jannett', 'Jans', 'Jas', 'Jasper', 'Jeanette', 'Jemima', 'Jemmy', 'Jennette', 'Jennie', 'Jens', 'Jens C', 'Jens Chr', 'Jens Christ', 'Jens Peter', 'Jephthah', 'Jeppeine', 'Jeremiah', 'Jeremiah Inf', 'Jesse', 'Jesse T', 'Jesse Y', 'Jessie', 'Jeus', 'Jinney', 'Jng Marie', 'Jno M', 'Jno Mr', 'Jno W', 'Joan', 'Job', 'Joe', 'Joen', 'Joh Johs', 'Johann', 'Johann F', 'Johann H', 'Johann Jacob', 'Johanna', 'Johanna Inf', 'Johanne', 'Johanne C', 'Johanne M', 'Johannes', 'John', 'John A', 'John B', 'John D', 'John E', 'John F', 'John G', 'John H', 'John Inf', 'John J', 'John Julius', 'John L', 'John M', 'John P', 'John R', 'John See also James W I', 'John T', 'John W', 'Jonah Robert', 'Jonathan', 'Joniah', 'Jons', 'Jorgen P', 'Jorgens', 'Jorgens N', 'Jose Ant', 'Joseph', 'Joseph A', 'Joseph B', 'Joseph C', 'Joseph H', 'Joseph Inf', 'Joseph W Inf', 'Josephine', 'Josephine Inf', 'Josh H W', 'Joshua', 'Josiah', 'Judy', 'Julia', 'Juliana', 'Julianne', 'Julie', 'Julien', 'Julius', 'Julius E P', 'June', 'Jurgen', 'Kane', 'Karim', 'Kaspar', 'Kate', 'Katie', 'Katy', 'Kaven', 'Kenneth', 'Kennith', 'Keziah', 'Kieran', 'Kirstine M', 'Kissi', 'Kitty', 'Knud S', 'Konrad', 'Kristine', 'Kristram', 'L C W', 'Lambert', 'Lars', 'Laughlan', 'Laura', 'Laura C', 'Laurence', 'Laurine', 'Lauritz', 'Lauriz', 'Lavina', 'Lavinia', 'Lawrance', 'Lawrence', 'Lawrenz', 'Lazarus', 'Leah', 'Lemy', 'Lena', 'Lennox', 'Leonard', 'Leonore', 'Letitia', 'Levi', 'Lewis', 'Lilian', 'Lillian', 'Lillian Inf', 'Lillie', 'Lilly', 'Lily', 'Lindsay', 'Lissie', 'Livia', 'Lizzie', 'Lizzie Inf', 'Lizzy', 'Llewellyn', 'Lorenz', 'Lorenzo', 'Louis', 'Louisa', 'Louisa A', 'Louisa M', 'Louisanna', 'Louise', 'Louise F', 'Lowry', 'Lucia', 'Lucy', 'Lucy E', 'Lucy H', 'Ludu W', 'Ludwig', 'Luigi', 'Luke', 'Lupton', 'Lydia', 'M A', 'Mabel', 'Mads', 'Mag', 'Magda', 'Magdalena', 'Magdalene', 'Magdelene', 'Maggie', 'Malachi', 'Malachy', 'Male', 'Malinga', 'Mann', 'Mansey', 'Marc', 'Marem', 'Maren', 'Marg', 'Margarate', 'Margaret', 'Margaret Inf', 'Margaretha', 'Margery', 'Margt', 'Margt E', 'Margt Inf', 'Margte', 'Margte Inf', 'Maria', 'Maria C', 'Maria J', 'Maria Kerst', 'Maria M', 'Marian', 'Marianne', 'Marie', 'Marie C', 'Marie L', 'Marion', 'Marion J', 'Marion Kirste', 'Marius', 'Mark', 'Marks', 'Martha', 'Martha A', 'Martha J', 'Martin', 'Martin Carl', 'Martini', 'Martlam', 'Mary', 'Mary A', 'Mary A L', 'Mary Ann', 'Mary E', 'Mary E Inf', 'Mary H', 'Mary I', 'Mary II', 'Mary Inf', 'Mary J', 'Mary L', 'MaryA', 'Mat', 'Matha', 'Mather', 'Mathew', 'Mathew N', 'Mathias', 'Mathilda', 'Mathilde', 'Matild', 'Matilda', 'Matilda A', 'Matt', 'Matthew', 'Maud', 'Maude E', 'Maurice', 'May', 'May A', 'Meinrad', 'Melaine', 'Melchoir', 'Mena', 'Metta', 'Mette C', 'Mich', 'Michael', 'Michael Inf', 'Michl', 'Mick', 'Mickey', 'Miles', 'Millie', 'Mils', 'Mina', 'Minnie', 'Minnie G', 'Miriam', 'Mirna', 'Miss', 'Miss B', 'Mita', 'Moofyda', 'Morgan', 'Morgan K', 'Mortimer', 'Moses', 'Mr', 'Mrs', 'Mrs Elizh', 'Mrs Matron', 'Mrs wife of Jno', 'Mrs wife of Robert', 'Mrs wife of Will', 'Mrswife of Alexr C', 'Mrswife of John', 'Murdo', 'Murdock', 'Myra', 'N', 'N C', 'Nan', 'Nancy', 'Nanie', 'Nannett', 'Nannie', 'Nano', 'Nans', 'Naomi', 'Nat', 'Nath H', 'Nathaniel', 'Nathl', 'Neal', 'Ned', 'Neil', 'Neils', 'Nellie', 'Nelly', 'Nicholas', 'Nicolas', 'Nicole', 'Nicolene', 'Nields', 'Niels', 'Niels A', 'Niels C H', 'Niels Christ', 'Niels Christian', 'Niels Julius', 'Niels P', 'Niels S', 'Nisse T', 'Noah', 'Nora', 'Norah', 'Nowlaus', 'Ocesti', 'Ola', 'Olander', 'Ole', 'Olive', 'Orlando', 'Ormond', 'Osborn', 'Oscar', 'Ottalie', 'Ottelee', 'Ottilie', 'Otto', 'Otto H', 'Ottolie', 'Owen', 'P C', 'P T', 'Pamila', 'Park', 'Pat', 'Pat Inf', 'Patick', 'Patience', 'Patk', 'Patrick', 'Paul', 'Paul H', 'Paul J', 'Pauline', 'Peder', 'Peder H', 'Penders', 'Per', 'Percival', 'Peter', 'Peter C', 'Peter Fred', 'Peter J', 'Peter Norgard', 'Ph D', 'Phebe', 'Philadelphia', 'Philip', 'Phillip', 'Phoebe', 'Pictro', 'Pryce', 'R Jas', 'Racheal', 'Rachel', 'Rafaelli', 'Ragnhild', 'Ralph', 'Rasmine', 'Rasmus', 'Raymond', 'Rd', 'Rebecca', 'Rebecca A', 'Redmond', 'Rene', 'Reuben', 'Reutene Inf', 'Rhoda', 'Rich', 'Richard', 'Richd', 'Rinaldi', 'Robert', 'Robert Inf', 'Robert P', 'Robt', 'Roderick', 'Rody', 'Roger', 'Rogers Rd', 'Rosa', 'Rosalie', 'Rosanna', 'Rosannah', 'Rose', 'Rose A', 'Rosey', 'Rosina', 'Rosini', 'Rosley A', 'Rowland', 'Rudolf', 'Rudolph', 'Rudolphe', 'Russel', 'Russell Inf', 'Ruth', 'Sal Valatile', 'Sam', 'Sambo', 'Samborne', 'Saml', 'Samuel', 'Sarah', 'Sarah A', 'Sarah Ann', 'Sarah E', 'Sarah Inf', 'Sebrine', 'Selina', 'Septimus', 'Severine', 'Siegmund', 'Silas', 'Simon', 'Solomon', 'Soner Jeps', 'Sophia', 'Sophias P', 'Sophie', 'Sophie C', 'Sophie S', 'Sophy', 'Soren', 'Soren S', 'Sorga A', 'Squire', 'Stella', 'Stephan', 'Stephen', 'Stewart', 'Susan', 'Susanah', 'Susannah', 'Susanne', 'Sussanah', 'Sydney', 'T Albert', 'Tamer', 'Terence', 'Teresa', 'Thady', 'Thealy', 'Theodor', 'Theodore', 'Theresa', 'Therese', 'Thirza', 'Thomas', 'Thomas A', 'Thomas C', 'Thomas Inf', 'Thomas J', 'Thomas P', 'Thos', 'Thos E', 'Timothy', 'Timy', 'Toent Hans', 'Tom', 'Tommy', 'Tristine', 'Trude W', 'Veronika', 'Victor', 'Vincenzi', 'Vincenzo', 'Violet', 'Vivian', 'W', 'W C', 'W D', 'W F', 'W H', 'W J', 'W P', 'Waldern', 'Waldmar F', 'Wallace', 'Walter', 'Walter Inf', 'Wardle', 'Waren', 'Warrington Inf', 'Werder', 'Wessley Inf', 'Whilemine', 'Wilfred', 'Wilhelm', 'Wilhelm F', 'Wilhelmine', 'Will', 'Will Mr', 'William', 'William A', 'William F', 'William G', 'William Inf', 'William J', 'William James', 'William R', 'William S', 'William T Inf', 'William W', 'Williamena', 'Willie', 'Willliam', 'Winifred', 'Winifred Inf', 'Wm', 'Wm F', 'Wm H', 'Wm J', 'Wm P', 'Wm R', 'Wright', 'Y H', 'child of A Schonsock', 'child of Alfred', 'family', 'family of', 'n/a', 'one child of Albert', 'one child of Ernest', 'one child of Hugh', 'one child of Jasper', 'one child of John', 'six children of Susan', 'three children of John', 'two children of Edward', 'two children of James', 'two children of John', 'two children of Richard', 'two children of William', 'unknown', 'wife', 'wife of', 'wife of A Schonsock', 'wife of Carl', 'wife of F Schulz', 'wife of G', 'wife of H', 'wife of Hend', 'wife of I Soshman', 'wife of J', 'wife of Mils']</t>
         </is>
@@ -638,7 +649,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -701,12 +712,15 @@
         <v>1845</v>
       </c>
       <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
         <v>74683</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>481</v>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>['1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '19', '2', '20', '21', '22', '23', '3', '4', '5', '6', '7', '8', '9', 'Aoba', 'Apie', 'Assisted', 'Burra Burra', 'Cabin', 'Free', 'Free Nominated', 'Full Payers', 'Mai', 'Malicolo', 'Married Families', 'Married Families 1', 'Married Families 10', 'Married Families 11', 'Married Families 12', 'Married Families 13', 'Married Families 14', 'Married Families 15', 'Married Families 16', 'Married Families 2', 'Married Families 3', 'Married Families 4', 'Married Families 5', 'Married Families 6', 'Married Families 7', 'Married Families 8', 'Married Families 9', 'Married Families Assisted', 'Married Families Asst 10', 'Married Families Asst 11', 'Married Families Asst 12', 'Married Families Asst 13', 'Married Families Asst 14', 'Married Families Asst 15', 'Married Families Asst 16', 'Married Families Asst 17', 'Married Families Asst 18', 'Married Families Asst 19', 'Married Families Asst 2', 'Married Families Asst 20', 'Married Families Asst 21', 'Married Families Asst 3', 'Married Families Asst 4', 'Married Families Asst 5', 'Married Families Asst 6', 'Married Families Asst 7', 'Married Families Asst 8', 'Married Families Asst 9', 'Married Families F P 1', 'Married Families Free 22', 'Married Families Free 23', 'Married Families Free 24', 'Married Families Free 25', 'Married Families Free 26', 'Married Families Free 27', 'Married Families Free 29', 'Married Families Free 30', 'Married Families Free 31', 'Married Families Free 32', 'Married Families Free 33', 'Married Families Free 34', 'Married Families Free 35', 'Married Families Free 36', 'Married Families Free 37', 'Married Families Free 38', 'Married Families Free 39', 'Married Families Free 40', 'Married Families Free 41', 'Married Families Free 42', 'Married Families Free 43', 'Married Families Free 44', 'Married Families Free 45', 'Married Families Free 46', 'Married Families Free 47', 'Married Families Free 48', 'Married Families Free 49', 'Married Families Free 50', 'Married Families Free 51', 'Married Families Free 52', 'Married Families Free 53', 'Married Families Free Nom', 'Married Families Remit Passengers', 'Married FamiliesFree 28', 'Married Immigrants 1', 'Married Immigrants 2', 'Married Immigrants 3', 'Married Immigrants 4', 'Married Immigrants 4?', 'Married Immigrants 5', 'Remittance', 'Saloon', 'Single Girls 1', 'Single Girls 10', 'Single Girls 11', 'Single Girls 12', 'Single Girls 13', 'Single Girls 14', 'Single Girls 15', 'Single Girls 16', 'Single Girls 17', 'Single Girls 18', 'Single Girls 19', 'Single Girls 2', 'Single Girls 20', 'Single Girls 21', 'Single Girls 22', 'Single Girls 23', 'Single Girls 24', 'Single Girls 25', 'Single Girls 26', 'Single Girls 27', 'Single Girls 28', 'Single Girls 29', 'Single Girls 3', 'Single Girls 30', 'Single Girls 31', 'Single Girls 32', 'Single Girls 33', 'Single Girls 34', 'Single Girls 35', 'Single Girls 36', 'Single Girls 37', 'Single Girls 38', 'Single Girls 39', 'Single Girls 4', 'Single Girls 40', 'Single Girls 41', 'Single Girls 42', 'Single Girls 43', 'Single Girls 44', 'Single Girls 45', 'Single Girls 46', 'Single Girls 47', 'Single Girls 48', 'Single Girls 49', 'Single Girls 5', 'Single Girls 50', 'Single Girls 51', 'Single Girls 52', 'Single Girls 53', 'Single Girls 54', 'Single Girls 55', 'Single Girls 56', 'Single Girls 57', 'Single Girls 58', 'Single Girls 59', 'Single Girls 6', 'Single Girls 60', 'Single Girls 61', 'Single Girls 62', 'Single Girls 63', 'Single Girls 64', 'Single Girls 65', 'Single Girls 66', 'Single Girls 67', 'Single Girls 68', 'Single Girls 69', 'Single Girls 7', 'Single Girls 70', 'Single Girls 71', 'Single Girls 72', 'Single Girls 73', 'Single Girls 74', 'Single Girls 75', 'Single Girls 76', 'Single Girls 77', 'Single Girls 78', 'Single Girls 79', 'Single Girls 8', 'Single Girls 80', 'Single Girls 81', 'Single Girls 82', 'Single Girls 9', 'Single Girls Free 1', 'Single Girls Free 10', 'Single Girls Free 11', 'Single Girls Free 12', 'Single Girls Free 13', 'Single Girls Free 14', 'Single Girls Free 15', 'Single Girls Free 2', 'Single Girls Free 3', 'Single Girls Free 4', 'Single Girls Free 5', 'Single Girls Free 6', 'Single Girls Free 7', 'Single Girls Free 8', 'Single Girls Free 9', 'Single Girls Free Nom', 'Single Girls Full Paying', 'Single Girls Full Paying 1', 'Single Girls Full Paying 2', 'Single Girls Full Paying 3', 'Single Girls Remittance', 'Single Men', 'Single Men 1', 'Single Men 10', 'Single Men 11', 'Single Men 12', 'Single Men 13', 'Single Men 14', 'Single Men 15', 'Single Men 16', 'Single Men 17', 'Single Men 18', 'Single Men 19', 'Single Men 2', 'Single Men 20', 'Single Men 21', 'Single Men 22', 'Single Men 23', 'Single Men 24', 'Single Men 25', 'Single Men 26', 'Single Men 27', 'Single Men 28', 'Single Men 29', 'Single Men 3', 'Single Men 30', 'Single Men 31', 'Single Men 32', 'Single Men 33', 'Single Men 34', 'Single Men 35', 'Single Men 36', 'Single Men 37', 'Single Men 38', 'Single Men 39', 'Single Men 4', 'Single Men 40', 'Single Men 41', 'Single Men 42', 'Single Men 43', 'Single Men 44', 'Single Men 45', 'Single Men 46', 'Single Men 47', 'Single Men 48', 'Single Men 49', 'Single Men 5', 'Single Men 50', 'Single Men 51', 'Single Men 52', 'Single Men 53', 'Single Men 54', 'Single Men 55', 'Single Men 56', 'Single Men 57', 'Single Men 58', 'Single Men 59', 'Single Men 6', 'Single Men 60', 'Single Men 61', 'Single Men 62', 'Single Men 63', 'Single Men 64', 'Single Men 65', 'Single Men 66', 'Single Men 67', 'Single Men 68', 'Single Men 69', 'Single Men 7', 'Single Men 70', 'Single Men 71', 'Single Men 72', 'Single Men 73', 'Single Men 74', 'Single Men 75', 'Single Men 76', 'Single Men 77', 'Single Men 78', 'Single Men 79', 'Single Men 8', 'Single Men 80', 'Single Men 81', 'Single Men 82', 'Single Men 83', 'Single Men 84', 'Single Men 85', 'Single Men 86', 'Single Men 87', 'Single Men 88', 'Single Men 9', 'Single Men Assisted', 'Single Men Assisted 1', 'Single Men Assisted 10', 'Single Men Assisted 11', 'Single Men Assisted 12', 'Single Men Assisted 13', 'Single Men Assisted 14', 'Single Men Assisted 15', 'Single Men Assisted 16', 'Single Men Assisted 17', 'Single Men Assisted 18', 'Single Men Assisted 19', 'Single Men Assisted 2', 'Single Men Assisted 20', 'Single Men Assisted 21', 'Single Men Assisted 22', 'Single Men Assisted 23', 'Single Men Assisted 24', 'Single Men Assisted 25', 'Single Men Assisted 26', 'Single Men Assisted 27', 'Single Men Assisted 28', 'Single Men Assisted 29', 'Single Men Assisted 3', 'Single Men Assisted 30', 'Single Men Assisted 31', 'Single Men Assisted 32', 'Single Men Assisted 4', 'Single Men Assisted 5', 'Single Men Assisted 6', 'Single Men Assisted 7', 'Single Men Assisted 8', 'Single Men Assisted 9', 'Single Men Asst', 'Single Men F P', 'Single Men Free', 'Single Men Free Nomd', 'Single Men Full 100', 'Single Men Full 101', 'Single Men Full 102', 'Single Men Full 103', 'Single Men Full 104', 'Single Men Full 105', 'Single Men Full 106', 'Single Men Full 107', 'Single Men Full 108', 'Single Men Full 109', 'Single Men Full 110', 'Single Men Full 111', 'Single Men Full 112', 'Single Men Full 113', 'Single Men Full 114', 'Single Men Full 115', 'Single Men Full 116', 'Single Men Full 117', 'Single Men Full 118', 'Single Men Full 119', 'Single Men Full 120', 'Single Men Full 121', 'Single Men Full 122', 'Single Men Full 123', 'Single Men Full 124', 'Single Men Full 125', 'Single Men Full 126', 'Single Men Full 127', 'Single Men Full 128', 'Single Men Full 129', 'Single Men Full 130', 'Single Men Full 131', 'Single Men Full 132', 'Single Men Full 133', 'Single Men Full 134', 'Single Men Full 135', 'Single Men Full 136', 'Single Men Full 137', 'Single Men Full 138', 'Single Men Full 139', 'Single Men Full 140', 'Single Men Full 141', 'Single Men Full 142', 'Single Men Full 143', 'Single Men Full 144', 'Single Men Full 145', 'Single Men Full 146', 'Single Men Full 147', 'Single Men Full 148', 'Single Men Full 149', 'Single Men Full 150', 'Single Men Full 151', 'Single Men Full 152', 'Single Men Full 153', 'Single Men Full 154', 'Single Men Full 155', 'Single Men Full 156', 'Single Men Full 157', 'Single Men Full 158', 'Single Men Full 33', 'Single Men Full 34', 'Single Men Full 35', 'Single Men Full 36', 'Single Men Full 37', 'Single Men Full 38', 'Single Men Full 39', 'Single Men Full 40', 'Single Men Full 41', 'Single Men Full 42', 'Single Men Full 43', 'Single Men Full 44', 'Single Men Full 45', 'Single Men Full 46', 'Single Men Full 47', 'Single Men Full 48', 'Single Men Full 49', 'Single Men Full 50', 'Single Men Full 51', 'Single Men Full 52', 'Single Men Full 53', 'Single Men Full 54', 'Single Men Full 55', 'Single Men Full 56', 'Single Men Full 57', 'Single Men Full 58', 'Single Men Full 59', 'Single Men Full 60', 'Single Men Full 61', 'Single Men Full 62', 'Single Men Full 63', 'Single Men Full 64', 'Single Men Full 65', 'Single Men Full 66', 'Single Men Full 67', 'Single Men Full 68', 'Single Men Full 69', 'Single Men Full 70', 'Single Men Full 71', 'Single Men Full 72', 'Single Men Full 73', 'Single Men Full 74', 'Single Men Full 75', 'Single Men Full 76', 'Single Men Full 77', 'Single Men Full 78', 'Single Men Full 79', 'Single Men Full 80', 'Single Men Full 81', 'Single Men Full 82', 'Single Men Full 83', 'Single Men Full 84', 'Single Men Full 85', 'Single Men Full 86', 'Single Men Full 87', 'Single Men Full 88', 'Single Men Full 89', 'Single Men Full 90', 'Single Men Full 91', 'Single Men Full 92', 'Single Men Full 93', 'Single Men Full 94', 'Single Men Full 95', 'Single Men Full 96', 'Single Men Full 97', 'Single Men Full 98', 'Single Men Full 99', 'Single Men Remittance', 'Single Women 1', 'Single Women 2', 'Single Women 3', 'Single Women 4', 'Single Women 4?', 'Single Women 5', 'Single Women 6', 'Single Women 7', 'Steerage', 'Tanna', 'n/a']</t>
         </is>
@@ -719,7 +733,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -782,12 +796,15 @@
         <v>538</v>
       </c>
       <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
         <v>60222</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>76</v>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>['1', '10', '11', '12', '13', '14', '15', '16', '17', '18', '19', '2', '20', '21', '22', '23', '24', '25', '26', '27', '28', '29', '3', '30', '31', '32', '33', '34', '35', '36', '37', '38', '39', '4', '40', '41', '42', '43', '44', '45', '46', '47', '48', '49', '5', '50', '51', '52', '53', '54', '55', '56', '57', '58', '6', '7', '8', '9', 'Caroline', 'City of Agra', 'Duke of Athole', 'Glamis', 'Herschel', 'Highflyer', 'Indus', 'Lammershagen', 'Queensland', 'Saraca', 'Scottish Admiral', 'Scottish Hero', 'Scottish Wizard', 'Silver Eagle', 'Sybil', 'Western Monarch', 'Windsor Castle', 'n/a']</t>
         </is>
@@ -800,7 +817,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -863,12 +880,15 @@
         <v>794</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>64542</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>28</v>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>['13 Sep 1878', '14 Feb 1878', '14 June 1881', '15 Dec 1877', '15 May 1883', '18 Apr 1883', '18 Jan 1877', '18 Jul 1876', '18 Nov 1875', '1877', '1878', '1880', '1882', '2 Jan 1883', '20 Feb 1878', '23 Jan 1884', '26 Feb 1876', '27 Feb 1878', '29 Jul 1877', '30 May 1878', '363', '5 Dec 1878', '6 Apr 1879', 'Apr 1882', 'Aug 1882', 'Jun 1882', 'May 1881', 'ca Jul 1883']</t>
         </is>
@@ -881,7 +901,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -944,12 +964,15 @@
         <v>5361</v>
       </c>
       <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
         <v>36000</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>2</v>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>['18418', '18419']</t>
         </is>
@@ -962,7 +985,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1025,12 +1048,15 @@
         <v>5361</v>
       </c>
       <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
         <v>50400</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>2</v>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>['IMA3/18', 'IMA3/19']</t>
         </is>
@@ -1043,7 +1069,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1106,12 +1132,15 @@
         <v>5348</v>
       </c>
       <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
         <v>32296</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>3</v>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>['N/A', 'Z6612', 'n/a']</t>
         </is>
